--- a/resources/SAMM_spreadsheet.xlsx
+++ b/resources/SAMM_spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkefer/dev/owaspsamm/toolbox-spreadsheet/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkefer/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF153768-BF2D-3A4D-A154-844CF36BDA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783617DA-6FCF-2F4A-8B4F-6C4D8C341183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="-20060" windowWidth="33600" windowHeight="19360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13480" yWindow="-30900" windowWidth="42880" windowHeight="27400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attribution and License" sheetId="1" r:id="rId1"/>
@@ -20112,7 +20112,7 @@
   <dimension ref="A1:Z230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -20727,8 +20727,8 @@
         <v>O</v>
       </c>
       <c r="F20" s="17"/>
-      <c r="G20" s="16">
-        <f>IFERROR(VLOOKUP(F20,AnsVTBL,2,FALSE),0)</f>
+      <c r="G20" s="16" cm="1">
+        <f t="array" aca="1" ref="G20" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H20" s="97">
@@ -30173,23 +30173,23 @@
         <v>Strategy &amp; Metrics</v>
       </c>
       <c r="C34" s="95">
-        <f>Roadmap!M18</f>
+        <f ca="1">Roadmap!M18</f>
         <v>0</v>
       </c>
       <c r="D34" s="95">
-        <f>Roadmap!L18</f>
+        <f ca="1">Roadmap!L18</f>
         <v>0</v>
       </c>
       <c r="E34" s="95">
-        <f>Roadmap!L19</f>
+        <f ca="1">Roadmap!L19</f>
         <v>0</v>
       </c>
       <c r="F34" s="95">
-        <f>Roadmap!L20</f>
+        <f ca="1">Roadmap!L20</f>
         <v>0</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" ref="G34:G39" si="5">(((((IF((C34="0+"),0.5,0)+IF((C34=1),1,0))+IF((C34="1+"),1.5,0))+IF((C34=2),2,0))+IF((C34="2+"),2.5,0))+IF((C34=3),3,0))+IF((C34="3+"),3.5,0)</f>
+        <f t="shared" ref="G34:G39" ca="1" si="5">(((((IF((C34="0+"),0.5,0)+IF((C34=1),1,0))+IF((C34="1+"),1.5,0))+IF((C34=2),2,0))+IF((C34="2+"),2.5,0))+IF((C34=3),3,0))+IF((C34="3+"),3.5,0)</f>
         <v>0</v>
       </c>
       <c r="H34" s="2"/>
@@ -30198,7 +30198,7 @@
         <v>Governance</v>
       </c>
       <c r="J34" s="95">
-        <f>AVERAGE(C34:C36)</f>
+        <f ca="1">AVERAGE(C34:C36)</f>
         <v>0</v>
       </c>
       <c r="K34" s="303"/>
@@ -30214,7 +30214,7 @@
         <v>Strategy &amp; Metrics</v>
       </c>
       <c r="V34" s="95">
-        <f>C34</f>
+        <f ca="1">C34</f>
         <v>0</v>
       </c>
       <c r="W34" s="95">
@@ -30240,23 +30240,23 @@
         <v>Policy &amp; Compliance</v>
       </c>
       <c r="C35" s="95">
-        <f>Roadmap!M27</f>
+        <f ca="1">Roadmap!M27</f>
         <v>0</v>
       </c>
       <c r="D35" s="95">
-        <f>Roadmap!L27</f>
+        <f ca="1">Roadmap!L27</f>
         <v>0</v>
       </c>
       <c r="E35" s="95">
-        <f>Roadmap!L28</f>
+        <f ca="1">Roadmap!L28</f>
         <v>0</v>
       </c>
       <c r="F35" s="95">
-        <f>Roadmap!L29</f>
+        <f ca="1">Roadmap!L29</f>
         <v>0</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H35" s="2"/>
@@ -30265,7 +30265,7 @@
         <v>Design</v>
       </c>
       <c r="J35" s="95">
-        <f>AVERAGE(C37:C39)</f>
+        <f ca="1">AVERAGE(C37:C39)</f>
         <v>0</v>
       </c>
       <c r="K35" s="303"/>
@@ -30281,7 +30281,7 @@
         <v>Policy &amp; Compliance</v>
       </c>
       <c r="V35" s="95">
-        <f>C35</f>
+        <f ca="1">C35</f>
         <v>0</v>
       </c>
       <c r="W35" s="95">
@@ -30307,23 +30307,23 @@
         <v>Education &amp; Guidance</v>
       </c>
       <c r="C36" s="95">
-        <f>Roadmap!M36</f>
+        <f ca="1">Roadmap!M36</f>
         <v>0</v>
       </c>
       <c r="D36" s="95">
-        <f>Roadmap!L36</f>
+        <f ca="1">Roadmap!L36</f>
         <v>0</v>
       </c>
       <c r="E36" s="95">
-        <f>Roadmap!L37</f>
+        <f ca="1">Roadmap!L37</f>
         <v>0</v>
       </c>
       <c r="F36" s="95">
-        <f>Roadmap!L38</f>
+        <f ca="1">Roadmap!L38</f>
         <v>0</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H36" s="2"/>
@@ -30332,7 +30332,7 @@
         <v>Implementation</v>
       </c>
       <c r="J36" s="95">
-        <f>AVERAGE(C40:C42)</f>
+        <f ca="1">AVERAGE(C40:C42)</f>
         <v>0</v>
       </c>
       <c r="K36" s="303"/>
@@ -30348,7 +30348,7 @@
         <v>Education &amp; Guidance</v>
       </c>
       <c r="V36" s="95">
-        <f>C36</f>
+        <f ca="1">C36</f>
         <v>0</v>
       </c>
       <c r="W36" s="95">
@@ -30374,23 +30374,23 @@
         <v>Threat Assessment</v>
       </c>
       <c r="C37" s="95">
-        <f>Roadmap!M46</f>
+        <f ca="1">Roadmap!M46</f>
         <v>0</v>
       </c>
       <c r="D37" s="95">
-        <f>Roadmap!L46</f>
+        <f ca="1">Roadmap!L46</f>
         <v>0</v>
       </c>
       <c r="E37" s="95">
-        <f>Roadmap!L47</f>
+        <f ca="1">Roadmap!L47</f>
         <v>0</v>
       </c>
       <c r="F37" s="95">
-        <f>Roadmap!L48</f>
+        <f ca="1">Roadmap!L48</f>
         <v>0</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H37" s="2"/>
@@ -30399,7 +30399,7 @@
         <v>Verification</v>
       </c>
       <c r="J37" s="95">
-        <f>AVERAGE(C43:C45)</f>
+        <f ca="1">AVERAGE(C43:C45)</f>
         <v>0</v>
       </c>
       <c r="K37" s="303"/>
@@ -30418,7 +30418,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="95">
-        <f>C37</f>
+        <f ca="1">C37</f>
         <v>0</v>
       </c>
       <c r="X37" s="95">
@@ -30441,23 +30441,23 @@
         <v>Security Requirements</v>
       </c>
       <c r="C38" s="95">
-        <f>Roadmap!M55</f>
+        <f ca="1">Roadmap!M55</f>
         <v>0</v>
       </c>
       <c r="D38" s="95">
-        <f>Roadmap!L55</f>
+        <f ca="1">Roadmap!L55</f>
         <v>0</v>
       </c>
       <c r="E38" s="95">
-        <f>Roadmap!L56</f>
+        <f ca="1">Roadmap!L56</f>
         <v>0</v>
       </c>
       <c r="F38" s="95">
-        <f>Roadmap!L57</f>
+        <f ca="1">Roadmap!L57</f>
         <v>0</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H38" s="2"/>
@@ -30466,7 +30466,7 @@
         <v>Operations</v>
       </c>
       <c r="J38" s="95">
-        <f>AVERAGE(C46:C48)</f>
+        <f ca="1">AVERAGE(C46:C48)</f>
         <v>0</v>
       </c>
       <c r="K38" s="303"/>
@@ -30485,7 +30485,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="95">
-        <f>C38</f>
+        <f ca="1">C38</f>
         <v>0</v>
       </c>
       <c r="X38" s="95">
@@ -30508,23 +30508,23 @@
         <v>Secure Architecture</v>
       </c>
       <c r="C39" s="95">
-        <f>Roadmap!M64</f>
+        <f ca="1">Roadmap!M64</f>
         <v>0</v>
       </c>
       <c r="D39" s="95">
-        <f>Roadmap!L64</f>
+        <f ca="1">Roadmap!L64</f>
         <v>0</v>
       </c>
       <c r="E39" s="95">
-        <f>Roadmap!L65</f>
+        <f ca="1">Roadmap!L65</f>
         <v>0</v>
       </c>
       <c r="F39" s="95">
-        <f>Roadmap!L66</f>
+        <f ca="1">Roadmap!L66</f>
         <v>0</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H39" s="2"/>
@@ -30546,7 +30546,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="95">
-        <f>C39</f>
+        <f ca="1">C39</f>
         <v>0</v>
       </c>
       <c r="X39" s="95">
@@ -30569,19 +30569,19 @@
         <v>Secure Build</v>
       </c>
       <c r="C40" s="95">
-        <f>Roadmap!M74</f>
+        <f ca="1">Roadmap!M74</f>
         <v>0</v>
       </c>
       <c r="D40" s="95">
-        <f>Roadmap!L74</f>
+        <f ca="1">Roadmap!L74</f>
         <v>0</v>
       </c>
       <c r="E40" s="95">
-        <f>Roadmap!L75</f>
+        <f ca="1">Roadmap!L75</f>
         <v>0</v>
       </c>
       <c r="F40" s="95">
-        <f>Roadmap!L76</f>
+        <f ca="1">Roadmap!L76</f>
         <v>0</v>
       </c>
       <c r="G40" s="5"/>
@@ -30607,7 +30607,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="95">
-        <f>C40</f>
+        <f ca="1">C40</f>
         <v>0</v>
       </c>
       <c r="Y40" s="95">
@@ -30627,19 +30627,19 @@
         <v>Secure Deployment</v>
       </c>
       <c r="C41" s="95">
-        <f>Roadmap!M83</f>
+        <f ca="1">Roadmap!M83</f>
         <v>0</v>
       </c>
       <c r="D41" s="95">
-        <f>Roadmap!L83</f>
+        <f ca="1">Roadmap!L83</f>
         <v>0</v>
       </c>
       <c r="E41" s="95">
-        <f>Roadmap!L84</f>
+        <f ca="1">Roadmap!L84</f>
         <v>0</v>
       </c>
       <c r="F41" s="95">
-        <f>Roadmap!L85</f>
+        <f ca="1">Roadmap!L85</f>
         <v>0</v>
       </c>
       <c r="G41" s="5"/>
@@ -30665,7 +30665,7 @@
         <v>0</v>
       </c>
       <c r="X41" s="95">
-        <f>C41</f>
+        <f ca="1">C41</f>
         <v>0</v>
       </c>
       <c r="Y41" s="95">
@@ -30685,19 +30685,19 @@
         <v>Defect Management</v>
       </c>
       <c r="C42" s="95">
-        <f>Roadmap!M92</f>
+        <f ca="1">Roadmap!M92</f>
         <v>0</v>
       </c>
       <c r="D42" s="95">
-        <f>Roadmap!L92</f>
+        <f ca="1">Roadmap!L92</f>
         <v>0</v>
       </c>
       <c r="E42" s="95">
-        <f>Roadmap!L93</f>
+        <f ca="1">Roadmap!L93</f>
         <v>0</v>
       </c>
       <c r="F42" s="95">
-        <f>Roadmap!L94</f>
+        <f ca="1">Roadmap!L94</f>
         <v>0</v>
       </c>
       <c r="G42" s="5"/>
@@ -30723,7 +30723,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="95">
-        <f>C42</f>
+        <f ca="1">C42</f>
         <v>0</v>
       </c>
       <c r="Y42" s="95">
@@ -30743,23 +30743,23 @@
         <v>Architecture Assessment</v>
       </c>
       <c r="C43" s="95">
-        <f>Roadmap!M102</f>
+        <f ca="1">Roadmap!M102</f>
         <v>0</v>
       </c>
       <c r="D43" s="95">
-        <f>Roadmap!L102</f>
+        <f ca="1">Roadmap!L102</f>
         <v>0</v>
       </c>
       <c r="E43" s="95">
-        <f>Roadmap!L103</f>
+        <f ca="1">Roadmap!L103</f>
         <v>0</v>
       </c>
       <c r="F43" s="95">
-        <f>Roadmap!L104</f>
+        <f ca="1">Roadmap!L104</f>
         <v>0</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" ref="G43:G48" si="6">(((((IF((C43="0+"),0.5,0)+IF((C43=1),1,0))+IF((C43="1+"),1.5,0))+IF((C43=2),2,0))+IF((C43="2+"),2.5,0))+IF((C43=3),3,0))+IF((C43="3+"),3.5,0)</f>
+        <f t="shared" ref="G43:G48" ca="1" si="6">(((((IF((C43="0+"),0.5,0)+IF((C43=1),1,0))+IF((C43="1+"),1.5,0))+IF((C43=2),2,0))+IF((C43="2+"),2.5,0))+IF((C43=3),3,0))+IF((C43="3+"),3.5,0)</f>
         <v>0</v>
       </c>
       <c r="H43" s="2"/>
@@ -30787,7 +30787,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="95">
-        <f>C43</f>
+        <f ca="1">C43</f>
         <v>0</v>
       </c>
       <c r="Z43" s="95">
@@ -30804,23 +30804,23 @@
         <v>Requirements Testing</v>
       </c>
       <c r="C44" s="95">
-        <f>Roadmap!M111</f>
+        <f ca="1">Roadmap!M111</f>
         <v>0</v>
       </c>
       <c r="D44" s="95">
-        <f>Roadmap!L111</f>
+        <f ca="1">Roadmap!L111</f>
         <v>0</v>
       </c>
       <c r="E44" s="95">
-        <f>Roadmap!L112</f>
+        <f ca="1">Roadmap!L112</f>
         <v>0</v>
       </c>
       <c r="F44" s="95">
-        <f>Roadmap!L113</f>
+        <f ca="1">Roadmap!L113</f>
         <v>0</v>
       </c>
       <c r="G44" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="H44" s="2"/>
@@ -30848,7 +30848,7 @@
         <v>0</v>
       </c>
       <c r="Y44" s="95">
-        <f>C44</f>
+        <f ca="1">C44</f>
         <v>0</v>
       </c>
       <c r="Z44" s="95">
@@ -30865,23 +30865,23 @@
         <v>Security Testing</v>
       </c>
       <c r="C45" s="95">
-        <f>Roadmap!M120</f>
+        <f ca="1">Roadmap!M120</f>
         <v>0</v>
       </c>
       <c r="D45" s="95">
-        <f>Roadmap!L120</f>
+        <f ca="1">Roadmap!L120</f>
         <v>0</v>
       </c>
       <c r="E45" s="95">
-        <f>Roadmap!L121</f>
+        <f ca="1">Roadmap!L121</f>
         <v>0</v>
       </c>
       <c r="F45" s="95">
-        <f>Roadmap!L122</f>
+        <f ca="1">Roadmap!L122</f>
         <v>0</v>
       </c>
       <c r="G45" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="H45" s="2"/>
@@ -30909,7 +30909,7 @@
         <v>0</v>
       </c>
       <c r="Y45" s="95">
-        <f>C45</f>
+        <f ca="1">C45</f>
         <v>0</v>
       </c>
       <c r="Z45" s="95">
@@ -30926,23 +30926,23 @@
         <v>Incident Management</v>
       </c>
       <c r="C46" s="95">
-        <f>Roadmap!M130</f>
+        <f ca="1">Roadmap!M130</f>
         <v>0</v>
       </c>
       <c r="D46" s="95">
-        <f>Roadmap!L130</f>
+        <f ca="1">Roadmap!L130</f>
         <v>0</v>
       </c>
       <c r="E46" s="95">
-        <f>Roadmap!L131</f>
+        <f ca="1">Roadmap!L131</f>
         <v>0</v>
       </c>
       <c r="F46" s="95">
-        <f>Roadmap!L132</f>
+        <f ca="1">Roadmap!L132</f>
         <v>0</v>
       </c>
       <c r="G46" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="H46" s="2"/>
@@ -30973,7 +30973,7 @@
         <v>0</v>
       </c>
       <c r="Z46" s="95">
-        <f>C46</f>
+        <f ca="1">C46</f>
         <v>0</v>
       </c>
     </row>
@@ -30987,23 +30987,23 @@
         <v>Environment Management</v>
       </c>
       <c r="C47" s="95">
-        <f>Roadmap!M139</f>
+        <f ca="1">Roadmap!M139</f>
         <v>0</v>
       </c>
       <c r="D47" s="95">
-        <f>Roadmap!L139</f>
+        <f ca="1">Roadmap!L139</f>
         <v>0</v>
       </c>
       <c r="E47" s="95">
-        <f>Roadmap!L140</f>
+        <f ca="1">Roadmap!L140</f>
         <v>0</v>
       </c>
       <c r="F47" s="95">
-        <f>Roadmap!L141</f>
+        <f ca="1">Roadmap!L141</f>
         <v>0</v>
       </c>
       <c r="G47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="H47" s="2"/>
@@ -31034,7 +31034,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="95">
-        <f>C47</f>
+        <f ca="1">C47</f>
         <v>0</v>
       </c>
     </row>
@@ -31048,23 +31048,23 @@
         <v>Operational Management</v>
       </c>
       <c r="C48" s="95">
-        <f>Roadmap!M148</f>
+        <f ca="1">Roadmap!M148</f>
         <v>0</v>
       </c>
       <c r="D48" s="95">
-        <f>Roadmap!L148</f>
+        <f ca="1">Roadmap!L148</f>
         <v>0</v>
       </c>
       <c r="E48" s="95">
-        <f>Roadmap!L149</f>
+        <f ca="1">Roadmap!L149</f>
         <v>0</v>
       </c>
       <c r="F48" s="95">
-        <f>Roadmap!L150</f>
+        <f ca="1">Roadmap!L150</f>
         <v>0</v>
       </c>
       <c r="G48" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="H48" s="2"/>
@@ -31095,7 +31095,7 @@
         <v>0</v>
       </c>
       <c r="Z48" s="95">
-        <f>C48</f>
+        <f ca="1">C48</f>
         <v>0</v>
       </c>
     </row>
@@ -31233,23 +31233,23 @@
         <v>Strategy &amp; Metrics</v>
       </c>
       <c r="C54" s="95">
-        <f>Roadmap!Q18</f>
+        <f ca="1">Roadmap!Q18</f>
         <v>0</v>
       </c>
       <c r="D54" s="95">
-        <f>Roadmap!P18</f>
+        <f ca="1">Roadmap!P18</f>
         <v>0</v>
       </c>
       <c r="E54" s="95">
-        <f>Roadmap!P19</f>
+        <f ca="1">Roadmap!P19</f>
         <v>0</v>
       </c>
       <c r="F54" s="95">
-        <f>Roadmap!P20</f>
+        <f ca="1">Roadmap!P20</f>
         <v>0</v>
       </c>
       <c r="G54" s="5">
-        <f t="shared" ref="G54:G59" si="7">(((((IF((C54="0+"),0.5,0)+IF((C54=1),1,0))+IF((C54="1+"),1.5,0))+IF((C54=2),2,0))+IF((C54="2+"),2.5,0))+IF((C54=3),3,0))+IF((C54="3+"),3.5,0)</f>
+        <f t="shared" ref="G54:G59" ca="1" si="7">(((((IF((C54="0+"),0.5,0)+IF((C54=1),1,0))+IF((C54="1+"),1.5,0))+IF((C54=2),2,0))+IF((C54="2+"),2.5,0))+IF((C54=3),3,0))+IF((C54="3+"),3.5,0)</f>
         <v>0</v>
       </c>
       <c r="H54" s="2"/>
@@ -31258,7 +31258,7 @@
         <v>Governance</v>
       </c>
       <c r="J54" s="95">
-        <f>AVERAGE(C54:C56)</f>
+        <f ca="1">AVERAGE(C54:C56)</f>
         <v>0</v>
       </c>
       <c r="K54" s="303"/>
@@ -31274,7 +31274,7 @@
         <v>Strategy &amp; Metrics</v>
       </c>
       <c r="V54" s="95">
-        <f>C54</f>
+        <f ca="1">C54</f>
         <v>0</v>
       </c>
       <c r="W54" s="95">
@@ -31300,23 +31300,23 @@
         <v>Policy &amp; Compliance</v>
       </c>
       <c r="C55" s="95">
-        <f>Roadmap!Q27</f>
+        <f ca="1">Roadmap!Q27</f>
         <v>0</v>
       </c>
       <c r="D55" s="95">
-        <f>Roadmap!P27</f>
+        <f ca="1">Roadmap!P27</f>
         <v>0</v>
       </c>
       <c r="E55" s="95">
-        <f>Roadmap!P28</f>
+        <f ca="1">Roadmap!P28</f>
         <v>0</v>
       </c>
       <c r="F55" s="95">
-        <f>Roadmap!P29</f>
+        <f ca="1">Roadmap!P29</f>
         <v>0</v>
       </c>
       <c r="G55" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="H55" s="2"/>
@@ -31325,7 +31325,7 @@
         <v>Design</v>
       </c>
       <c r="J55" s="95">
-        <f>AVERAGE(C57:C59)</f>
+        <f ca="1">AVERAGE(C57:C59)</f>
         <v>0</v>
       </c>
       <c r="K55" s="303"/>
@@ -31341,7 +31341,7 @@
         <v>Policy &amp; Compliance</v>
       </c>
       <c r="V55" s="95">
-        <f>C55</f>
+        <f ca="1">C55</f>
         <v>0</v>
       </c>
       <c r="W55" s="95">
@@ -31367,23 +31367,23 @@
         <v>Education &amp; Guidance</v>
       </c>
       <c r="C56" s="95">
-        <f>Roadmap!Q36</f>
+        <f ca="1">Roadmap!Q36</f>
         <v>0</v>
       </c>
       <c r="D56" s="95">
-        <f>Roadmap!P36</f>
+        <f ca="1">Roadmap!P36</f>
         <v>0</v>
       </c>
       <c r="E56" s="95">
-        <f>Roadmap!P37</f>
+        <f ca="1">Roadmap!P37</f>
         <v>0</v>
       </c>
       <c r="F56" s="95">
-        <f>Roadmap!P38</f>
+        <f ca="1">Roadmap!P38</f>
         <v>0</v>
       </c>
       <c r="G56" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="H56" s="2"/>
@@ -31392,7 +31392,7 @@
         <v>Implementation</v>
       </c>
       <c r="J56" s="95">
-        <f>AVERAGE(C60:C62)</f>
+        <f ca="1">AVERAGE(C60:C62)</f>
         <v>0</v>
       </c>
       <c r="K56" s="303"/>
@@ -31408,7 +31408,7 @@
         <v>Education &amp; Guidance</v>
       </c>
       <c r="V56" s="95">
-        <f>C56</f>
+        <f ca="1">C56</f>
         <v>0</v>
       </c>
       <c r="W56" s="95">
@@ -31434,23 +31434,23 @@
         <v>Threat Assessment</v>
       </c>
       <c r="C57" s="95">
-        <f>Roadmap!Q46</f>
+        <f ca="1">Roadmap!Q46</f>
         <v>0</v>
       </c>
       <c r="D57" s="95">
-        <f>Roadmap!P46</f>
+        <f ca="1">Roadmap!P46</f>
         <v>0</v>
       </c>
       <c r="E57" s="95">
-        <f>Roadmap!P47</f>
+        <f ca="1">Roadmap!P47</f>
         <v>0</v>
       </c>
       <c r="F57" s="95">
-        <f>Roadmap!P48</f>
+        <f ca="1">Roadmap!P48</f>
         <v>0</v>
       </c>
       <c r="G57" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="H57" s="2"/>
@@ -31459,7 +31459,7 @@
         <v>Verification</v>
       </c>
       <c r="J57" s="95">
-        <f>AVERAGE(C63:C65)</f>
+        <f ca="1">AVERAGE(C63:C65)</f>
         <v>0</v>
       </c>
       <c r="K57" s="303"/>
@@ -31478,7 +31478,7 @@
         <v>0</v>
       </c>
       <c r="W57" s="95">
-        <f>C57</f>
+        <f ca="1">C57</f>
         <v>0</v>
       </c>
       <c r="X57" s="95">
@@ -31501,23 +31501,23 @@
         <v>Security Requirements</v>
       </c>
       <c r="C58" s="95">
-        <f>Roadmap!Q55</f>
+        <f ca="1">Roadmap!Q55</f>
         <v>0</v>
       </c>
       <c r="D58" s="95">
-        <f>Roadmap!P55</f>
+        <f ca="1">Roadmap!P55</f>
         <v>0</v>
       </c>
       <c r="E58" s="95">
-        <f>Roadmap!P56</f>
+        <f ca="1">Roadmap!P56</f>
         <v>0</v>
       </c>
       <c r="F58" s="95">
-        <f>Roadmap!P57</f>
+        <f ca="1">Roadmap!P57</f>
         <v>0</v>
       </c>
       <c r="G58" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="H58" s="2"/>
@@ -31526,7 +31526,7 @@
         <v>Operations</v>
       </c>
       <c r="J58" s="95">
-        <f>AVERAGE(C66:C68)</f>
+        <f ca="1">AVERAGE(C66:C68)</f>
         <v>0</v>
       </c>
       <c r="K58" s="303"/>
@@ -31545,7 +31545,7 @@
         <v>0</v>
       </c>
       <c r="W58" s="95">
-        <f>C58</f>
+        <f ca="1">C58</f>
         <v>0</v>
       </c>
       <c r="X58" s="95">
@@ -31568,23 +31568,23 @@
         <v>Secure Architecture</v>
       </c>
       <c r="C59" s="95">
-        <f>Roadmap!Q64</f>
+        <f ca="1">Roadmap!Q64</f>
         <v>0</v>
       </c>
       <c r="D59" s="95">
-        <f>Roadmap!P64</f>
+        <f ca="1">Roadmap!P64</f>
         <v>0</v>
       </c>
       <c r="E59" s="95">
-        <f>Roadmap!P65</f>
+        <f ca="1">Roadmap!P65</f>
         <v>0</v>
       </c>
       <c r="F59" s="95">
-        <f>Roadmap!P66</f>
+        <f ca="1">Roadmap!P66</f>
         <v>0</v>
       </c>
       <c r="G59" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="H59" s="2"/>
@@ -31606,7 +31606,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="95">
-        <f>C59</f>
+        <f ca="1">C59</f>
         <v>0</v>
       </c>
       <c r="X59" s="95">
@@ -31629,19 +31629,19 @@
         <v>Secure Build</v>
       </c>
       <c r="C60" s="95">
-        <f>Roadmap!Q74</f>
+        <f ca="1">Roadmap!Q74</f>
         <v>0</v>
       </c>
       <c r="D60" s="95">
-        <f>Roadmap!P74</f>
+        <f ca="1">Roadmap!P74</f>
         <v>0</v>
       </c>
       <c r="E60" s="95">
-        <f>Roadmap!P75</f>
+        <f ca="1">Roadmap!P75</f>
         <v>0</v>
       </c>
       <c r="F60" s="95">
-        <f>Roadmap!P76</f>
+        <f ca="1">Roadmap!P76</f>
         <v>0</v>
       </c>
       <c r="G60" s="5"/>
@@ -31667,7 +31667,7 @@
         <v>0</v>
       </c>
       <c r="X60" s="95">
-        <f>C60</f>
+        <f ca="1">C60</f>
         <v>0</v>
       </c>
       <c r="Y60" s="95">
@@ -31687,19 +31687,19 @@
         <v>Secure Deployment</v>
       </c>
       <c r="C61" s="95">
-        <f>Roadmap!Q83</f>
+        <f ca="1">Roadmap!Q83</f>
         <v>0</v>
       </c>
       <c r="D61" s="95">
-        <f>Roadmap!P83</f>
+        <f ca="1">Roadmap!P83</f>
         <v>0</v>
       </c>
       <c r="E61" s="95">
-        <f>Roadmap!P84</f>
+        <f ca="1">Roadmap!P84</f>
         <v>0</v>
       </c>
       <c r="F61" s="95">
-        <f>Roadmap!P85</f>
+        <f ca="1">Roadmap!P85</f>
         <v>0</v>
       </c>
       <c r="G61" s="5"/>
@@ -31725,7 +31725,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="95">
-        <f>C61</f>
+        <f ca="1">C61</f>
         <v>0</v>
       </c>
       <c r="Y61" s="95">
@@ -31745,19 +31745,19 @@
         <v>Defect Management</v>
       </c>
       <c r="C62" s="95">
-        <f>Roadmap!Q92</f>
+        <f ca="1">Roadmap!Q92</f>
         <v>0</v>
       </c>
       <c r="D62" s="95">
-        <f>Roadmap!P92</f>
+        <f ca="1">Roadmap!P92</f>
         <v>0</v>
       </c>
       <c r="E62" s="95">
-        <f>Roadmap!P93</f>
+        <f ca="1">Roadmap!P93</f>
         <v>0</v>
       </c>
       <c r="F62" s="95">
-        <f>Roadmap!P94</f>
+        <f ca="1">Roadmap!P94</f>
         <v>0</v>
       </c>
       <c r="G62" s="5"/>
@@ -31783,7 +31783,7 @@
         <v>0</v>
       </c>
       <c r="X62" s="95">
-        <f>C62</f>
+        <f ca="1">C62</f>
         <v>0</v>
       </c>
       <c r="Y62" s="95">
@@ -31803,23 +31803,23 @@
         <v>Architecture Assessment</v>
       </c>
       <c r="C63" s="95">
-        <f>Roadmap!Q102</f>
+        <f ca="1">Roadmap!Q102</f>
         <v>0</v>
       </c>
       <c r="D63" s="95">
-        <f>Roadmap!P102</f>
+        <f ca="1">Roadmap!P102</f>
         <v>0</v>
       </c>
       <c r="E63" s="95">
-        <f>Roadmap!P103</f>
+        <f ca="1">Roadmap!P103</f>
         <v>0</v>
       </c>
       <c r="F63" s="95">
-        <f>Roadmap!P104</f>
+        <f ca="1">Roadmap!P104</f>
         <v>0</v>
       </c>
       <c r="G63" s="5">
-        <f t="shared" ref="G63:G68" si="8">(((((IF((C63="0+"),0.5,0)+IF((C63=1),1,0))+IF((C63="1+"),1.5,0))+IF((C63=2),2,0))+IF((C63="2+"),2.5,0))+IF((C63=3),3,0))+IF((C63="3+"),3.5,0)</f>
+        <f t="shared" ref="G63:G68" ca="1" si="8">(((((IF((C63="0+"),0.5,0)+IF((C63=1),1,0))+IF((C63="1+"),1.5,0))+IF((C63=2),2,0))+IF((C63="2+"),2.5,0))+IF((C63=3),3,0))+IF((C63="3+"),3.5,0)</f>
         <v>0</v>
       </c>
       <c r="H63" s="2"/>
@@ -31847,7 +31847,7 @@
         <v>0</v>
       </c>
       <c r="Y63" s="95">
-        <f>C63</f>
+        <f ca="1">C63</f>
         <v>0</v>
       </c>
       <c r="Z63" s="95">
@@ -31864,23 +31864,23 @@
         <v>Requirements Testing</v>
       </c>
       <c r="C64" s="95">
-        <f>Roadmap!Q111</f>
+        <f ca="1">Roadmap!Q111</f>
         <v>0</v>
       </c>
       <c r="D64" s="95">
-        <f>Roadmap!P111</f>
+        <f ca="1">Roadmap!P111</f>
         <v>0</v>
       </c>
       <c r="E64" s="95">
-        <f>Roadmap!P112</f>
+        <f ca="1">Roadmap!P112</f>
         <v>0</v>
       </c>
       <c r="F64" s="95">
-        <f>Roadmap!P113</f>
+        <f ca="1">Roadmap!P113</f>
         <v>0</v>
       </c>
       <c r="G64" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="H64" s="2"/>
@@ -31908,7 +31908,7 @@
         <v>0</v>
       </c>
       <c r="Y64" s="95">
-        <f>C64</f>
+        <f ca="1">C64</f>
         <v>0</v>
       </c>
       <c r="Z64" s="95">
@@ -31925,23 +31925,23 @@
         <v>Security Testing</v>
       </c>
       <c r="C65" s="95">
-        <f>Roadmap!Q120</f>
+        <f ca="1">Roadmap!Q120</f>
         <v>0</v>
       </c>
       <c r="D65" s="95">
-        <f>Roadmap!P120</f>
+        <f ca="1">Roadmap!P120</f>
         <v>0</v>
       </c>
       <c r="E65" s="95">
-        <f>Roadmap!P121</f>
+        <f ca="1">Roadmap!P121</f>
         <v>0</v>
       </c>
       <c r="F65" s="95">
-        <f>Roadmap!P122</f>
+        <f ca="1">Roadmap!P122</f>
         <v>0</v>
       </c>
       <c r="G65" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="H65" s="2"/>
@@ -31969,7 +31969,7 @@
         <v>0</v>
       </c>
       <c r="Y65" s="95">
-        <f>C65</f>
+        <f ca="1">C65</f>
         <v>0</v>
       </c>
       <c r="Z65" s="95">
@@ -31986,23 +31986,23 @@
         <v>Incident Management</v>
       </c>
       <c r="C66" s="95">
-        <f>Roadmap!Q130</f>
+        <f ca="1">Roadmap!Q130</f>
         <v>0</v>
       </c>
       <c r="D66" s="95">
-        <f>Roadmap!P130</f>
+        <f ca="1">Roadmap!P130</f>
         <v>0</v>
       </c>
       <c r="E66" s="95">
-        <f>Roadmap!P131</f>
+        <f ca="1">Roadmap!P131</f>
         <v>0</v>
       </c>
       <c r="F66" s="95">
-        <f>Roadmap!P132</f>
+        <f ca="1">Roadmap!P132</f>
         <v>0</v>
       </c>
       <c r="G66" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="H66" s="2"/>
@@ -32033,7 +32033,7 @@
         <v>0</v>
       </c>
       <c r="Z66" s="95">
-        <f>C66</f>
+        <f ca="1">C66</f>
         <v>0</v>
       </c>
     </row>
@@ -32047,23 +32047,23 @@
         <v>Environment Management</v>
       </c>
       <c r="C67" s="95">
-        <f>Roadmap!Q139</f>
+        <f ca="1">Roadmap!Q139</f>
         <v>0</v>
       </c>
       <c r="D67" s="95">
-        <f>Roadmap!P139</f>
+        <f ca="1">Roadmap!P139</f>
         <v>0</v>
       </c>
       <c r="E67" s="95">
-        <f>Roadmap!P140</f>
+        <f ca="1">Roadmap!P140</f>
         <v>0</v>
       </c>
       <c r="F67" s="95">
-        <f>Roadmap!P141</f>
+        <f ca="1">Roadmap!P141</f>
         <v>0</v>
       </c>
       <c r="G67" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="H67" s="2"/>
@@ -32094,7 +32094,7 @@
         <v>0</v>
       </c>
       <c r="Z67" s="95">
-        <f>C67</f>
+        <f ca="1">C67</f>
         <v>0</v>
       </c>
     </row>
@@ -32108,23 +32108,23 @@
         <v>Operational Management</v>
       </c>
       <c r="C68" s="95">
-        <f>Roadmap!Q148</f>
+        <f ca="1">Roadmap!Q148</f>
         <v>0</v>
       </c>
       <c r="D68" s="95">
-        <f>Roadmap!P148</f>
+        <f ca="1">Roadmap!P148</f>
         <v>0</v>
       </c>
       <c r="E68" s="95">
-        <f>Roadmap!P149</f>
+        <f ca="1">Roadmap!P149</f>
         <v>0</v>
       </c>
       <c r="F68" s="95">
-        <f>Roadmap!P150</f>
+        <f ca="1">Roadmap!P150</f>
         <v>0</v>
       </c>
       <c r="G68" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="H68" s="2"/>
@@ -32155,7 +32155,7 @@
         <v>0</v>
       </c>
       <c r="Z68" s="95">
-        <f>C68</f>
+        <f ca="1">C68</f>
         <v>0</v>
       </c>
     </row>
@@ -32277,23 +32277,23 @@
         <v>Strategy &amp; Metrics</v>
       </c>
       <c r="C73" s="95">
-        <f>Roadmap!U18</f>
+        <f ca="1">Roadmap!U18</f>
         <v>0</v>
       </c>
       <c r="D73" s="95">
-        <f>Roadmap!T18</f>
+        <f ca="1">Roadmap!T18</f>
         <v>0</v>
       </c>
       <c r="E73" s="95">
-        <f>Roadmap!T19</f>
+        <f ca="1">Roadmap!T19</f>
         <v>0</v>
       </c>
       <c r="F73" s="95">
-        <f>Roadmap!T20</f>
+        <f ca="1">Roadmap!T20</f>
         <v>0</v>
       </c>
       <c r="G73" s="5">
-        <f t="shared" ref="G73:G78" si="9">(((((IF((C73="0+"),0.5,0)+IF((C73=1),1,0))+IF((C73="1+"),1.5,0))+IF((C73=2),2,0))+IF((C73="2+"),2.5,0))+IF((C73=3),3,0))+IF((C73="3+"),3.5,0)</f>
+        <f t="shared" ref="G73:G78" ca="1" si="9">(((((IF((C73="0+"),0.5,0)+IF((C73=1),1,0))+IF((C73="1+"),1.5,0))+IF((C73=2),2,0))+IF((C73="2+"),2.5,0))+IF((C73=3),3,0))+IF((C73="3+"),3.5,0)</f>
         <v>0</v>
       </c>
       <c r="H73" s="2"/>
@@ -32302,7 +32302,7 @@
         <v>Governance</v>
       </c>
       <c r="J73" s="95">
-        <f>AVERAGE(C73:C75)</f>
+        <f ca="1">AVERAGE(C73:C75)</f>
         <v>0</v>
       </c>
       <c r="K73" s="303"/>
@@ -32318,7 +32318,7 @@
         <v>Strategy &amp; Metrics</v>
       </c>
       <c r="V73" s="95">
-        <f>C73</f>
+        <f ca="1">C73</f>
         <v>0</v>
       </c>
       <c r="W73" s="95">
@@ -32344,23 +32344,23 @@
         <v>Policy &amp; Compliance</v>
       </c>
       <c r="C74" s="95">
-        <f>Roadmap!U27</f>
+        <f ca="1">Roadmap!U27</f>
         <v>0</v>
       </c>
       <c r="D74" s="95">
-        <f>Roadmap!T27</f>
+        <f ca="1">Roadmap!T27</f>
         <v>0</v>
       </c>
       <c r="E74" s="95">
-        <f>Roadmap!T28</f>
+        <f ca="1">Roadmap!T28</f>
         <v>0</v>
       </c>
       <c r="F74" s="95">
-        <f>Roadmap!T29</f>
+        <f ca="1">Roadmap!T29</f>
         <v>0</v>
       </c>
       <c r="G74" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H74" s="2"/>
@@ -32369,7 +32369,7 @@
         <v>Design</v>
       </c>
       <c r="J74" s="95">
-        <f>AVERAGE(C76:C78)</f>
+        <f ca="1">AVERAGE(C76:C78)</f>
         <v>0</v>
       </c>
       <c r="K74" s="303"/>
@@ -32385,7 +32385,7 @@
         <v>Policy &amp; Compliance</v>
       </c>
       <c r="V74" s="95">
-        <f>C74</f>
+        <f ca="1">C74</f>
         <v>0</v>
       </c>
       <c r="W74" s="95">
@@ -32411,23 +32411,23 @@
         <v>Education &amp; Guidance</v>
       </c>
       <c r="C75" s="95">
-        <f>Roadmap!U36</f>
+        <f ca="1">Roadmap!U36</f>
         <v>0</v>
       </c>
       <c r="D75" s="95">
-        <f>Roadmap!T36</f>
+        <f ca="1">Roadmap!T36</f>
         <v>0</v>
       </c>
       <c r="E75" s="95">
-        <f>Roadmap!T37</f>
+        <f ca="1">Roadmap!T37</f>
         <v>0</v>
       </c>
       <c r="F75" s="95">
-        <f>Roadmap!T38</f>
+        <f ca="1">Roadmap!T38</f>
         <v>0</v>
       </c>
       <c r="G75" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H75" s="2"/>
@@ -32436,7 +32436,7 @@
         <v>Implementation</v>
       </c>
       <c r="J75" s="95">
-        <f>AVERAGE(C79:C81)</f>
+        <f ca="1">AVERAGE(C79:C81)</f>
         <v>0</v>
       </c>
       <c r="K75" s="303"/>
@@ -32452,7 +32452,7 @@
         <v>Education &amp; Guidance</v>
       </c>
       <c r="V75" s="95">
-        <f>C75</f>
+        <f ca="1">C75</f>
         <v>0</v>
       </c>
       <c r="W75" s="95">
@@ -32478,23 +32478,23 @@
         <v>Threat Assessment</v>
       </c>
       <c r="C76" s="95">
-        <f>Roadmap!U46</f>
+        <f ca="1">Roadmap!U46</f>
         <v>0</v>
       </c>
       <c r="D76" s="95">
-        <f>Roadmap!T46</f>
+        <f ca="1">Roadmap!T46</f>
         <v>0</v>
       </c>
       <c r="E76" s="95">
-        <f>Roadmap!T47</f>
+        <f ca="1">Roadmap!T47</f>
         <v>0</v>
       </c>
       <c r="F76" s="95">
-        <f>Roadmap!T48</f>
+        <f ca="1">Roadmap!T48</f>
         <v>0</v>
       </c>
       <c r="G76" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H76" s="2"/>
@@ -32503,7 +32503,7 @@
         <v>Verification</v>
       </c>
       <c r="J76" s="95">
-        <f>AVERAGE(C82:C84)</f>
+        <f ca="1">AVERAGE(C82:C84)</f>
         <v>0</v>
       </c>
       <c r="K76" s="303"/>
@@ -32522,7 +32522,7 @@
         <v>0</v>
       </c>
       <c r="W76" s="95">
-        <f>C76</f>
+        <f ca="1">C76</f>
         <v>0</v>
       </c>
       <c r="X76" s="95">
@@ -32545,23 +32545,23 @@
         <v>Security Requirements</v>
       </c>
       <c r="C77" s="95">
-        <f>Roadmap!U55</f>
+        <f ca="1">Roadmap!U55</f>
         <v>0</v>
       </c>
       <c r="D77" s="95">
-        <f>Roadmap!T55</f>
+        <f ca="1">Roadmap!T55</f>
         <v>0</v>
       </c>
       <c r="E77" s="95">
-        <f>Roadmap!T56</f>
+        <f ca="1">Roadmap!T56</f>
         <v>0</v>
       </c>
       <c r="F77" s="95">
-        <f>Roadmap!T57</f>
+        <f ca="1">Roadmap!T57</f>
         <v>0</v>
       </c>
       <c r="G77" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H77" s="2"/>
@@ -32570,7 +32570,7 @@
         <v>Operations</v>
       </c>
       <c r="J77" s="95">
-        <f>AVERAGE(C85:C87)</f>
+        <f ca="1">AVERAGE(C85:C87)</f>
         <v>0</v>
       </c>
       <c r="K77" s="303"/>
@@ -32589,7 +32589,7 @@
         <v>0</v>
       </c>
       <c r="W77" s="95">
-        <f>C77</f>
+        <f ca="1">C77</f>
         <v>0</v>
       </c>
       <c r="X77" s="95">
@@ -32612,23 +32612,23 @@
         <v>Secure Architecture</v>
       </c>
       <c r="C78" s="95">
-        <f>Roadmap!U64</f>
+        <f ca="1">Roadmap!U64</f>
         <v>0</v>
       </c>
       <c r="D78" s="95">
-        <f>Roadmap!T64</f>
+        <f ca="1">Roadmap!T64</f>
         <v>0</v>
       </c>
       <c r="E78" s="95">
-        <f>Roadmap!T65</f>
+        <f ca="1">Roadmap!T65</f>
         <v>0</v>
       </c>
       <c r="F78" s="95">
-        <f>Roadmap!T66</f>
+        <f ca="1">Roadmap!T66</f>
         <v>0</v>
       </c>
       <c r="G78" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H78" s="2"/>
@@ -32650,7 +32650,7 @@
         <v>0</v>
       </c>
       <c r="W78" s="95">
-        <f>C78</f>
+        <f ca="1">C78</f>
         <v>0</v>
       </c>
       <c r="X78" s="95">
@@ -32673,19 +32673,19 @@
         <v>Secure Build</v>
       </c>
       <c r="C79" s="95">
-        <f>Roadmap!U74</f>
+        <f ca="1">Roadmap!U74</f>
         <v>0</v>
       </c>
       <c r="D79" s="95">
-        <f>Roadmap!T74</f>
+        <f ca="1">Roadmap!T74</f>
         <v>0</v>
       </c>
       <c r="E79" s="95">
-        <f>Roadmap!T75</f>
+        <f ca="1">Roadmap!T75</f>
         <v>0</v>
       </c>
       <c r="F79" s="95">
-        <f>Roadmap!T76</f>
+        <f ca="1">Roadmap!T76</f>
         <v>0</v>
       </c>
       <c r="G79" s="5"/>
@@ -32711,7 +32711,7 @@
         <v>0</v>
       </c>
       <c r="X79" s="95">
-        <f>C79</f>
+        <f ca="1">C79</f>
         <v>0</v>
       </c>
       <c r="Y79" s="95">
@@ -32731,19 +32731,19 @@
         <v>Secure Deployment</v>
       </c>
       <c r="C80" s="95">
-        <f>Roadmap!U83</f>
+        <f ca="1">Roadmap!U83</f>
         <v>0</v>
       </c>
       <c r="D80" s="95">
-        <f>Roadmap!T83</f>
+        <f ca="1">Roadmap!T83</f>
         <v>0</v>
       </c>
       <c r="E80" s="95">
-        <f>Roadmap!T84</f>
+        <f ca="1">Roadmap!T84</f>
         <v>0</v>
       </c>
       <c r="F80" s="95">
-        <f>Roadmap!T85</f>
+        <f ca="1">Roadmap!T85</f>
         <v>0</v>
       </c>
       <c r="G80" s="5"/>
@@ -32769,7 +32769,7 @@
         <v>0</v>
       </c>
       <c r="X80" s="95">
-        <f>C80</f>
+        <f ca="1">C80</f>
         <v>0</v>
       </c>
       <c r="Y80" s="95">
@@ -32789,19 +32789,19 @@
         <v>Defect Management</v>
       </c>
       <c r="C81" s="95">
-        <f>Roadmap!U92</f>
+        <f ca="1">Roadmap!U92</f>
         <v>0</v>
       </c>
       <c r="D81" s="95">
-        <f>Roadmap!T92</f>
+        <f ca="1">Roadmap!T92</f>
         <v>0</v>
       </c>
       <c r="E81" s="95">
-        <f>Roadmap!T93</f>
+        <f ca="1">Roadmap!T93</f>
         <v>0</v>
       </c>
       <c r="F81" s="95">
-        <f>Roadmap!T94</f>
+        <f ca="1">Roadmap!T94</f>
         <v>0</v>
       </c>
       <c r="G81" s="5"/>
@@ -32827,7 +32827,7 @@
         <v>0</v>
       </c>
       <c r="X81" s="95">
-        <f>C81</f>
+        <f ca="1">C81</f>
         <v>0</v>
       </c>
       <c r="Y81" s="95">
@@ -32847,23 +32847,23 @@
         <v>Architecture Assessment</v>
       </c>
       <c r="C82" s="95">
-        <f>Roadmap!U102</f>
+        <f ca="1">Roadmap!U102</f>
         <v>0</v>
       </c>
       <c r="D82" s="95">
-        <f>Roadmap!T102</f>
+        <f ca="1">Roadmap!T102</f>
         <v>0</v>
       </c>
       <c r="E82" s="95">
-        <f>Roadmap!T103</f>
+        <f ca="1">Roadmap!T103</f>
         <v>0</v>
       </c>
       <c r="F82" s="95">
-        <f>Roadmap!T104</f>
+        <f ca="1">Roadmap!T104</f>
         <v>0</v>
       </c>
       <c r="G82" s="5">
-        <f t="shared" ref="G82:G87" si="10">(((((IF((C82="0+"),0.5,0)+IF((C82=1),1,0))+IF((C82="1+"),1.5,0))+IF((C82=2),2,0))+IF((C82="2+"),2.5,0))+IF((C82=3),3,0))+IF((C82="3+"),3.5,0)</f>
+        <f t="shared" ref="G82:G87" ca="1" si="10">(((((IF((C82="0+"),0.5,0)+IF((C82=1),1,0))+IF((C82="1+"),1.5,0))+IF((C82=2),2,0))+IF((C82="2+"),2.5,0))+IF((C82=3),3,0))+IF((C82="3+"),3.5,0)</f>
         <v>0</v>
       </c>
       <c r="H82" s="2"/>
@@ -32891,7 +32891,7 @@
         <v>0</v>
       </c>
       <c r="Y82" s="95">
-        <f>C82</f>
+        <f ca="1">C82</f>
         <v>0</v>
       </c>
       <c r="Z82" s="95">
@@ -32908,23 +32908,23 @@
         <v>Requirements Testing</v>
       </c>
       <c r="C83" s="95">
-        <f>Roadmap!U111</f>
+        <f ca="1">Roadmap!U111</f>
         <v>0</v>
       </c>
       <c r="D83" s="95">
-        <f>Roadmap!T111</f>
+        <f ca="1">Roadmap!T111</f>
         <v>0</v>
       </c>
       <c r="E83" s="95">
-        <f>Roadmap!T112</f>
+        <f ca="1">Roadmap!T112</f>
         <v>0</v>
       </c>
       <c r="F83" s="95">
-        <f>Roadmap!T113</f>
+        <f ca="1">Roadmap!T113</f>
         <v>0</v>
       </c>
       <c r="G83" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="H83" s="2"/>
@@ -32952,7 +32952,7 @@
         <v>0</v>
       </c>
       <c r="Y83" s="95">
-        <f>C83</f>
+        <f ca="1">C83</f>
         <v>0</v>
       </c>
       <c r="Z83" s="95">
@@ -32969,23 +32969,23 @@
         <v>Security Testing</v>
       </c>
       <c r="C84" s="95">
-        <f>Roadmap!U120</f>
+        <f ca="1">Roadmap!U120</f>
         <v>0</v>
       </c>
       <c r="D84" s="95">
-        <f>Roadmap!T120</f>
+        <f ca="1">Roadmap!T120</f>
         <v>0</v>
       </c>
       <c r="E84" s="95">
-        <f>Roadmap!T121</f>
+        <f ca="1">Roadmap!T121</f>
         <v>0</v>
       </c>
       <c r="F84" s="95">
-        <f>Roadmap!T122</f>
+        <f ca="1">Roadmap!T122</f>
         <v>0</v>
       </c>
       <c r="G84" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="H84" s="2"/>
@@ -33013,7 +33013,7 @@
         <v>0</v>
       </c>
       <c r="Y84" s="95">
-        <f>C84</f>
+        <f ca="1">C84</f>
         <v>0</v>
       </c>
       <c r="Z84" s="95">
@@ -33030,23 +33030,23 @@
         <v>Incident Management</v>
       </c>
       <c r="C85" s="95">
-        <f>Roadmap!U130</f>
+        <f ca="1">Roadmap!U130</f>
         <v>0</v>
       </c>
       <c r="D85" s="95">
-        <f>Roadmap!T130</f>
+        <f ca="1">Roadmap!T130</f>
         <v>0</v>
       </c>
       <c r="E85" s="95">
-        <f>Roadmap!T131</f>
+        <f ca="1">Roadmap!T131</f>
         <v>0</v>
       </c>
       <c r="F85" s="95">
-        <f>Roadmap!T132</f>
+        <f ca="1">Roadmap!T132</f>
         <v>0</v>
       </c>
       <c r="G85" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="H85" s="2"/>
@@ -33077,7 +33077,7 @@
         <v>0</v>
       </c>
       <c r="Z85" s="95">
-        <f>C85</f>
+        <f ca="1">C85</f>
         <v>0</v>
       </c>
     </row>
@@ -33091,23 +33091,23 @@
         <v>Environment Management</v>
       </c>
       <c r="C86" s="95">
-        <f>Roadmap!U139</f>
+        <f ca="1">Roadmap!U139</f>
         <v>0</v>
       </c>
       <c r="D86" s="95">
-        <f>Roadmap!T139</f>
+        <f ca="1">Roadmap!T139</f>
         <v>0</v>
       </c>
       <c r="E86" s="95">
-        <f>Roadmap!T140</f>
+        <f ca="1">Roadmap!T140</f>
         <v>0</v>
       </c>
       <c r="F86" s="95">
-        <f>Roadmap!T141</f>
+        <f ca="1">Roadmap!T141</f>
         <v>0</v>
       </c>
       <c r="G86" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="H86" s="2"/>
@@ -33138,7 +33138,7 @@
         <v>0</v>
       </c>
       <c r="Z86" s="95">
-        <f>C86</f>
+        <f ca="1">C86</f>
         <v>0</v>
       </c>
     </row>
@@ -33152,23 +33152,23 @@
         <v>Operational Management</v>
       </c>
       <c r="C87" s="95">
-        <f>Roadmap!U148</f>
+        <f ca="1">Roadmap!U148</f>
         <v>0</v>
       </c>
       <c r="D87" s="95">
-        <f>Roadmap!T148</f>
+        <f ca="1">Roadmap!T148</f>
         <v>0</v>
       </c>
       <c r="E87" s="95">
-        <f>Roadmap!T149</f>
+        <f ca="1">Roadmap!T149</f>
         <v>0</v>
       </c>
       <c r="F87" s="95">
-        <f>Roadmap!T150</f>
+        <f ca="1">Roadmap!T150</f>
         <v>0</v>
       </c>
       <c r="G87" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="H87" s="2"/>
@@ -33199,7 +33199,7 @@
         <v>0</v>
       </c>
       <c r="Z87" s="95">
-        <f>C87</f>
+        <f ca="1">C87</f>
         <v>0</v>
       </c>
     </row>
@@ -33353,23 +33353,23 @@
         <v>Strategy &amp; Metrics</v>
       </c>
       <c r="C94" s="95">
-        <f>Roadmap!Y18</f>
+        <f ca="1">Roadmap!Y18</f>
         <v>0</v>
       </c>
       <c r="D94" s="95">
-        <f>Roadmap!X18</f>
+        <f ca="1">Roadmap!X18</f>
         <v>0</v>
       </c>
       <c r="E94" s="95">
-        <f>Roadmap!X19</f>
+        <f ca="1">Roadmap!X19</f>
         <v>0</v>
       </c>
       <c r="F94" s="95">
-        <f>Roadmap!X20</f>
+        <f ca="1">Roadmap!X20</f>
         <v>0</v>
       </c>
       <c r="G94" s="5">
-        <f t="shared" ref="G94:G99" si="11">(((((IF((C94="0+"),0.5,0)+IF((C94=1),1,0))+IF((C94="1+"),1.5,0))+IF((C94=2),2,0))+IF((C94="2+"),2.5,0))+IF((C94=3),3,0))+IF((C94="3+"),3.5,0)</f>
+        <f t="shared" ref="G94:G99" ca="1" si="11">(((((IF((C94="0+"),0.5,0)+IF((C94=1),1,0))+IF((C94="1+"),1.5,0))+IF((C94=2),2,0))+IF((C94="2+"),2.5,0))+IF((C94=3),3,0))+IF((C94="3+"),3.5,0)</f>
         <v>0</v>
       </c>
       <c r="H94" s="2"/>
@@ -33378,7 +33378,7 @@
         <v>Governance</v>
       </c>
       <c r="J94" s="95">
-        <f>AVERAGE(C94:C96)</f>
+        <f ca="1">AVERAGE(C94:C96)</f>
         <v>0</v>
       </c>
       <c r="K94" s="303"/>
@@ -33394,7 +33394,7 @@
         <v>Strategy &amp; Metrics</v>
       </c>
       <c r="V94" s="95">
-        <f>C94</f>
+        <f ca="1">C94</f>
         <v>0</v>
       </c>
       <c r="W94" s="95">
@@ -33420,23 +33420,23 @@
         <v>Policy &amp; Compliance</v>
       </c>
       <c r="C95" s="95">
-        <f>Roadmap!Y27</f>
+        <f ca="1">Roadmap!Y27</f>
         <v>0</v>
       </c>
       <c r="D95" s="95">
-        <f>Roadmap!X27</f>
+        <f ca="1">Roadmap!X27</f>
         <v>0</v>
       </c>
       <c r="E95" s="95">
-        <f>Roadmap!X28</f>
+        <f ca="1">Roadmap!X28</f>
         <v>0</v>
       </c>
       <c r="F95" s="95">
-        <f>Roadmap!X29</f>
+        <f ca="1">Roadmap!X29</f>
         <v>0</v>
       </c>
       <c r="G95" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="H95" s="2"/>
@@ -33445,7 +33445,7 @@
         <v>Design</v>
       </c>
       <c r="J95" s="95">
-        <f>AVERAGE(C97:C99)</f>
+        <f ca="1">AVERAGE(C97:C99)</f>
         <v>0</v>
       </c>
       <c r="K95" s="303"/>
@@ -33461,7 +33461,7 @@
         <v>Policy &amp; Compliance</v>
       </c>
       <c r="V95" s="95">
-        <f>C95</f>
+        <f ca="1">C95</f>
         <v>0</v>
       </c>
       <c r="W95" s="95">
@@ -33487,23 +33487,23 @@
         <v>Education &amp; Guidance</v>
       </c>
       <c r="C96" s="95">
-        <f>Roadmap!Y36</f>
+        <f ca="1">Roadmap!Y36</f>
         <v>0</v>
       </c>
       <c r="D96" s="95">
-        <f>Roadmap!X36</f>
+        <f ca="1">Roadmap!X36</f>
         <v>0</v>
       </c>
       <c r="E96" s="95">
-        <f>Roadmap!X37</f>
+        <f ca="1">Roadmap!X37</f>
         <v>0</v>
       </c>
       <c r="F96" s="95">
-        <f>Roadmap!X38</f>
+        <f ca="1">Roadmap!X38</f>
         <v>0</v>
       </c>
       <c r="G96" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="H96" s="2"/>
@@ -33512,7 +33512,7 @@
         <v>Implementation</v>
       </c>
       <c r="J96" s="95">
-        <f>AVERAGE(C100:C102)</f>
+        <f ca="1">AVERAGE(C100:C102)</f>
         <v>0</v>
       </c>
       <c r="K96" s="303"/>
@@ -33528,7 +33528,7 @@
         <v>Education &amp; Guidance</v>
       </c>
       <c r="V96" s="95">
-        <f>C96</f>
+        <f ca="1">C96</f>
         <v>0</v>
       </c>
       <c r="W96" s="95">
@@ -33554,23 +33554,23 @@
         <v>Threat Assessment</v>
       </c>
       <c r="C97" s="95">
-        <f>Roadmap!Y46</f>
+        <f ca="1">Roadmap!Y46</f>
         <v>0</v>
       </c>
       <c r="D97" s="95">
-        <f>Roadmap!X46</f>
+        <f ca="1">Roadmap!X46</f>
         <v>0</v>
       </c>
       <c r="E97" s="95">
-        <f>Roadmap!X47</f>
+        <f ca="1">Roadmap!X47</f>
         <v>0</v>
       </c>
       <c r="F97" s="95">
-        <f>Roadmap!X48</f>
+        <f ca="1">Roadmap!X48</f>
         <v>0</v>
       </c>
       <c r="G97" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="H97" s="2"/>
@@ -33579,7 +33579,7 @@
         <v>Verification</v>
       </c>
       <c r="J97" s="95">
-        <f>AVERAGE(C103:C105)</f>
+        <f ca="1">AVERAGE(C103:C105)</f>
         <v>0</v>
       </c>
       <c r="K97" s="303"/>
@@ -33598,7 +33598,7 @@
         <v>0</v>
       </c>
       <c r="W97" s="95">
-        <f>C97</f>
+        <f ca="1">C97</f>
         <v>0</v>
       </c>
       <c r="X97" s="95">
@@ -33621,23 +33621,23 @@
         <v>Security Requirements</v>
       </c>
       <c r="C98" s="95">
-        <f>Roadmap!Y55</f>
+        <f ca="1">Roadmap!Y55</f>
         <v>0</v>
       </c>
       <c r="D98" s="95">
-        <f>Roadmap!X55</f>
+        <f ca="1">Roadmap!X55</f>
         <v>0</v>
       </c>
       <c r="E98" s="95">
-        <f>Roadmap!X56</f>
+        <f ca="1">Roadmap!X56</f>
         <v>0</v>
       </c>
       <c r="F98" s="95">
-        <f>Roadmap!X57</f>
+        <f ca="1">Roadmap!X57</f>
         <v>0</v>
       </c>
       <c r="G98" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="H98" s="2"/>
@@ -33646,7 +33646,7 @@
         <v>Operations</v>
       </c>
       <c r="J98" s="95">
-        <f>AVERAGE(C106:C108)</f>
+        <f ca="1">AVERAGE(C106:C108)</f>
         <v>0</v>
       </c>
       <c r="K98" s="303"/>
@@ -33665,7 +33665,7 @@
         <v>0</v>
       </c>
       <c r="W98" s="95">
-        <f>C98</f>
+        <f ca="1">C98</f>
         <v>0</v>
       </c>
       <c r="X98" s="95">
@@ -33688,23 +33688,23 @@
         <v>Secure Architecture</v>
       </c>
       <c r="C99" s="95">
-        <f>Roadmap!Y64</f>
+        <f ca="1">Roadmap!Y64</f>
         <v>0</v>
       </c>
       <c r="D99" s="95">
-        <f>Roadmap!X64</f>
+        <f ca="1">Roadmap!X64</f>
         <v>0</v>
       </c>
       <c r="E99" s="95">
-        <f>Roadmap!X65</f>
+        <f ca="1">Roadmap!X65</f>
         <v>0</v>
       </c>
       <c r="F99" s="95">
-        <f>Roadmap!X66</f>
+        <f ca="1">Roadmap!X66</f>
         <v>0</v>
       </c>
       <c r="G99" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="H99" s="2"/>
@@ -33726,7 +33726,7 @@
         <v>0</v>
       </c>
       <c r="W99" s="95">
-        <f>C99</f>
+        <f ca="1">C99</f>
         <v>0</v>
       </c>
       <c r="X99" s="95">
@@ -33749,19 +33749,19 @@
         <v>Secure Build</v>
       </c>
       <c r="C100" s="95">
-        <f>Roadmap!Y74</f>
+        <f ca="1">Roadmap!Y74</f>
         <v>0</v>
       </c>
       <c r="D100" s="95">
-        <f>Roadmap!X74</f>
+        <f ca="1">Roadmap!X74</f>
         <v>0</v>
       </c>
       <c r="E100" s="95">
-        <f>Roadmap!X75</f>
+        <f ca="1">Roadmap!X75</f>
         <v>0</v>
       </c>
       <c r="F100" s="95">
-        <f>Roadmap!X76</f>
+        <f ca="1">Roadmap!X76</f>
         <v>0</v>
       </c>
       <c r="G100" s="5"/>
@@ -33787,7 +33787,7 @@
         <v>0</v>
       </c>
       <c r="X100" s="95">
-        <f>C100</f>
+        <f ca="1">C100</f>
         <v>0</v>
       </c>
       <c r="Y100" s="95">
@@ -33807,19 +33807,19 @@
         <v>Secure Deployment</v>
       </c>
       <c r="C101" s="95">
-        <f>Roadmap!Y83</f>
+        <f ca="1">Roadmap!Y83</f>
         <v>0</v>
       </c>
       <c r="D101" s="95">
-        <f>Roadmap!X83</f>
+        <f ca="1">Roadmap!X83</f>
         <v>0</v>
       </c>
       <c r="E101" s="95">
-        <f>Roadmap!X84</f>
+        <f ca="1">Roadmap!X84</f>
         <v>0</v>
       </c>
       <c r="F101" s="95">
-        <f>Roadmap!X85</f>
+        <f ca="1">Roadmap!X85</f>
         <v>0</v>
       </c>
       <c r="G101" s="5"/>
@@ -33845,7 +33845,7 @@
         <v>0</v>
       </c>
       <c r="X101" s="95">
-        <f>C101</f>
+        <f ca="1">C101</f>
         <v>0</v>
       </c>
       <c r="Y101" s="95">
@@ -33865,19 +33865,19 @@
         <v>Defect Management</v>
       </c>
       <c r="C102" s="95">
-        <f>Roadmap!Y92</f>
+        <f ca="1">Roadmap!Y92</f>
         <v>0</v>
       </c>
       <c r="D102" s="95">
-        <f>Roadmap!X92</f>
+        <f ca="1">Roadmap!X92</f>
         <v>0</v>
       </c>
       <c r="E102" s="95">
-        <f>Roadmap!X93</f>
+        <f ca="1">Roadmap!X93</f>
         <v>0</v>
       </c>
       <c r="F102" s="95">
-        <f>Roadmap!X94</f>
+        <f ca="1">Roadmap!X94</f>
         <v>0</v>
       </c>
       <c r="G102" s="5"/>
@@ -33903,7 +33903,7 @@
         <v>0</v>
       </c>
       <c r="X102" s="95">
-        <f>C102</f>
+        <f ca="1">C102</f>
         <v>0</v>
       </c>
       <c r="Y102" s="95">
@@ -33923,23 +33923,23 @@
         <v>Architecture Assessment</v>
       </c>
       <c r="C103" s="95">
-        <f>Roadmap!Y102</f>
+        <f ca="1">Roadmap!Y102</f>
         <v>0</v>
       </c>
       <c r="D103" s="95">
-        <f>Roadmap!X102</f>
+        <f ca="1">Roadmap!X102</f>
         <v>0</v>
       </c>
       <c r="E103" s="95">
-        <f>Roadmap!X103</f>
+        <f ca="1">Roadmap!X103</f>
         <v>0</v>
       </c>
       <c r="F103" s="95">
-        <f>Roadmap!X104</f>
+        <f ca="1">Roadmap!X104</f>
         <v>0</v>
       </c>
       <c r="G103" s="5">
-        <f t="shared" ref="G103:G108" si="12">(((((IF((C103="0+"),0.5,0)+IF((C103=1),1,0))+IF((C103="1+"),1.5,0))+IF((C103=2),2,0))+IF((C103="2+"),2.5,0))+IF((C103=3),3,0))+IF((C103="3+"),3.5,0)</f>
+        <f t="shared" ref="G103:G108" ca="1" si="12">(((((IF((C103="0+"),0.5,0)+IF((C103=1),1,0))+IF((C103="1+"),1.5,0))+IF((C103=2),2,0))+IF((C103="2+"),2.5,0))+IF((C103=3),3,0))+IF((C103="3+"),3.5,0)</f>
         <v>0</v>
       </c>
       <c r="H103" s="2"/>
@@ -33967,7 +33967,7 @@
         <v>0</v>
       </c>
       <c r="Y103" s="95">
-        <f>C103</f>
+        <f ca="1">C103</f>
         <v>0</v>
       </c>
       <c r="Z103" s="95">
@@ -33984,23 +33984,23 @@
         <v>Requirements Testing</v>
       </c>
       <c r="C104" s="95">
-        <f>Roadmap!Y111</f>
+        <f ca="1">Roadmap!Y111</f>
         <v>0</v>
       </c>
       <c r="D104" s="95">
-        <f>Roadmap!X111</f>
+        <f ca="1">Roadmap!X111</f>
         <v>0</v>
       </c>
       <c r="E104" s="95">
-        <f>Roadmap!X112</f>
+        <f ca="1">Roadmap!X112</f>
         <v>0</v>
       </c>
       <c r="F104" s="95">
-        <f>Roadmap!X113</f>
+        <f ca="1">Roadmap!X113</f>
         <v>0</v>
       </c>
       <c r="G104" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="H104" s="2"/>
@@ -34028,7 +34028,7 @@
         <v>0</v>
       </c>
       <c r="Y104" s="95">
-        <f>C104</f>
+        <f ca="1">C104</f>
         <v>0</v>
       </c>
       <c r="Z104" s="95">
@@ -34045,23 +34045,23 @@
         <v>Security Testing</v>
       </c>
       <c r="C105" s="95">
-        <f>Roadmap!Y120</f>
+        <f ca="1">Roadmap!Y120</f>
         <v>0</v>
       </c>
       <c r="D105" s="95">
-        <f>Roadmap!X120</f>
+        <f ca="1">Roadmap!X120</f>
         <v>0</v>
       </c>
       <c r="E105" s="95">
-        <f>Roadmap!X121</f>
+        <f ca="1">Roadmap!X121</f>
         <v>0</v>
       </c>
       <c r="F105" s="95">
-        <f>Roadmap!X122</f>
+        <f ca="1">Roadmap!X122</f>
         <v>0</v>
       </c>
       <c r="G105" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="H105" s="2"/>
@@ -34089,7 +34089,7 @@
         <v>0</v>
       </c>
       <c r="Y105" s="95">
-        <f>C105</f>
+        <f ca="1">C105</f>
         <v>0</v>
       </c>
       <c r="Z105" s="95">
@@ -34106,23 +34106,23 @@
         <v>Incident Management</v>
       </c>
       <c r="C106" s="95">
-        <f>Roadmap!Y130</f>
+        <f ca="1">Roadmap!Y130</f>
         <v>0</v>
       </c>
       <c r="D106" s="95">
-        <f>Roadmap!X130</f>
+        <f ca="1">Roadmap!X130</f>
         <v>0</v>
       </c>
       <c r="E106" s="95">
-        <f>Roadmap!X131</f>
+        <f ca="1">Roadmap!X131</f>
         <v>0</v>
       </c>
       <c r="F106" s="95">
-        <f>Roadmap!X132</f>
+        <f ca="1">Roadmap!X132</f>
         <v>0</v>
       </c>
       <c r="G106" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="H106" s="2"/>
@@ -34153,7 +34153,7 @@
         <v>0</v>
       </c>
       <c r="Z106" s="95">
-        <f>C106</f>
+        <f ca="1">C106</f>
         <v>0</v>
       </c>
     </row>
@@ -34167,23 +34167,23 @@
         <v>Environment Management</v>
       </c>
       <c r="C107" s="95">
-        <f>Roadmap!Y139</f>
+        <f ca="1">Roadmap!Y139</f>
         <v>0</v>
       </c>
       <c r="D107" s="95">
-        <f>Roadmap!X139</f>
+        <f ca="1">Roadmap!X139</f>
         <v>0</v>
       </c>
       <c r="E107" s="95">
-        <f>Roadmap!X140</f>
+        <f ca="1">Roadmap!X140</f>
         <v>0</v>
       </c>
       <c r="F107" s="95">
-        <f>Roadmap!X141</f>
+        <f ca="1">Roadmap!X141</f>
         <v>0</v>
       </c>
       <c r="G107" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="H107" s="2"/>
@@ -34214,7 +34214,7 @@
         <v>0</v>
       </c>
       <c r="Z107" s="95">
-        <f>C107</f>
+        <f ca="1">C107</f>
         <v>0</v>
       </c>
     </row>
@@ -34228,23 +34228,23 @@
         <v>Operational Management</v>
       </c>
       <c r="C108" s="95">
-        <f>Roadmap!Y148</f>
+        <f ca="1">Roadmap!Y148</f>
         <v>0</v>
       </c>
       <c r="D108" s="95">
-        <f>Roadmap!X148</f>
+        <f ca="1">Roadmap!X148</f>
         <v>0</v>
       </c>
       <c r="E108" s="95">
-        <f>Roadmap!X149</f>
+        <f ca="1">Roadmap!X149</f>
         <v>0</v>
       </c>
       <c r="F108" s="95">
-        <f>Roadmap!X150</f>
+        <f ca="1">Roadmap!X150</f>
         <v>0</v>
       </c>
       <c r="G108" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="H108" s="2"/>
@@ -34275,7 +34275,7 @@
         <v>0</v>
       </c>
       <c r="Z108" s="95">
-        <f>C108</f>
+        <f ca="1">C108</f>
         <v>0</v>
       </c>
     </row>
@@ -35566,8 +35566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y154"/>
   <sheetViews>
-    <sheetView topLeftCell="B112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J132" sqref="J132"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X1" sqref="W1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -36154,80 +36154,80 @@
         <f>Interview!F18</f>
         <v>0</v>
       </c>
-      <c r="G18" s="148">
-        <f>IFERROR(VLOOKUP(F18,AnsYTBL,2,FALSE),0)</f>
+      <c r="G18" s="148" cm="1">
+        <f t="array" aca="1" ref="G18" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H18" s="96">
-        <f>IFERROR(AVERAGE(G18,G22),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G18,G22),0)</f>
         <v>0</v>
       </c>
       <c r="I18" s="395">
-        <f>SUM(H18,H19,H20)</f>
+        <f ca="1">SUM(H18,H19,H20)</f>
         <v>0</v>
       </c>
       <c r="J18" s="244">
         <f>F18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="148">
-        <f>IFERROR(VLOOKUP(J18,AnsYTBL,2,FALSE),0)</f>
+      <c r="K18" s="148" cm="1">
+        <f t="array" aca="1" ref="K18" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L18" s="96">
-        <f>IFERROR(AVERAGE(K18,K22),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K18,K22),0)</f>
         <v>0</v>
       </c>
       <c r="M18" s="395">
-        <f>SUM(L18,L19,L20)</f>
+        <f ca="1">SUM(L18,L19,L20)</f>
         <v>0</v>
       </c>
       <c r="N18" s="244">
         <f>J18</f>
         <v>0</v>
       </c>
-      <c r="O18" s="148">
-        <f>IFERROR(VLOOKUP(N18,AnsYTBL,2,FALSE),0)</f>
+      <c r="O18" s="148" cm="1">
+        <f t="array" aca="1" ref="O18" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P18" s="96">
-        <f>IFERROR(AVERAGE(O18,O22),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O18,O22),0)</f>
         <v>0</v>
       </c>
       <c r="Q18" s="395">
-        <f>SUM(P18,P19,P20)</f>
+        <f ca="1">SUM(P18,P19,P20)</f>
         <v>0</v>
       </c>
       <c r="R18" s="244">
         <f>N18</f>
         <v>0</v>
       </c>
-      <c r="S18" s="148">
-        <f>IFERROR(VLOOKUP(R18,AnsYTBL,2,FALSE),0)</f>
+      <c r="S18" s="148" cm="1">
+        <f t="array" aca="1" ref="S18" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T18" s="96">
-        <f>IFERROR(AVERAGE(S18,S22),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S18,S22),0)</f>
         <v>0</v>
       </c>
       <c r="U18" s="395">
-        <f>SUM(T18,T19,T20)</f>
+        <f ca="1">SUM(T18,T19,T20)</f>
         <v>0</v>
       </c>
       <c r="V18" s="244">
         <f>R18</f>
         <v>0</v>
       </c>
-      <c r="W18" s="148">
-        <f>IFERROR(VLOOKUP(V18,AnsYTBL,2,FALSE),0)</f>
+      <c r="W18" s="148" cm="1">
+        <f t="array" aca="1" ref="W18" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X18" s="96">
-        <f>IFERROR(AVERAGE(W18,W22),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W18,W22),0)</f>
         <v>0</v>
       </c>
       <c r="Y18" s="395">
-        <f>SUM(X18,X19,X20)</f>
+        <f ca="1">SUM(X18,X19,X20)</f>
         <v>0</v>
       </c>
     </row>
@@ -36253,12 +36253,12 @@
         <f>Interview!F20</f>
         <v>0</v>
       </c>
-      <c r="G19" s="148">
-        <f>IFERROR(VLOOKUP(F19,AnsVTBL,2,FALSE),0)</f>
+      <c r="G19" s="148" cm="1">
+        <f t="array" aca="1" ref="G19" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H19" s="97">
-        <f>IFERROR(AVERAGE(G19,G23),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G19,G23),0)</f>
         <v>0</v>
       </c>
       <c r="I19" s="396"/>
@@ -36266,12 +36266,12 @@
         <f>F19</f>
         <v>0</v>
       </c>
-      <c r="K19" s="148">
-        <f>IFERROR(VLOOKUP(J19,AnsVTBL,2,FALSE),0)</f>
+      <c r="K19" s="148" cm="1">
+        <f t="array" aca="1" ref="K19" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L19" s="97">
-        <f>IFERROR(AVERAGE(K19,K23),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K19,K23),0)</f>
         <v>0</v>
       </c>
       <c r="M19" s="396"/>
@@ -36279,12 +36279,12 @@
         <f>J19</f>
         <v>0</v>
       </c>
-      <c r="O19" s="148">
-        <f>IFERROR(VLOOKUP(N19,AnsVTBL,2,FALSE),0)</f>
+      <c r="O19" s="148" cm="1">
+        <f t="array" aca="1" ref="O19" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P19" s="97">
-        <f>IFERROR(AVERAGE(O19,O23),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O19,O23),0)</f>
         <v>0</v>
       </c>
       <c r="Q19" s="396"/>
@@ -36292,12 +36292,12 @@
         <f>N19</f>
         <v>0</v>
       </c>
-      <c r="S19" s="148">
-        <f>IFERROR(VLOOKUP(R19,AnsVTBL,2,FALSE),0)</f>
+      <c r="S19" s="148" cm="1">
+        <f t="array" aca="1" ref="S19" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T19" s="97">
-        <f>IFERROR(AVERAGE(S19,S23),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S19,S23),0)</f>
         <v>0</v>
       </c>
       <c r="U19" s="396"/>
@@ -36305,12 +36305,12 @@
         <f>R19</f>
         <v>0</v>
       </c>
-      <c r="W19" s="148">
-        <f>IFERROR(VLOOKUP(V19,AnsVTBL,2,FALSE),0)</f>
+      <c r="W19" s="148" cm="1">
+        <f t="array" aca="1" ref="W19" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X19" s="97">
-        <f>IFERROR(AVERAGE(W19,W23),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W19,W23),0)</f>
         <v>0</v>
       </c>
       <c r="Y19" s="396"/>
@@ -36337,12 +36337,12 @@
         <f>Interview!F22</f>
         <v>0</v>
       </c>
-      <c r="G20" s="148">
-        <f>IFERROR(VLOOKUP(F20,AnsNTBL,2,FALSE),0)</f>
+      <c r="G20" s="148" cm="1">
+        <f t="array" aca="1" ref="G20" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H20" s="97">
-        <f>IFERROR(AVERAGE(G20,G24),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G20,G24),0)</f>
         <v>0</v>
       </c>
       <c r="I20" s="396"/>
@@ -36350,12 +36350,12 @@
         <f>F20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="148">
-        <f>IFERROR(VLOOKUP(J20,AnsNTBL,2,FALSE),0)</f>
+      <c r="K20" s="148" cm="1">
+        <f t="array" aca="1" ref="K20" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L20" s="97">
-        <f>IFERROR(AVERAGE(K20,K24),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K20,K24),0)</f>
         <v>0</v>
       </c>
       <c r="M20" s="396"/>
@@ -36363,12 +36363,12 @@
         <f>J20</f>
         <v>0</v>
       </c>
-      <c r="O20" s="148">
-        <f>IFERROR(VLOOKUP(N20,AnsNTBL,2,FALSE),0)</f>
+      <c r="O20" s="148" cm="1">
+        <f t="array" aca="1" ref="O20" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P20" s="97">
-        <f>IFERROR(AVERAGE(O20,O24),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O20,O24),0)</f>
         <v>0</v>
       </c>
       <c r="Q20" s="396"/>
@@ -36376,12 +36376,12 @@
         <f>N20</f>
         <v>0</v>
       </c>
-      <c r="S20" s="148">
-        <f>IFERROR(VLOOKUP(R20,AnsNTBL,2,FALSE),0)</f>
+      <c r="S20" s="148" cm="1">
+        <f t="array" aca="1" ref="S20" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T20" s="97">
-        <f>IFERROR(AVERAGE(S20,S24),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S20,S24),0)</f>
         <v>0</v>
       </c>
       <c r="U20" s="396"/>
@@ -36389,12 +36389,12 @@
         <f>R20</f>
         <v>0</v>
       </c>
-      <c r="W20" s="148">
-        <f>IFERROR(VLOOKUP(V20,AnsNTBL,2,FALSE),0)</f>
+      <c r="W20" s="148" cm="1">
+        <f t="array" aca="1" ref="W20" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X20" s="97">
-        <f>IFERROR(AVERAGE(W20,W24),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W20,W24),0)</f>
         <v>0</v>
       </c>
       <c r="Y20" s="396"/>
@@ -36451,8 +36451,8 @@
         <f>Interview!F25</f>
         <v>0</v>
       </c>
-      <c r="G22" s="148">
-        <f>IFERROR(VLOOKUP(F22,AnsKTBL,2,FALSE),0)</f>
+      <c r="G22" s="148" cm="1">
+        <f t="array" aca="1" ref="G22" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H22" s="96"/>
@@ -36461,8 +36461,8 @@
         <f>F22</f>
         <v>0</v>
       </c>
-      <c r="K22" s="148">
-        <f>IFERROR(VLOOKUP(J22,AnsKTBL,2,FALSE),0)</f>
+      <c r="K22" s="148" cm="1">
+        <f t="array" aca="1" ref="K22" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L22" s="96"/>
@@ -36471,8 +36471,8 @@
         <f>J22</f>
         <v>0</v>
       </c>
-      <c r="O22" s="148">
-        <f>IFERROR(VLOOKUP(N22,AnsKTBL,2,FALSE),0)</f>
+      <c r="O22" s="148" cm="1">
+        <f t="array" aca="1" ref="O22" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P22" s="96"/>
@@ -36481,8 +36481,8 @@
         <f>N22</f>
         <v>0</v>
       </c>
-      <c r="S22" s="148">
-        <f>IFERROR(VLOOKUP(R22,AnsKTBL,2,FALSE),0)</f>
+      <c r="S22" s="148" cm="1">
+        <f t="array" aca="1" ref="S22" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T22" s="96"/>
@@ -36491,8 +36491,8 @@
         <f>R22</f>
         <v>0</v>
       </c>
-      <c r="W22" s="148">
-        <f>IFERROR(VLOOKUP(V22,AnsKTBL,2,FALSE),0)</f>
+      <c r="W22" s="148" cm="1">
+        <f t="array" aca="1" ref="W22" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X22" s="96"/>
@@ -36520,8 +36520,8 @@
         <f>Interview!F27</f>
         <v>0</v>
       </c>
-      <c r="G23" s="148">
-        <f>IFERROR(VLOOKUP(F23,AnsBTBL,2,FALSE),0)</f>
+      <c r="G23" s="148" cm="1">
+        <f t="array" aca="1" ref="G23" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H23" s="97"/>
@@ -36530,8 +36530,8 @@
         <f>F23</f>
         <v>0</v>
       </c>
-      <c r="K23" s="148">
-        <f>IFERROR(VLOOKUP(J23,AnsBTBL,2,FALSE),0)</f>
+      <c r="K23" s="148" cm="1">
+        <f t="array" aca="1" ref="K23" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L23" s="97"/>
@@ -36540,8 +36540,8 @@
         <f>J23</f>
         <v>0</v>
       </c>
-      <c r="O23" s="148">
-        <f>IFERROR(VLOOKUP(N23,AnsBTBL,2,FALSE),0)</f>
+      <c r="O23" s="148" cm="1">
+        <f t="array" aca="1" ref="O23" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P23" s="97"/>
@@ -36550,8 +36550,8 @@
         <f>N23</f>
         <v>0</v>
       </c>
-      <c r="S23" s="148">
-        <f>IFERROR(VLOOKUP(R23,AnsBTBL,2,FALSE),0)</f>
+      <c r="S23" s="148" cm="1">
+        <f t="array" aca="1" ref="S23" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T23" s="97"/>
@@ -36560,8 +36560,8 @@
         <f>R23</f>
         <v>0</v>
       </c>
-      <c r="W23" s="148">
-        <f>IFERROR(VLOOKUP(V23,AnsBTBL,2,FALSE),0)</f>
+      <c r="W23" s="148" cm="1">
+        <f t="array" aca="1" ref="W23" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X23" s="97"/>
@@ -36589,8 +36589,8 @@
         <f>Interview!F29</f>
         <v>0</v>
       </c>
-      <c r="G24" s="148">
-        <f>IFERROR(VLOOKUP(F24,AnsNTBL,2,FALSE),0)</f>
+      <c r="G24" s="148" cm="1">
+        <f t="array" aca="1" ref="G24" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H24" s="97"/>
@@ -36599,8 +36599,8 @@
         <f>F24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="148">
-        <f>IFERROR(VLOOKUP(J24,AnsNTBL,2,FALSE),0)</f>
+      <c r="K24" s="148" cm="1">
+        <f t="array" aca="1" ref="K24" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L24" s="97"/>
@@ -36609,8 +36609,8 @@
         <f>J24</f>
         <v>0</v>
       </c>
-      <c r="O24" s="148">
-        <f>IFERROR(VLOOKUP(N24,AnsNTBL,2,FALSE),0)</f>
+      <c r="O24" s="148" cm="1">
+        <f t="array" aca="1" ref="O24" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P24" s="97"/>
@@ -36619,8 +36619,8 @@
         <f>N24</f>
         <v>0</v>
       </c>
-      <c r="S24" s="148">
-        <f>IFERROR(VLOOKUP(R24,AnsNTBL,2,FALSE),0)</f>
+      <c r="S24" s="148" cm="1">
+        <f t="array" aca="1" ref="S24" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T24" s="97"/>
@@ -36629,8 +36629,8 @@
         <f>R24</f>
         <v>0</v>
       </c>
-      <c r="W24" s="148">
-        <f>IFERROR(VLOOKUP(V24,AnsNTBL,2,FALSE),0)</f>
+      <c r="W24" s="148" cm="1">
+        <f t="array" aca="1" ref="W24" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X24" s="97"/>
@@ -36741,80 +36741,80 @@
         <f>Interview!F32</f>
         <v>0</v>
       </c>
-      <c r="G27" s="148">
-        <f>IFERROR(VLOOKUP(F27,AnsFTBL,2,FALSE),0)</f>
+      <c r="G27" s="148" cm="1">
+        <f t="array" aca="1" ref="G27" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H27" s="242">
-        <f>IFERROR(AVERAGE(G27,G31),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G27,G31),0)</f>
         <v>0</v>
       </c>
       <c r="I27" s="398">
-        <f>SUM(H27,H28,H29)</f>
+        <f ca="1">SUM(H27,H28,H29)</f>
         <v>0</v>
       </c>
       <c r="J27" s="244">
         <f>F27</f>
         <v>0</v>
       </c>
-      <c r="K27" s="148">
-        <f>IFERROR(VLOOKUP(J27,AnsFTBL,2,FALSE),0)</f>
+      <c r="K27" s="148" cm="1">
+        <f t="array" aca="1" ref="K27" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L27" s="242">
-        <f>IFERROR(AVERAGE(K27,K31),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K27,K31),0)</f>
         <v>0</v>
       </c>
       <c r="M27" s="398">
-        <f>SUM(L27,L28,L29)</f>
+        <f ca="1">SUM(L27,L28,L29)</f>
         <v>0</v>
       </c>
       <c r="N27" s="244">
         <f>J27</f>
         <v>0</v>
       </c>
-      <c r="O27" s="148">
-        <f>IFERROR(VLOOKUP(N27,AnsFTBL,2,FALSE),0)</f>
+      <c r="O27" s="148" cm="1">
+        <f t="array" aca="1" ref="O27" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P27" s="242">
-        <f>IFERROR(AVERAGE(O27,O31),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O27,O31),0)</f>
         <v>0</v>
       </c>
       <c r="Q27" s="398">
-        <f>SUM(P27,P28,P29)</f>
+        <f ca="1">SUM(P27,P28,P29)</f>
         <v>0</v>
       </c>
       <c r="R27" s="244">
         <f>N27</f>
         <v>0</v>
       </c>
-      <c r="S27" s="148">
-        <f>IFERROR(VLOOKUP(R27,AnsFTBL,2,FALSE),0)</f>
+      <c r="S27" s="148" cm="1">
+        <f t="array" aca="1" ref="S27" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T27" s="242">
-        <f>IFERROR(AVERAGE(S27,S31),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S27,S31),0)</f>
         <v>0</v>
       </c>
       <c r="U27" s="398">
-        <f>SUM(T27,T28,T29)</f>
+        <f ca="1">SUM(T27,T28,T29)</f>
         <v>0</v>
       </c>
       <c r="V27" s="244">
         <f>R27</f>
         <v>0</v>
       </c>
-      <c r="W27" s="148">
-        <f>IFERROR(VLOOKUP(V27,AnsFTBL,2,FALSE),0)</f>
+      <c r="W27" s="148" cm="1">
+        <f t="array" aca="1" ref="W27" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X27" s="242">
-        <f>IFERROR(AVERAGE(W27,W31),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W27,W31),0)</f>
         <v>0</v>
       </c>
       <c r="Y27" s="398">
-        <f>SUM(X27,X28,X29)</f>
+        <f ca="1">SUM(X27,X28,X29)</f>
         <v>0</v>
       </c>
     </row>
@@ -36840,12 +36840,12 @@
         <f>Interview!F34</f>
         <v>0</v>
       </c>
-      <c r="G28" s="148">
-        <f>IFERROR(VLOOKUP(F28,AnsATBL,2,FALSE),0)</f>
+      <c r="G28" s="148" cm="1">
+        <f t="array" aca="1" ref="G28" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H28" s="122">
-        <f>IFERROR(AVERAGE(G28,G32),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G28,G32),0)</f>
         <v>0</v>
       </c>
       <c r="I28" s="392"/>
@@ -36853,12 +36853,12 @@
         <f>F28</f>
         <v>0</v>
       </c>
-      <c r="K28" s="148">
-        <f>IFERROR(VLOOKUP(J28,AnsATBL,2,FALSE),0)</f>
+      <c r="K28" s="148" cm="1">
+        <f t="array" aca="1" ref="K28" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L28" s="122">
-        <f>IFERROR(AVERAGE(K28,K32),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K28,K32),0)</f>
         <v>0</v>
       </c>
       <c r="M28" s="392"/>
@@ -36866,12 +36866,12 @@
         <f>J28</f>
         <v>0</v>
       </c>
-      <c r="O28" s="148">
-        <f>IFERROR(VLOOKUP(N28,AnsATBL,2,FALSE),0)</f>
+      <c r="O28" s="148" cm="1">
+        <f t="array" aca="1" ref="O28" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P28" s="122">
-        <f>IFERROR(AVERAGE(O28,O32),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O28,O32),0)</f>
         <v>0</v>
       </c>
       <c r="Q28" s="392"/>
@@ -36879,12 +36879,12 @@
         <f>N28</f>
         <v>0</v>
       </c>
-      <c r="S28" s="148">
-        <f>IFERROR(VLOOKUP(R28,AnsATBL,2,FALSE),0)</f>
+      <c r="S28" s="148" cm="1">
+        <f t="array" aca="1" ref="S28" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T28" s="122">
-        <f>IFERROR(AVERAGE(S28,S32),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S28,S32),0)</f>
         <v>0</v>
       </c>
       <c r="U28" s="392"/>
@@ -36892,12 +36892,12 @@
         <f>R28</f>
         <v>0</v>
       </c>
-      <c r="W28" s="148">
-        <f>IFERROR(VLOOKUP(V28,AnsATBL,2,FALSE),0)</f>
+      <c r="W28" s="148" cm="1">
+        <f t="array" aca="1" ref="W28" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X28" s="122">
-        <f>IFERROR(AVERAGE(W28,W32),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W28,W32),0)</f>
         <v>0</v>
       </c>
       <c r="Y28" s="392"/>
@@ -36924,12 +36924,12 @@
         <f>Interview!F36</f>
         <v>0</v>
       </c>
-      <c r="G29" s="148">
-        <f>IFERROR(VLOOKUP(F29,AnsETBL,2,FALSE),0)</f>
+      <c r="G29" s="148" cm="1">
+        <f t="array" aca="1" ref="G29" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H29" s="122">
-        <f>IFERROR(AVERAGE(G29,G33),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G29,G33),0)</f>
         <v>0</v>
       </c>
       <c r="I29" s="392"/>
@@ -36937,12 +36937,12 @@
         <f>F29</f>
         <v>0</v>
       </c>
-      <c r="K29" s="148">
-        <f>IFERROR(VLOOKUP(J29,AnsETBL,2,FALSE),0)</f>
+      <c r="K29" s="148" cm="1">
+        <f t="array" aca="1" ref="K29" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L29" s="122">
-        <f>IFERROR(AVERAGE(K29,K33),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K29,K33),0)</f>
         <v>0</v>
       </c>
       <c r="M29" s="392"/>
@@ -36950,12 +36950,12 @@
         <f>J29</f>
         <v>0</v>
       </c>
-      <c r="O29" s="148">
-        <f>IFERROR(VLOOKUP(N29,AnsETBL,2,FALSE),0)</f>
+      <c r="O29" s="148" cm="1">
+        <f t="array" aca="1" ref="O29" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P29" s="122">
-        <f>IFERROR(AVERAGE(O29,O33),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O29,O33),0)</f>
         <v>0</v>
       </c>
       <c r="Q29" s="392"/>
@@ -36963,12 +36963,12 @@
         <f>N29</f>
         <v>0</v>
       </c>
-      <c r="S29" s="148">
-        <f>IFERROR(VLOOKUP(R29,AnsETBL,2,FALSE),0)</f>
+      <c r="S29" s="148" cm="1">
+        <f t="array" aca="1" ref="S29" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T29" s="122">
-        <f>IFERROR(AVERAGE(S29,S33),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S29,S33),0)</f>
         <v>0</v>
       </c>
       <c r="U29" s="392"/>
@@ -36976,12 +36976,12 @@
         <f>R29</f>
         <v>0</v>
       </c>
-      <c r="W29" s="148">
-        <f>IFERROR(VLOOKUP(V29,AnsETBL,2,FALSE),0)</f>
+      <c r="W29" s="148" cm="1">
+        <f t="array" aca="1" ref="W29" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X29" s="122">
-        <f>IFERROR(AVERAGE(W29,W33),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W29,W33),0)</f>
         <v>0</v>
       </c>
       <c r="Y29" s="392"/>
@@ -37038,8 +37038,8 @@
         <f>Interview!F39</f>
         <v>0</v>
       </c>
-      <c r="G31" s="148">
-        <f>IFERROR(VLOOKUP(F31,AnsFTBL,2,FALSE),0)</f>
+      <c r="G31" s="148" cm="1">
+        <f t="array" aca="1" ref="G31" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H31" s="243"/>
@@ -37048,8 +37048,8 @@
         <f>F31</f>
         <v>0</v>
       </c>
-      <c r="K31" s="148">
-        <f>IFERROR(VLOOKUP(J31,AnsFTBL,2,FALSE),0)</f>
+      <c r="K31" s="148" cm="1">
+        <f t="array" aca="1" ref="K31" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L31" s="243"/>
@@ -37058,8 +37058,8 @@
         <f>J31</f>
         <v>0</v>
       </c>
-      <c r="O31" s="148">
-        <f>IFERROR(VLOOKUP(N31,AnsFTBL,2,FALSE),0)</f>
+      <c r="O31" s="148" cm="1">
+        <f t="array" aca="1" ref="O31" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P31" s="243"/>
@@ -37068,8 +37068,8 @@
         <f>N31</f>
         <v>0</v>
       </c>
-      <c r="S31" s="148">
-        <f>IFERROR(VLOOKUP(R31,AnsFTBL,2,FALSE),0)</f>
+      <c r="S31" s="148" cm="1">
+        <f t="array" aca="1" ref="S31" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T31" s="243"/>
@@ -37078,8 +37078,8 @@
         <f>R31</f>
         <v>0</v>
       </c>
-      <c r="W31" s="148">
-        <f>IFERROR(VLOOKUP(V31,AnsFTBL,2,FALSE),0)</f>
+      <c r="W31" s="148" cm="1">
+        <f t="array" aca="1" ref="W31" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X31" s="243"/>
@@ -37107,8 +37107,8 @@
         <f>Interview!F41</f>
         <v>0</v>
       </c>
-      <c r="G32" s="148">
-        <f>IFERROR(VLOOKUP(F32,AnsDTBL,2,FALSE),0)</f>
+      <c r="G32" s="148" cm="1">
+        <f t="array" aca="1" ref="G32" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H32" s="243"/>
@@ -37117,8 +37117,8 @@
         <f>F32</f>
         <v>0</v>
       </c>
-      <c r="K32" s="148">
-        <f>IFERROR(VLOOKUP(J32,AnsDTBL,2,FALSE),0)</f>
+      <c r="K32" s="148" cm="1">
+        <f t="array" aca="1" ref="K32" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L32" s="243"/>
@@ -37127,8 +37127,8 @@
         <f>J32</f>
         <v>0</v>
       </c>
-      <c r="O32" s="148">
-        <f>IFERROR(VLOOKUP(N32,AnsDTBL,2,FALSE),0)</f>
+      <c r="O32" s="148" cm="1">
+        <f t="array" aca="1" ref="O32" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P32" s="243"/>
@@ -37137,8 +37137,8 @@
         <f>N32</f>
         <v>0</v>
       </c>
-      <c r="S32" s="148">
-        <f>IFERROR(VLOOKUP(R32,AnsDTBL,2,FALSE),0)</f>
+      <c r="S32" s="148" cm="1">
+        <f t="array" aca="1" ref="S32" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T32" s="243"/>
@@ -37147,8 +37147,8 @@
         <f>R32</f>
         <v>0</v>
       </c>
-      <c r="W32" s="148">
-        <f>IFERROR(VLOOKUP(V32,AnsDTBL,2,FALSE),0)</f>
+      <c r="W32" s="148" cm="1">
+        <f t="array" aca="1" ref="W32" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X32" s="243"/>
@@ -37176,8 +37176,8 @@
         <f>Interview!F43</f>
         <v>0</v>
       </c>
-      <c r="G33" s="148">
-        <f>IFERROR(VLOOKUP(F33,AnsETBL,2,FALSE),0)</f>
+      <c r="G33" s="148" cm="1">
+        <f t="array" aca="1" ref="G33" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H33" s="243"/>
@@ -37186,8 +37186,8 @@
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="K33" s="148">
-        <f>IFERROR(VLOOKUP(J33,AnsETBL,2,FALSE),0)</f>
+      <c r="K33" s="148" cm="1">
+        <f t="array" aca="1" ref="K33" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L33" s="243"/>
@@ -37196,8 +37196,8 @@
         <f>J33</f>
         <v>0</v>
       </c>
-      <c r="O33" s="148">
-        <f>IFERROR(VLOOKUP(N33,AnsETBL,2,FALSE),0)</f>
+      <c r="O33" s="148" cm="1">
+        <f t="array" aca="1" ref="O33" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P33" s="243"/>
@@ -37206,8 +37206,8 @@
         <f>N33</f>
         <v>0</v>
       </c>
-      <c r="S33" s="148">
-        <f>IFERROR(VLOOKUP(R33,AnsETBL,2,FALSE),0)</f>
+      <c r="S33" s="148" cm="1">
+        <f t="array" aca="1" ref="S33" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T33" s="243"/>
@@ -37216,8 +37216,8 @@
         <f>R33</f>
         <v>0</v>
       </c>
-      <c r="W33" s="148">
-        <f>IFERROR(VLOOKUP(V33,AnsETBL,2,FALSE),0)</f>
+      <c r="W33" s="148" cm="1">
+        <f t="array" aca="1" ref="W33" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X33" s="243"/>
@@ -37328,80 +37328,80 @@
         <f>Interview!F46</f>
         <v>0</v>
       </c>
-      <c r="G36" s="148">
-        <f>IFERROR(VLOOKUP(F36,AnsCTBL,2,FALSE),0)</f>
+      <c r="G36" s="148" cm="1">
+        <f t="array" aca="1" ref="G36" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H36" s="239">
-        <f>IFERROR(AVERAGE(G36,G40),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G36,G40),0)</f>
         <v>0</v>
       </c>
       <c r="I36" s="399">
-        <f>SUM(H36,H37,H38)</f>
+        <f ca="1">SUM(H36,H37,H38)</f>
         <v>0</v>
       </c>
       <c r="J36" s="244">
         <f>F36</f>
         <v>0</v>
       </c>
-      <c r="K36" s="148">
-        <f>IFERROR(VLOOKUP(J36,AnsCTBL,2,FALSE),0)</f>
+      <c r="K36" s="148" cm="1">
+        <f t="array" aca="1" ref="K36" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L36" s="239">
-        <f>IFERROR(AVERAGE(K36,K40),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K36,K40),0)</f>
         <v>0</v>
       </c>
       <c r="M36" s="399">
-        <f>SUM(L36,L37,L38)</f>
+        <f ca="1">SUM(L36,L37,L38)</f>
         <v>0</v>
       </c>
       <c r="N36" s="244">
         <f>J36</f>
         <v>0</v>
       </c>
-      <c r="O36" s="148">
-        <f>IFERROR(VLOOKUP(N36,AnsCTBL,2,FALSE),0)</f>
+      <c r="O36" s="148" cm="1">
+        <f t="array" aca="1" ref="O36" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P36" s="239">
-        <f>IFERROR(AVERAGE(O36,O40),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O36,O40),0)</f>
         <v>0</v>
       </c>
       <c r="Q36" s="399">
-        <f>SUM(P36,P37,P38)</f>
+        <f ca="1">SUM(P36,P37,P38)</f>
         <v>0</v>
       </c>
       <c r="R36" s="244">
         <f>N36</f>
         <v>0</v>
       </c>
-      <c r="S36" s="148">
-        <f>IFERROR(VLOOKUP(R36,AnsCTBL,2,FALSE),0)</f>
+      <c r="S36" s="148" cm="1">
+        <f t="array" aca="1" ref="S36" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T36" s="239">
-        <f>IFERROR(AVERAGE(S36,S40),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S36,S40),0)</f>
         <v>0</v>
       </c>
       <c r="U36" s="399">
-        <f>SUM(T36,T37,T38)</f>
+        <f ca="1">SUM(T36,T37,T38)</f>
         <v>0</v>
       </c>
       <c r="V36" s="244">
         <f>R36</f>
         <v>0</v>
       </c>
-      <c r="W36" s="148">
-        <f>IFERROR(VLOOKUP(V36,AnsCTBL,2,FALSE),0)</f>
+      <c r="W36" s="148" cm="1">
+        <f t="array" aca="1" ref="W36" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X36" s="239">
-        <f>IFERROR(AVERAGE(W36,W40),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W36,W40),0)</f>
         <v>0</v>
       </c>
       <c r="Y36" s="399">
-        <f>SUM(X36,X37,X38)</f>
+        <f ca="1">SUM(X36,X37,X38)</f>
         <v>0</v>
       </c>
     </row>
@@ -37427,12 +37427,12 @@
         <f>Interview!F48</f>
         <v>0</v>
       </c>
-      <c r="G37" s="148">
-        <f>IFERROR(VLOOKUP(F37,AnsITBL,2,FALSE),0)</f>
+      <c r="G37" s="148" cm="1">
+        <f t="array" aca="1" ref="G37" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H37" s="241">
-        <f>IFERROR(AVERAGE(G37,G41),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G37,G41),0)</f>
         <v>0</v>
       </c>
       <c r="I37" s="392"/>
@@ -37440,12 +37440,12 @@
         <f>F37</f>
         <v>0</v>
       </c>
-      <c r="K37" s="148">
-        <f>IFERROR(VLOOKUP(J37,AnsITBL,2,FALSE),0)</f>
+      <c r="K37" s="148" cm="1">
+        <f t="array" aca="1" ref="K37" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L37" s="241">
-        <f>IFERROR(AVERAGE(K37,K41),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K37,K41),0)</f>
         <v>0</v>
       </c>
       <c r="M37" s="392"/>
@@ -37453,12 +37453,12 @@
         <f>J37</f>
         <v>0</v>
       </c>
-      <c r="O37" s="148">
-        <f>IFERROR(VLOOKUP(N37,AnsITBL,2,FALSE),0)</f>
+      <c r="O37" s="148" cm="1">
+        <f t="array" aca="1" ref="O37" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P37" s="241">
-        <f>IFERROR(AVERAGE(O37,O41),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O37,O41),0)</f>
         <v>0</v>
       </c>
       <c r="Q37" s="392"/>
@@ -37466,12 +37466,12 @@
         <f>N37</f>
         <v>0</v>
       </c>
-      <c r="S37" s="148">
-        <f>IFERROR(VLOOKUP(R37,AnsITBL,2,FALSE),0)</f>
+      <c r="S37" s="148" cm="1">
+        <f t="array" aca="1" ref="S37" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T37" s="241">
-        <f>IFERROR(AVERAGE(S37,S41),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S37,S41),0)</f>
         <v>0</v>
       </c>
       <c r="U37" s="392"/>
@@ -37479,12 +37479,12 @@
         <f>R37</f>
         <v>0</v>
       </c>
-      <c r="W37" s="148">
-        <f>IFERROR(VLOOKUP(V37,AnsITBL,2,FALSE),0)</f>
+      <c r="W37" s="148" cm="1">
+        <f t="array" aca="1" ref="W37" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X37" s="241">
-        <f>IFERROR(AVERAGE(W37,W41),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W37,W41),0)</f>
         <v>0</v>
       </c>
       <c r="Y37" s="392"/>
@@ -37511,12 +37511,12 @@
         <f>Interview!F50</f>
         <v>0</v>
       </c>
-      <c r="G38" s="148">
-        <f>IFERROR(VLOOKUP(F38,AnsITBL,2,FALSE),0)</f>
+      <c r="G38" s="148" cm="1">
+        <f t="array" aca="1" ref="G38" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H38" s="241">
-        <f>IFERROR(AVERAGE(G38,G42),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G38,G42),0)</f>
         <v>0</v>
       </c>
       <c r="I38" s="392"/>
@@ -37524,12 +37524,12 @@
         <f>F38</f>
         <v>0</v>
       </c>
-      <c r="K38" s="148">
-        <f>IFERROR(VLOOKUP(J38,AnsITBL,2,FALSE),0)</f>
+      <c r="K38" s="148" cm="1">
+        <f t="array" aca="1" ref="K38" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L38" s="241">
-        <f>IFERROR(AVERAGE(K38,K42),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K38,K42),0)</f>
         <v>0</v>
       </c>
       <c r="M38" s="392"/>
@@ -37537,12 +37537,12 @@
         <f>J38</f>
         <v>0</v>
       </c>
-      <c r="O38" s="148">
-        <f>IFERROR(VLOOKUP(N38,AnsITBL,2,FALSE),0)</f>
+      <c r="O38" s="148" cm="1">
+        <f t="array" aca="1" ref="O38" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P38" s="241">
-        <f>IFERROR(AVERAGE(O38,O42),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O38,O42),0)</f>
         <v>0</v>
       </c>
       <c r="Q38" s="392"/>
@@ -37550,12 +37550,12 @@
         <f>N38</f>
         <v>0</v>
       </c>
-      <c r="S38" s="148">
-        <f>IFERROR(VLOOKUP(R38,AnsITBL,2,FALSE),0)</f>
+      <c r="S38" s="148" cm="1">
+        <f t="array" aca="1" ref="S38" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T38" s="241">
-        <f>IFERROR(AVERAGE(S38,S42),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S38,S42),0)</f>
         <v>0</v>
       </c>
       <c r="U38" s="392"/>
@@ -37563,12 +37563,12 @@
         <f>R38</f>
         <v>0</v>
       </c>
-      <c r="W38" s="148">
-        <f>IFERROR(VLOOKUP(V38,AnsITBL,2,FALSE),0)</f>
+      <c r="W38" s="148" cm="1">
+        <f t="array" aca="1" ref="W38" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X38" s="241">
-        <f>IFERROR(AVERAGE(W38,W42),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W38,W42),0)</f>
         <v>0</v>
       </c>
       <c r="Y38" s="392"/>
@@ -37625,8 +37625,8 @@
         <f>Interview!F53</f>
         <v>0</v>
       </c>
-      <c r="G40" s="148">
-        <f>IFERROR(VLOOKUP(F40,AnsWTBL,2,FALSE),0)</f>
+      <c r="G40" s="148" cm="1">
+        <f t="array" aca="1" ref="G40" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H40" s="122"/>
@@ -37635,8 +37635,8 @@
         <f>F40</f>
         <v>0</v>
       </c>
-      <c r="K40" s="148">
-        <f>IFERROR(VLOOKUP(J40,AnsWTBL,2,FALSE),0)</f>
+      <c r="K40" s="148" cm="1">
+        <f t="array" aca="1" ref="K40" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L40" s="122"/>
@@ -37645,8 +37645,8 @@
         <f>J40</f>
         <v>0</v>
       </c>
-      <c r="O40" s="148">
-        <f>IFERROR(VLOOKUP(N40,AnsWTBL,2,FALSE),0)</f>
+      <c r="O40" s="148" cm="1">
+        <f t="array" aca="1" ref="O40" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P40" s="122"/>
@@ -37655,8 +37655,8 @@
         <f>N40</f>
         <v>0</v>
       </c>
-      <c r="S40" s="148">
-        <f>IFERROR(VLOOKUP(R40,AnsWTBL,2,FALSE),0)</f>
+      <c r="S40" s="148" cm="1">
+        <f t="array" aca="1" ref="S40" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T40" s="122"/>
@@ -37665,8 +37665,8 @@
         <f>R40</f>
         <v>0</v>
       </c>
-      <c r="W40" s="148">
-        <f>IFERROR(VLOOKUP(V40,AnsWTBL,2,FALSE),0)</f>
+      <c r="W40" s="148" cm="1">
+        <f t="array" aca="1" ref="W40" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X40" s="122"/>
@@ -37694,8 +37694,8 @@
         <f>Interview!F55</f>
         <v>0</v>
       </c>
-      <c r="G41" s="148">
-        <f>IFERROR(VLOOKUP(F41,AnsLTBL,2,FALSE),0)</f>
+      <c r="G41" s="148" cm="1">
+        <f t="array" aca="1" ref="G41" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H41" s="122"/>
@@ -37704,8 +37704,8 @@
         <f>F41</f>
         <v>0</v>
       </c>
-      <c r="K41" s="148">
-        <f>IFERROR(VLOOKUP(J41,AnsLTBL,2,FALSE),0)</f>
+      <c r="K41" s="148" cm="1">
+        <f t="array" aca="1" ref="K41" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L41" s="122"/>
@@ -37714,8 +37714,8 @@
         <f>J41</f>
         <v>0</v>
       </c>
-      <c r="O41" s="148">
-        <f>IFERROR(VLOOKUP(N41,AnsLTBL,2,FALSE),0)</f>
+      <c r="O41" s="148" cm="1">
+        <f t="array" aca="1" ref="O41" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P41" s="122"/>
@@ -37724,8 +37724,8 @@
         <f>N41</f>
         <v>0</v>
       </c>
-      <c r="S41" s="148">
-        <f>IFERROR(VLOOKUP(R41,AnsLTBL,2,FALSE),0)</f>
+      <c r="S41" s="148" cm="1">
+        <f t="array" aca="1" ref="S41" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T41" s="122"/>
@@ -37734,8 +37734,8 @@
         <f>R41</f>
         <v>0</v>
       </c>
-      <c r="W41" s="148">
-        <f>IFERROR(VLOOKUP(V41,AnsLTBL,2,FALSE),0)</f>
+      <c r="W41" s="148" cm="1">
+        <f t="array" aca="1" ref="W41" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X41" s="122"/>
@@ -37763,8 +37763,8 @@
         <f>Interview!F57</f>
         <v>0</v>
       </c>
-      <c r="G42" s="148">
-        <f>IFERROR(VLOOKUP(F42,AnsLTBL,2,FALSE),0)</f>
+      <c r="G42" s="148" cm="1">
+        <f t="array" aca="1" ref="G42" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H42" s="122"/>
@@ -37773,8 +37773,8 @@
         <f>F42</f>
         <v>0</v>
       </c>
-      <c r="K42" s="148">
-        <f>IFERROR(VLOOKUP(J42,AnsLTBL,2,FALSE),0)</f>
+      <c r="K42" s="148" cm="1">
+        <f t="array" aca="1" ref="K42" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L42" s="122"/>
@@ -37783,8 +37783,8 @@
         <f>J42</f>
         <v>0</v>
       </c>
-      <c r="O42" s="148">
-        <f>IFERROR(VLOOKUP(N42,AnsLTBL,2,FALSE),0)</f>
+      <c r="O42" s="148" cm="1">
+        <f t="array" aca="1" ref="O42" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P42" s="122"/>
@@ -37793,8 +37793,8 @@
         <f>N42</f>
         <v>0</v>
       </c>
-      <c r="S42" s="148">
-        <f>IFERROR(VLOOKUP(R42,AnsLTBL,2,FALSE),0)</f>
+      <c r="S42" s="148" cm="1">
+        <f t="array" aca="1" ref="S42" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T42" s="122"/>
@@ -37803,8 +37803,8 @@
         <f>R42</f>
         <v>0</v>
       </c>
-      <c r="W42" s="148">
-        <f>IFERROR(VLOOKUP(V42,AnsLTBL,2,FALSE),0)</f>
+      <c r="W42" s="148" cm="1">
+        <f t="array" aca="1" ref="W42" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X42" s="122"/>
@@ -37954,80 +37954,80 @@
         <f>Interview!F61</f>
         <v>0</v>
       </c>
-      <c r="G46" s="148">
-        <f>IFERROR(VLOOKUP(F46,AnsCTBL,2,FALSE),0)</f>
+      <c r="G46" s="148" cm="1">
+        <f t="array" aca="1" ref="G46" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H46" s="239">
-        <f>IFERROR(AVERAGE(G46,G50),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G46,G50),0)</f>
         <v>0</v>
       </c>
       <c r="I46" s="401">
-        <f>SUM(H46:H48)</f>
+        <f ca="1">SUM(H46:H48)</f>
         <v>0</v>
       </c>
       <c r="J46" s="244">
         <f>F46</f>
         <v>0</v>
       </c>
-      <c r="K46" s="148">
-        <f>IFERROR(VLOOKUP(J46,AnsCTBL,2,FALSE),0)</f>
+      <c r="K46" s="148" cm="1">
+        <f t="array" aca="1" ref="K46" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L46" s="239">
-        <f>IFERROR(AVERAGE(K46,K50),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K46,K50),0)</f>
         <v>0</v>
       </c>
       <c r="M46" s="401">
-        <f>SUM(L46:L48)</f>
+        <f ca="1">SUM(L46:L48)</f>
         <v>0</v>
       </c>
       <c r="N46" s="244">
         <f>J46</f>
         <v>0</v>
       </c>
-      <c r="O46" s="148">
-        <f>IFERROR(VLOOKUP(N46,AnsCTBL,2,FALSE),0)</f>
+      <c r="O46" s="148" cm="1">
+        <f t="array" aca="1" ref="O46" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P46" s="239">
-        <f>IFERROR(AVERAGE(O46,O50),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O46,O50),0)</f>
         <v>0</v>
       </c>
       <c r="Q46" s="401">
-        <f>SUM(P46:P48)</f>
+        <f ca="1">SUM(P46:P48)</f>
         <v>0</v>
       </c>
       <c r="R46" s="244">
         <f>N46</f>
         <v>0</v>
       </c>
-      <c r="S46" s="148">
-        <f>IFERROR(VLOOKUP(R46,AnsCTBL,2,FALSE),0)</f>
+      <c r="S46" s="148" cm="1">
+        <f t="array" aca="1" ref="S46" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T46" s="239">
-        <f>IFERROR(AVERAGE(S46,S50),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S46,S50),0)</f>
         <v>0</v>
       </c>
       <c r="U46" s="401">
-        <f>SUM(T46:T48)</f>
+        <f ca="1">SUM(T46:T48)</f>
         <v>0</v>
       </c>
       <c r="V46" s="244">
         <f>R46</f>
         <v>0</v>
       </c>
-      <c r="W46" s="148">
-        <f>IFERROR(VLOOKUP(V46,AnsCTBL,2,FALSE),0)</f>
+      <c r="W46" s="148" cm="1">
+        <f t="array" aca="1" ref="W46" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X46" s="239">
-        <f>IFERROR(AVERAGE(W46,W50),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W46,W50),0)</f>
         <v>0</v>
       </c>
       <c r="Y46" s="401">
-        <f>SUM(X46:X48)</f>
+        <f ca="1">SUM(X46:X48)</f>
         <v>0</v>
       </c>
     </row>
@@ -38053,12 +38053,12 @@
         <f>Interview!F63</f>
         <v>0</v>
       </c>
-      <c r="G47" s="148">
-        <f>IFERROR(VLOOKUP(F47,AnsFTBL,2,FALSE),0)</f>
+      <c r="G47" s="148" cm="1">
+        <f t="array" aca="1" ref="G47" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H47" s="239">
-        <f>IFERROR(AVERAGE(G47,G51),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G47,G51),0)</f>
         <v>0</v>
       </c>
       <c r="I47" s="392"/>
@@ -38066,12 +38066,12 @@
         <f>F47</f>
         <v>0</v>
       </c>
-      <c r="K47" s="148">
-        <f>IFERROR(VLOOKUP(J47,AnsFTBL,2,FALSE),0)</f>
+      <c r="K47" s="148" cm="1">
+        <f t="array" aca="1" ref="K47" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L47" s="239">
-        <f>IFERROR(AVERAGE(K47,K51),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K47,K51),0)</f>
         <v>0</v>
       </c>
       <c r="M47" s="392"/>
@@ -38079,12 +38079,12 @@
         <f>J47</f>
         <v>0</v>
       </c>
-      <c r="O47" s="148">
-        <f>IFERROR(VLOOKUP(N47,AnsFTBL,2,FALSE),0)</f>
+      <c r="O47" s="148" cm="1">
+        <f t="array" aca="1" ref="O47" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P47" s="239">
-        <f>IFERROR(AVERAGE(O47,O51),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O47,O51),0)</f>
         <v>0</v>
       </c>
       <c r="Q47" s="392"/>
@@ -38092,12 +38092,12 @@
         <f>N47</f>
         <v>0</v>
       </c>
-      <c r="S47" s="148">
-        <f>IFERROR(VLOOKUP(R47,AnsFTBL,2,FALSE),0)</f>
+      <c r="S47" s="148" cm="1">
+        <f t="array" aca="1" ref="S47" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T47" s="239">
-        <f>IFERROR(AVERAGE(S47,S51),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S47,S51),0)</f>
         <v>0</v>
       </c>
       <c r="U47" s="392"/>
@@ -38105,12 +38105,12 @@
         <f>R47</f>
         <v>0</v>
       </c>
-      <c r="W47" s="148">
-        <f>IFERROR(VLOOKUP(V47,AnsFTBL,2,FALSE),0)</f>
+      <c r="W47" s="148" cm="1">
+        <f t="array" aca="1" ref="W47" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X47" s="239">
-        <f>IFERROR(AVERAGE(W47,W51),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W47,W51),0)</f>
         <v>0</v>
       </c>
       <c r="Y47" s="392"/>
@@ -38137,12 +38137,12 @@
         <f>Interview!F65</f>
         <v>0</v>
       </c>
-      <c r="G48" s="148">
-        <f>IFERROR(VLOOKUP(F48,AnsGTBL,2,FALSE),0)</f>
+      <c r="G48" s="148" cm="1">
+        <f t="array" aca="1" ref="G48" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H48" s="239">
-        <f>IFERROR(AVERAGE(G48,G52),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G48,G52),0)</f>
         <v>0</v>
       </c>
       <c r="I48" s="392"/>
@@ -38150,12 +38150,12 @@
         <f>F48</f>
         <v>0</v>
       </c>
-      <c r="K48" s="148">
-        <f>IFERROR(VLOOKUP(J48,AnsGTBL,2,FALSE),0)</f>
+      <c r="K48" s="148" cm="1">
+        <f t="array" aca="1" ref="K48" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L48" s="239">
-        <f>IFERROR(AVERAGE(K48,K52),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K48,K52),0)</f>
         <v>0</v>
       </c>
       <c r="M48" s="392"/>
@@ -38163,12 +38163,12 @@
         <f>J48</f>
         <v>0</v>
       </c>
-      <c r="O48" s="148">
-        <f>IFERROR(VLOOKUP(N48,AnsGTBL,2,FALSE),0)</f>
+      <c r="O48" s="148" cm="1">
+        <f t="array" aca="1" ref="O48" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P48" s="239">
-        <f>IFERROR(AVERAGE(O48,O52),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O48,O52),0)</f>
         <v>0</v>
       </c>
       <c r="Q48" s="392"/>
@@ -38176,12 +38176,12 @@
         <f>N48</f>
         <v>0</v>
       </c>
-      <c r="S48" s="148">
-        <f>IFERROR(VLOOKUP(R48,AnsGTBL,2,FALSE),0)</f>
+      <c r="S48" s="148" cm="1">
+        <f t="array" aca="1" ref="S48" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T48" s="239">
-        <f>IFERROR(AVERAGE(S48,S52),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S48,S52),0)</f>
         <v>0</v>
       </c>
       <c r="U48" s="392"/>
@@ -38189,12 +38189,12 @@
         <f>R48</f>
         <v>0</v>
       </c>
-      <c r="W48" s="148">
-        <f>IFERROR(VLOOKUP(V48,AnsGTBL,2,FALSE),0)</f>
+      <c r="W48" s="148" cm="1">
+        <f t="array" aca="1" ref="W48" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X48" s="239">
-        <f>IFERROR(AVERAGE(W48,W52),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W48,W52),0)</f>
         <v>0</v>
       </c>
       <c r="Y48" s="392"/>
@@ -38251,8 +38251,8 @@
         <f>Interview!F68</f>
         <v>0</v>
       </c>
-      <c r="G50" s="148">
-        <f>IFERROR(VLOOKUP(F50,AnsCTBL,2,FALSE),0)</f>
+      <c r="G50" s="148" cm="1">
+        <f t="array" aca="1" ref="G50" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H50" s="122"/>
@@ -38261,8 +38261,8 @@
         <f>F50</f>
         <v>0</v>
       </c>
-      <c r="K50" s="148">
-        <f>IFERROR(VLOOKUP(J50,AnsCTBL,2,FALSE),0)</f>
+      <c r="K50" s="148" cm="1">
+        <f t="array" aca="1" ref="K50" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L50" s="122"/>
@@ -38271,8 +38271,8 @@
         <f>J50</f>
         <v>0</v>
       </c>
-      <c r="O50" s="148">
-        <f>IFERROR(VLOOKUP(N50,AnsCTBL,2,FALSE),0)</f>
+      <c r="O50" s="148" cm="1">
+        <f t="array" aca="1" ref="O50" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P50" s="122"/>
@@ -38281,8 +38281,8 @@
         <f>N50</f>
         <v>0</v>
       </c>
-      <c r="S50" s="148">
-        <f>IFERROR(VLOOKUP(R50,AnsCTBL,2,FALSE),0)</f>
+      <c r="S50" s="148" cm="1">
+        <f t="array" aca="1" ref="S50" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T50" s="122"/>
@@ -38291,8 +38291,8 @@
         <f>R50</f>
         <v>0</v>
       </c>
-      <c r="W50" s="148">
-        <f>IFERROR(VLOOKUP(V50,AnsCTBL,2,FALSE),0)</f>
+      <c r="W50" s="148" cm="1">
+        <f t="array" aca="1" ref="W50" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X50" s="122"/>
@@ -38320,8 +38320,8 @@
         <f>Interview!F70</f>
         <v>0</v>
       </c>
-      <c r="G51" s="148">
-        <f>IFERROR(VLOOKUP(F51,AnsFTBL,2,FALSE),0)</f>
+      <c r="G51" s="148" cm="1">
+        <f t="array" aca="1" ref="G51" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H51" s="122"/>
@@ -38330,8 +38330,8 @@
         <f>F51</f>
         <v>0</v>
       </c>
-      <c r="K51" s="148">
-        <f>IFERROR(VLOOKUP(J51,AnsFTBL,2,FALSE),0)</f>
+      <c r="K51" s="148" cm="1">
+        <f t="array" aca="1" ref="K51" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L51" s="122"/>
@@ -38340,8 +38340,8 @@
         <f>J51</f>
         <v>0</v>
       </c>
-      <c r="O51" s="148">
-        <f>IFERROR(VLOOKUP(N51,AnsFTBL,2,FALSE),0)</f>
+      <c r="O51" s="148" cm="1">
+        <f t="array" aca="1" ref="O51" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P51" s="122"/>
@@ -38350,8 +38350,8 @@
         <f>N51</f>
         <v>0</v>
       </c>
-      <c r="S51" s="148">
-        <f>IFERROR(VLOOKUP(R51,AnsFTBL,2,FALSE),0)</f>
+      <c r="S51" s="148" cm="1">
+        <f t="array" aca="1" ref="S51" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T51" s="122"/>
@@ -38360,8 +38360,8 @@
         <f>R51</f>
         <v>0</v>
       </c>
-      <c r="W51" s="148">
-        <f>IFERROR(VLOOKUP(V51,AnsFTBL,2,FALSE),0)</f>
+      <c r="W51" s="148" cm="1">
+        <f t="array" aca="1" ref="W51" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X51" s="122"/>
@@ -38389,8 +38389,8 @@
         <f>Interview!F72</f>
         <v>0</v>
       </c>
-      <c r="G52" s="148">
-        <f>IFERROR(VLOOKUP(F52,AnsNTBL,2,FALSE),0)</f>
+      <c r="G52" s="148" cm="1">
+        <f t="array" aca="1" ref="G52" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H52" s="122"/>
@@ -38399,8 +38399,8 @@
         <f>F52</f>
         <v>0</v>
       </c>
-      <c r="K52" s="148">
-        <f>IFERROR(VLOOKUP(J52,AnsNTBL,2,FALSE),0)</f>
+      <c r="K52" s="148" cm="1">
+        <f t="array" aca="1" ref="K52" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L52" s="122"/>
@@ -38409,8 +38409,8 @@
         <f>J52</f>
         <v>0</v>
       </c>
-      <c r="O52" s="148">
-        <f>IFERROR(VLOOKUP(N52,AnsNTBL,2,FALSE),0)</f>
+      <c r="O52" s="148" cm="1">
+        <f t="array" aca="1" ref="O52" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P52" s="122"/>
@@ -38419,8 +38419,8 @@
         <f>N52</f>
         <v>0</v>
       </c>
-      <c r="S52" s="148">
-        <f>IFERROR(VLOOKUP(R52,AnsNTBL,2,FALSE),0)</f>
+      <c r="S52" s="148" cm="1">
+        <f t="array" aca="1" ref="S52" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T52" s="122"/>
@@ -38429,8 +38429,8 @@
         <f>R52</f>
         <v>0</v>
       </c>
-      <c r="W52" s="148">
-        <f>IFERROR(VLOOKUP(V52,AnsNTBL,2,FALSE),0)</f>
+      <c r="W52" s="148" cm="1">
+        <f t="array" aca="1" ref="W52" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X52" s="122"/>
@@ -38541,80 +38541,80 @@
         <f>Interview!F75</f>
         <v>0</v>
       </c>
-      <c r="G55" s="148">
-        <f>IFERROR(VLOOKUP(F55,AnsFTBL,2,FALSE),0)</f>
+      <c r="G55" s="148" cm="1">
+        <f t="array" aca="1" ref="G55" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H55" s="239">
-        <f>IFERROR(AVERAGE(G55,G59),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G55,G59),0)</f>
         <v>0</v>
       </c>
       <c r="I55" s="401">
-        <f>SUM(H55:H57)</f>
+        <f ca="1">SUM(H55:H57)</f>
         <v>0</v>
       </c>
       <c r="J55" s="244">
         <f>F55</f>
         <v>0</v>
       </c>
-      <c r="K55" s="148">
-        <f>IFERROR(VLOOKUP(J55,AnsFTBL,2,FALSE),0)</f>
+      <c r="K55" s="148" cm="1">
+        <f t="array" aca="1" ref="K55" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L55" s="239">
-        <f>IFERROR(AVERAGE(K55,K59),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K55,K59),0)</f>
         <v>0</v>
       </c>
       <c r="M55" s="401">
-        <f>SUM(L55:L57)</f>
+        <f ca="1">SUM(L55:L57)</f>
         <v>0</v>
       </c>
       <c r="N55" s="244">
         <f>J55</f>
         <v>0</v>
       </c>
-      <c r="O55" s="148">
-        <f>IFERROR(VLOOKUP(N55,AnsFTBL,2,FALSE),0)</f>
+      <c r="O55" s="148" cm="1">
+        <f t="array" aca="1" ref="O55" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P55" s="239">
-        <f>IFERROR(AVERAGE(O55,O59),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O55,O59),0)</f>
         <v>0</v>
       </c>
       <c r="Q55" s="401">
-        <f>SUM(P55:P57)</f>
+        <f ca="1">SUM(P55:P57)</f>
         <v>0</v>
       </c>
       <c r="R55" s="244">
         <f>N55</f>
         <v>0</v>
       </c>
-      <c r="S55" s="148">
-        <f>IFERROR(VLOOKUP(R55,AnsFTBL,2,FALSE),0)</f>
+      <c r="S55" s="148" cm="1">
+        <f t="array" aca="1" ref="S55" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T55" s="239">
-        <f>IFERROR(AVERAGE(S55,S59),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S55,S59),0)</f>
         <v>0</v>
       </c>
       <c r="U55" s="401">
-        <f>SUM(T55:T57)</f>
+        <f ca="1">SUM(T55:T57)</f>
         <v>0</v>
       </c>
       <c r="V55" s="244">
         <f>R55</f>
         <v>0</v>
       </c>
-      <c r="W55" s="148">
-        <f>IFERROR(VLOOKUP(V55,AnsFTBL,2,FALSE),0)</f>
+      <c r="W55" s="148" cm="1">
+        <f t="array" aca="1" ref="W55" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X55" s="239">
-        <f>IFERROR(AVERAGE(W55,W59),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W55,W59),0)</f>
         <v>0</v>
       </c>
       <c r="Y55" s="401">
-        <f>SUM(X55:X57)</f>
+        <f ca="1">SUM(X55:X57)</f>
         <v>0</v>
       </c>
     </row>
@@ -38640,12 +38640,12 @@
         <f>Interview!F77</f>
         <v>0</v>
       </c>
-      <c r="G56" s="148">
-        <f>IFERROR(VLOOKUP(F56,AnsHTBL,2,FALSE),0)</f>
+      <c r="G56" s="148" cm="1">
+        <f t="array" aca="1" ref="G56" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H56" s="239">
-        <f>IFERROR(AVERAGE(G56,G60),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G56,G60),0)</f>
         <v>0</v>
       </c>
       <c r="I56" s="392"/>
@@ -38653,12 +38653,12 @@
         <f>F56</f>
         <v>0</v>
       </c>
-      <c r="K56" s="148">
-        <f>IFERROR(VLOOKUP(J56,AnsHTBL,2,FALSE),0)</f>
+      <c r="K56" s="148" cm="1">
+        <f t="array" aca="1" ref="K56" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L56" s="239">
-        <f>IFERROR(AVERAGE(K56,K60),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K56,K60),0)</f>
         <v>0</v>
       </c>
       <c r="M56" s="392"/>
@@ -38666,12 +38666,12 @@
         <f>J56</f>
         <v>0</v>
       </c>
-      <c r="O56" s="148">
-        <f>IFERROR(VLOOKUP(N56,AnsHTBL,2,FALSE),0)</f>
+      <c r="O56" s="148" cm="1">
+        <f t="array" aca="1" ref="O56" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P56" s="239">
-        <f>IFERROR(AVERAGE(O56,O60),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O56,O60),0)</f>
         <v>0</v>
       </c>
       <c r="Q56" s="392"/>
@@ -38679,12 +38679,12 @@
         <f>N56</f>
         <v>0</v>
       </c>
-      <c r="S56" s="148">
-        <f>IFERROR(VLOOKUP(R56,AnsHTBL,2,FALSE),0)</f>
+      <c r="S56" s="148" cm="1">
+        <f t="array" aca="1" ref="S56" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T56" s="239">
-        <f>IFERROR(AVERAGE(S56,S60),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S56,S60),0)</f>
         <v>0</v>
       </c>
       <c r="U56" s="392"/>
@@ -38692,12 +38692,12 @@
         <f>R56</f>
         <v>0</v>
       </c>
-      <c r="W56" s="148">
-        <f>IFERROR(VLOOKUP(V56,AnsHTBL,2,FALSE),0)</f>
+      <c r="W56" s="148" cm="1">
+        <f t="array" aca="1" ref="W56" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X56" s="239">
-        <f>IFERROR(AVERAGE(W56,W60),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W56,W60),0)</f>
         <v>0</v>
       </c>
       <c r="Y56" s="392"/>
@@ -38724,12 +38724,12 @@
         <f>Interview!F79</f>
         <v>0</v>
       </c>
-      <c r="G57" s="148">
-        <f>IFERROR(VLOOKUP(F57,AnsFTBL,2,FALSE),0)</f>
+      <c r="G57" s="148" cm="1">
+        <f t="array" aca="1" ref="G57" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H57" s="239">
-        <f>IFERROR(AVERAGE(G57,G61),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G57,G61),0)</f>
         <v>0</v>
       </c>
       <c r="I57" s="392"/>
@@ -38737,12 +38737,12 @@
         <f>F57</f>
         <v>0</v>
       </c>
-      <c r="K57" s="148">
-        <f>IFERROR(VLOOKUP(J57,AnsFTBL,2,FALSE),0)</f>
+      <c r="K57" s="148" cm="1">
+        <f t="array" aca="1" ref="K57" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L57" s="239">
-        <f>IFERROR(AVERAGE(K57,K61),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K57,K61),0)</f>
         <v>0</v>
       </c>
       <c r="M57" s="392"/>
@@ -38750,12 +38750,12 @@
         <f>J57</f>
         <v>0</v>
       </c>
-      <c r="O57" s="148">
-        <f>IFERROR(VLOOKUP(N57,AnsFTBL,2,FALSE),0)</f>
+      <c r="O57" s="148" cm="1">
+        <f t="array" aca="1" ref="O57" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P57" s="239">
-        <f>IFERROR(AVERAGE(O57,O61),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O57,O61),0)</f>
         <v>0</v>
       </c>
       <c r="Q57" s="392"/>
@@ -38763,12 +38763,12 @@
         <f>N57</f>
         <v>0</v>
       </c>
-      <c r="S57" s="148">
-        <f>IFERROR(VLOOKUP(R57,AnsFTBL,2,FALSE),0)</f>
+      <c r="S57" s="148" cm="1">
+        <f t="array" aca="1" ref="S57" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T57" s="239">
-        <f>IFERROR(AVERAGE(S57,S61),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S57,S61),0)</f>
         <v>0</v>
       </c>
       <c r="U57" s="392"/>
@@ -38776,12 +38776,12 @@
         <f>R57</f>
         <v>0</v>
       </c>
-      <c r="W57" s="148">
-        <f>IFERROR(VLOOKUP(V57,AnsFTBL,2,FALSE),0)</f>
+      <c r="W57" s="148" cm="1">
+        <f t="array" aca="1" ref="W57" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X57" s="239">
-        <f>IFERROR(AVERAGE(W57,W61),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W57,W61),0)</f>
         <v>0</v>
       </c>
       <c r="Y57" s="392"/>
@@ -38838,8 +38838,8 @@
         <f>Interview!F82</f>
         <v>0</v>
       </c>
-      <c r="G59" s="148">
-        <f>IFERROR(VLOOKUP(F59,AnsHTBL,2,FALSE),0)</f>
+      <c r="G59" s="148" cm="1">
+        <f t="array" aca="1" ref="G59" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H59" s="122"/>
@@ -38848,8 +38848,8 @@
         <f>F59</f>
         <v>0</v>
       </c>
-      <c r="K59" s="148">
-        <f>IFERROR(VLOOKUP(J59,AnsHTBL,2,FALSE),0)</f>
+      <c r="K59" s="148" cm="1">
+        <f t="array" aca="1" ref="K59" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L59" s="122"/>
@@ -38858,8 +38858,8 @@
         <f>J59</f>
         <v>0</v>
       </c>
-      <c r="O59" s="148">
-        <f>IFERROR(VLOOKUP(N59,AnsHTBL,2,FALSE),0)</f>
+      <c r="O59" s="148" cm="1">
+        <f t="array" aca="1" ref="O59" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P59" s="122"/>
@@ -38868,8 +38868,8 @@
         <f>N59</f>
         <v>0</v>
       </c>
-      <c r="S59" s="148">
-        <f>IFERROR(VLOOKUP(R59,AnsHTBL,2,FALSE),0)</f>
+      <c r="S59" s="148" cm="1">
+        <f t="array" aca="1" ref="S59" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T59" s="122"/>
@@ -38878,8 +38878,8 @@
         <f>R59</f>
         <v>0</v>
       </c>
-      <c r="W59" s="148">
-        <f>IFERROR(VLOOKUP(V59,AnsHTBL,2,FALSE),0)</f>
+      <c r="W59" s="148" cm="1">
+        <f t="array" aca="1" ref="W59" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X59" s="122"/>
@@ -38907,8 +38907,8 @@
         <f>Interview!F84</f>
         <v>0</v>
       </c>
-      <c r="G60" s="148">
-        <f>IFERROR(VLOOKUP(F60,AnsHTBL,2,FALSE),0)</f>
+      <c r="G60" s="148" cm="1">
+        <f t="array" aca="1" ref="G60" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H60" s="122"/>
@@ -38917,8 +38917,8 @@
         <f>F60</f>
         <v>0</v>
       </c>
-      <c r="K60" s="148">
-        <f>IFERROR(VLOOKUP(J60,AnsHTBL,2,FALSE),0)</f>
+      <c r="K60" s="148" cm="1">
+        <f t="array" aca="1" ref="K60" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L60" s="122"/>
@@ -38927,8 +38927,8 @@
         <f>J60</f>
         <v>0</v>
       </c>
-      <c r="O60" s="148">
-        <f>IFERROR(VLOOKUP(N60,AnsHTBL,2,FALSE),0)</f>
+      <c r="O60" s="148" cm="1">
+        <f t="array" aca="1" ref="O60" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P60" s="122"/>
@@ -38937,8 +38937,8 @@
         <f>N60</f>
         <v>0</v>
       </c>
-      <c r="S60" s="148">
-        <f>IFERROR(VLOOKUP(R60,AnsHTBL,2,FALSE),0)</f>
+      <c r="S60" s="148" cm="1">
+        <f t="array" aca="1" ref="S60" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T60" s="122"/>
@@ -38947,8 +38947,8 @@
         <f>R60</f>
         <v>0</v>
       </c>
-      <c r="W60" s="148">
-        <f>IFERROR(VLOOKUP(V60,AnsHTBL,2,FALSE),0)</f>
+      <c r="W60" s="148" cm="1">
+        <f t="array" aca="1" ref="W60" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X60" s="122"/>
@@ -38976,8 +38976,8 @@
         <f>Interview!F86</f>
         <v>0</v>
       </c>
-      <c r="G61" s="148">
-        <f>IFERROR(VLOOKUP(F61,AnsHTBL,2,FALSE),0)</f>
+      <c r="G61" s="148" cm="1">
+        <f t="array" aca="1" ref="G61" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H61" s="122"/>
@@ -38986,8 +38986,8 @@
         <f>F61</f>
         <v>0</v>
       </c>
-      <c r="K61" s="148">
-        <f>IFERROR(VLOOKUP(J61,AnsHTBL,2,FALSE),0)</f>
+      <c r="K61" s="148" cm="1">
+        <f t="array" aca="1" ref="K61" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L61" s="122"/>
@@ -38996,8 +38996,8 @@
         <f>J61</f>
         <v>0</v>
       </c>
-      <c r="O61" s="148">
-        <f>IFERROR(VLOOKUP(N61,AnsHTBL,2,FALSE),0)</f>
+      <c r="O61" s="148" cm="1">
+        <f t="array" aca="1" ref="O61" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P61" s="122"/>
@@ -39006,8 +39006,8 @@
         <f>N61</f>
         <v>0</v>
       </c>
-      <c r="S61" s="148">
-        <f>IFERROR(VLOOKUP(R61,AnsHTBL,2,FALSE),0)</f>
+      <c r="S61" s="148" cm="1">
+        <f t="array" aca="1" ref="S61" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T61" s="122"/>
@@ -39016,8 +39016,8 @@
         <f>R61</f>
         <v>0</v>
       </c>
-      <c r="W61" s="148">
-        <f>IFERROR(VLOOKUP(V61,AnsHTBL,2,FALSE),0)</f>
+      <c r="W61" s="148" cm="1">
+        <f t="array" aca="1" ref="W61" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X61" s="122"/>
@@ -39128,80 +39128,80 @@
         <f>Interview!F89</f>
         <v>0</v>
       </c>
-      <c r="G64" s="148">
-        <f>IFERROR(VLOOKUP(F64,AnsFTBL,2,FALSE),0)</f>
+      <c r="G64" s="148" cm="1">
+        <f t="array" aca="1" ref="G64" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H64" s="239">
-        <f>IFERROR(AVERAGE(G64,G68),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G64,G68),0)</f>
         <v>0</v>
       </c>
       <c r="I64" s="402">
-        <f>SUM(H64:H66)</f>
+        <f ca="1">SUM(H64:H66)</f>
         <v>0</v>
       </c>
       <c r="J64" s="244">
         <f>F64</f>
         <v>0</v>
       </c>
-      <c r="K64" s="148">
-        <f>IFERROR(VLOOKUP(J64,AnsFTBL,2,FALSE),0)</f>
+      <c r="K64" s="148" cm="1">
+        <f t="array" aca="1" ref="K64" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L64" s="239">
-        <f>IFERROR(AVERAGE(K64,K68),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K64,K68),0)</f>
         <v>0</v>
       </c>
       <c r="M64" s="402">
-        <f>SUM(L64:L66)</f>
+        <f ca="1">SUM(L64:L66)</f>
         <v>0</v>
       </c>
       <c r="N64" s="244">
         <f>J64</f>
         <v>0</v>
       </c>
-      <c r="O64" s="148">
-        <f>IFERROR(VLOOKUP(N64,AnsFTBL,2,FALSE),0)</f>
+      <c r="O64" s="148" cm="1">
+        <f t="array" aca="1" ref="O64" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P64" s="239">
-        <f>IFERROR(AVERAGE(O64,O68),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O64,O68),0)</f>
         <v>0</v>
       </c>
       <c r="Q64" s="402">
-        <f>SUM(P64:P66)</f>
+        <f ca="1">SUM(P64:P66)</f>
         <v>0</v>
       </c>
       <c r="R64" s="244">
         <f>N64</f>
         <v>0</v>
       </c>
-      <c r="S64" s="148">
-        <f>IFERROR(VLOOKUP(R64,AnsFTBL,2,FALSE),0)</f>
+      <c r="S64" s="148" cm="1">
+        <f t="array" aca="1" ref="S64" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T64" s="239">
-        <f>IFERROR(AVERAGE(S64,S68),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S64,S68),0)</f>
         <v>0</v>
       </c>
       <c r="U64" s="402">
-        <f>SUM(T64:T66)</f>
+        <f ca="1">SUM(T64:T66)</f>
         <v>0</v>
       </c>
       <c r="V64" s="244">
         <f>R64</f>
         <v>0</v>
       </c>
-      <c r="W64" s="148">
-        <f>IFERROR(VLOOKUP(V64,AnsFTBL,2,FALSE),0)</f>
+      <c r="W64" s="148" cm="1">
+        <f t="array" aca="1" ref="W64" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X64" s="239">
-        <f>IFERROR(AVERAGE(W64,W68),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W64,W68),0)</f>
         <v>0</v>
       </c>
       <c r="Y64" s="402">
-        <f>SUM(X64:X66)</f>
+        <f ca="1">SUM(X64:X66)</f>
         <v>0</v>
       </c>
     </row>
@@ -39227,12 +39227,12 @@
         <f>Interview!F91</f>
         <v>0</v>
       </c>
-      <c r="G65" s="148">
-        <f>IFERROR(VLOOKUP(F65,AnsFTBL,2,FALSE),0)</f>
+      <c r="G65" s="148" cm="1">
+        <f t="array" aca="1" ref="G65" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H65" s="239">
-        <f>IFERROR(AVERAGE(G65,G69),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G65,G69),0)</f>
         <v>0</v>
       </c>
       <c r="I65" s="392"/>
@@ -39240,12 +39240,12 @@
         <f>F65</f>
         <v>0</v>
       </c>
-      <c r="K65" s="148">
-        <f>IFERROR(VLOOKUP(J65,AnsFTBL,2,FALSE),0)</f>
+      <c r="K65" s="148" cm="1">
+        <f t="array" aca="1" ref="K65" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L65" s="239">
-        <f>IFERROR(AVERAGE(K65,K69),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K65,K69),0)</f>
         <v>0</v>
       </c>
       <c r="M65" s="392"/>
@@ -39253,12 +39253,12 @@
         <f>J65</f>
         <v>0</v>
       </c>
-      <c r="O65" s="148">
-        <f>IFERROR(VLOOKUP(N65,AnsFTBL,2,FALSE),0)</f>
+      <c r="O65" s="148" cm="1">
+        <f t="array" aca="1" ref="O65" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P65" s="239">
-        <f>IFERROR(AVERAGE(O65,O69),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O65,O69),0)</f>
         <v>0</v>
       </c>
       <c r="Q65" s="392"/>
@@ -39266,12 +39266,12 @@
         <f>N65</f>
         <v>0</v>
       </c>
-      <c r="S65" s="148">
-        <f>IFERROR(VLOOKUP(R65,AnsFTBL,2,FALSE),0)</f>
+      <c r="S65" s="148" cm="1">
+        <f t="array" aca="1" ref="S65" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T65" s="239">
-        <f>IFERROR(AVERAGE(S65,S69),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S65,S69),0)</f>
         <v>0</v>
       </c>
       <c r="U65" s="392"/>
@@ -39279,12 +39279,12 @@
         <f>R65</f>
         <v>0</v>
       </c>
-      <c r="W65" s="148">
-        <f>IFERROR(VLOOKUP(V65,AnsFTBL,2,FALSE),0)</f>
+      <c r="W65" s="148" cm="1">
+        <f t="array" aca="1" ref="W65" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X65" s="239">
-        <f>IFERROR(AVERAGE(W65,W69),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W65,W69),0)</f>
         <v>0</v>
       </c>
       <c r="Y65" s="392"/>
@@ -39311,12 +39311,12 @@
         <f>Interview!F93</f>
         <v>0</v>
       </c>
-      <c r="G66" s="148">
-        <f>IFERROR(VLOOKUP(F66,AnsFTBL,2,FALSE),0)</f>
+      <c r="G66" s="148" cm="1">
+        <f t="array" aca="1" ref="G66" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H66" s="239">
-        <f>IFERROR(AVERAGE(G66,G70),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G66,G70),0)</f>
         <v>0</v>
       </c>
       <c r="I66" s="392"/>
@@ -39324,12 +39324,12 @@
         <f>F66</f>
         <v>0</v>
       </c>
-      <c r="K66" s="148">
-        <f>IFERROR(VLOOKUP(J66,AnsFTBL,2,FALSE),0)</f>
+      <c r="K66" s="148" cm="1">
+        <f t="array" aca="1" ref="K66" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L66" s="239">
-        <f>IFERROR(AVERAGE(K66,K70),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K66,K70),0)</f>
         <v>0</v>
       </c>
       <c r="M66" s="392"/>
@@ -39337,12 +39337,12 @@
         <f>J66</f>
         <v>0</v>
       </c>
-      <c r="O66" s="148">
-        <f>IFERROR(VLOOKUP(N66,AnsFTBL,2,FALSE),0)</f>
+      <c r="O66" s="148" cm="1">
+        <f t="array" aca="1" ref="O66" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P66" s="239">
-        <f>IFERROR(AVERAGE(O66,O70),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O66,O70),0)</f>
         <v>0</v>
       </c>
       <c r="Q66" s="392"/>
@@ -39350,12 +39350,12 @@
         <f>N66</f>
         <v>0</v>
       </c>
-      <c r="S66" s="148">
-        <f>IFERROR(VLOOKUP(R66,AnsFTBL,2,FALSE),0)</f>
+      <c r="S66" s="148" cm="1">
+        <f t="array" aca="1" ref="S66" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T66" s="239">
-        <f>IFERROR(AVERAGE(S66,S70),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S66,S70),0)</f>
         <v>0</v>
       </c>
       <c r="U66" s="392"/>
@@ -39363,12 +39363,12 @@
         <f>R66</f>
         <v>0</v>
       </c>
-      <c r="W66" s="148">
-        <f>IFERROR(VLOOKUP(V66,AnsFTBL,2,FALSE),0)</f>
+      <c r="W66" s="148" cm="1">
+        <f t="array" aca="1" ref="W66" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X66" s="239">
-        <f>IFERROR(AVERAGE(W66,W70),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W66,W70),0)</f>
         <v>0</v>
       </c>
       <c r="Y66" s="392"/>
@@ -39425,8 +39425,8 @@
         <f>Interview!F96</f>
         <v>0</v>
       </c>
-      <c r="G68" s="148">
-        <f>IFERROR(VLOOKUP(F68,AnsFTBL,2,FALSE),0)</f>
+      <c r="G68" s="148" cm="1">
+        <f t="array" aca="1" ref="G68" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H68" s="122"/>
@@ -39435,8 +39435,8 @@
         <f>F68</f>
         <v>0</v>
       </c>
-      <c r="K68" s="148">
-        <f>IFERROR(VLOOKUP(J68,AnsFTBL,2,FALSE),0)</f>
+      <c r="K68" s="148" cm="1">
+        <f t="array" aca="1" ref="K68" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L68" s="122"/>
@@ -39445,8 +39445,8 @@
         <f>J68</f>
         <v>0</v>
       </c>
-      <c r="O68" s="148">
-        <f>IFERROR(VLOOKUP(N68,AnsFTBL,2,FALSE),0)</f>
+      <c r="O68" s="148" cm="1">
+        <f t="array" aca="1" ref="O68" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P68" s="122"/>
@@ -39455,8 +39455,8 @@
         <f>N68</f>
         <v>0</v>
       </c>
-      <c r="S68" s="148">
-        <f>IFERROR(VLOOKUP(R68,AnsFTBL,2,FALSE),0)</f>
+      <c r="S68" s="148" cm="1">
+        <f t="array" aca="1" ref="S68" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T68" s="122"/>
@@ -39465,8 +39465,8 @@
         <f>R68</f>
         <v>0</v>
       </c>
-      <c r="W68" s="148">
-        <f>IFERROR(VLOOKUP(V68,AnsFTBL,2,FALSE),0)</f>
+      <c r="W68" s="148" cm="1">
+        <f t="array" aca="1" ref="W68" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X68" s="122"/>
@@ -39494,8 +39494,8 @@
         <f>Interview!F98</f>
         <v>0</v>
       </c>
-      <c r="G69" s="148">
-        <f>IFERROR(VLOOKUP(F69,AnsUTBL,2,FALSE),0)</f>
+      <c r="G69" s="148" cm="1">
+        <f t="array" aca="1" ref="G69" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H69" s="122"/>
@@ -39504,8 +39504,8 @@
         <f>F69</f>
         <v>0</v>
       </c>
-      <c r="K69" s="148">
-        <f>IFERROR(VLOOKUP(J69,AnsUTBL,2,FALSE),0)</f>
+      <c r="K69" s="148" cm="1">
+        <f t="array" aca="1" ref="K69" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L69" s="122"/>
@@ -39514,8 +39514,8 @@
         <f>J69</f>
         <v>0</v>
       </c>
-      <c r="O69" s="148">
-        <f>IFERROR(VLOOKUP(N69,AnsUTBL,2,FALSE),0)</f>
+      <c r="O69" s="148" cm="1">
+        <f t="array" aca="1" ref="O69" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P69" s="122"/>
@@ -39524,8 +39524,8 @@
         <f>N69</f>
         <v>0</v>
       </c>
-      <c r="S69" s="148">
-        <f>IFERROR(VLOOKUP(R69,AnsUTBL,2,FALSE),0)</f>
+      <c r="S69" s="148" cm="1">
+        <f t="array" aca="1" ref="S69" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T69" s="122"/>
@@ -39534,8 +39534,8 @@
         <f>R69</f>
         <v>0</v>
       </c>
-      <c r="W69" s="148">
-        <f>IFERROR(VLOOKUP(V69,AnsUTBL,2,FALSE),0)</f>
+      <c r="W69" s="148" cm="1">
+        <f t="array" aca="1" ref="W69" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X69" s="122"/>
@@ -39563,8 +39563,8 @@
         <f>Interview!F100</f>
         <v>0</v>
       </c>
-      <c r="G70" s="148">
-        <f>IFERROR(VLOOKUP(F70,AnsFTBL,2,FALSE),0)</f>
+      <c r="G70" s="148" cm="1">
+        <f t="array" aca="1" ref="G70" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H70" s="122"/>
@@ -39573,8 +39573,8 @@
         <f>F70</f>
         <v>0</v>
       </c>
-      <c r="K70" s="148">
-        <f>IFERROR(VLOOKUP(J70,AnsFTBL,2,FALSE),0)</f>
+      <c r="K70" s="148" cm="1">
+        <f t="array" aca="1" ref="K70" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L70" s="122"/>
@@ -39583,8 +39583,8 @@
         <f>J70</f>
         <v>0</v>
       </c>
-      <c r="O70" s="148">
-        <f>IFERROR(VLOOKUP(N70,AnsFTBL,2,FALSE),0)</f>
+      <c r="O70" s="148" cm="1">
+        <f t="array" aca="1" ref="O70" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P70" s="122"/>
@@ -39593,8 +39593,8 @@
         <f>N70</f>
         <v>0</v>
       </c>
-      <c r="S70" s="148">
-        <f>IFERROR(VLOOKUP(R70,AnsFTBL,2,FALSE),0)</f>
+      <c r="S70" s="148" cm="1">
+        <f t="array" aca="1" ref="S70" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T70" s="122"/>
@@ -39603,8 +39603,8 @@
         <f>R70</f>
         <v>0</v>
       </c>
-      <c r="W70" s="148">
-        <f>IFERROR(VLOOKUP(V70,AnsFTBL,2,FALSE),0)</f>
+      <c r="W70" s="148" cm="1">
+        <f t="array" aca="1" ref="W70" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X70" s="122"/>
@@ -39754,80 +39754,80 @@
         <f>Interview!F104</f>
         <v>0</v>
       </c>
-      <c r="G74" s="148">
-        <f>IFERROR(VLOOKUP(F74,AnsFTBL,2,FALSE),0)</f>
+      <c r="G74" s="148" cm="1">
+        <f t="array" aca="1" ref="G74" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H74" s="239">
-        <f>IFERROR(AVERAGE(G74,G78),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G74,G78),0)</f>
         <v>0</v>
       </c>
       <c r="I74" s="403">
-        <f>SUM(H74:H76)</f>
+        <f ca="1">SUM(H74:H76)</f>
         <v>0</v>
       </c>
       <c r="J74" s="165">
         <f>F74</f>
         <v>0</v>
       </c>
-      <c r="K74" s="148">
-        <f>IFERROR(VLOOKUP(J74,AnsFTBL,2,FALSE),0)</f>
+      <c r="K74" s="148" cm="1">
+        <f t="array" aca="1" ref="K74" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L74" s="239">
-        <f>IFERROR(AVERAGE(K74,K78),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K74,K78),0)</f>
         <v>0</v>
       </c>
       <c r="M74" s="403">
-        <f>SUM(L74:L76)</f>
+        <f ca="1">SUM(L74:L76)</f>
         <v>0</v>
       </c>
       <c r="N74" s="165">
         <f>J74</f>
         <v>0</v>
       </c>
-      <c r="O74" s="148">
-        <f>IFERROR(VLOOKUP(N74,AnsFTBL,2,FALSE),0)</f>
+      <c r="O74" s="148" cm="1">
+        <f t="array" aca="1" ref="O74" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P74" s="239">
-        <f>IFERROR(AVERAGE(O74,O78),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O74,O78),0)</f>
         <v>0</v>
       </c>
       <c r="Q74" s="403">
-        <f>SUM(P74:P76)</f>
+        <f ca="1">SUM(P74:P76)</f>
         <v>0</v>
       </c>
       <c r="R74" s="244">
         <f>N74</f>
         <v>0</v>
       </c>
-      <c r="S74" s="148">
-        <f>IFERROR(VLOOKUP(R74,AnsFTBL,2,FALSE),0)</f>
+      <c r="S74" s="148" cm="1">
+        <f t="array" aca="1" ref="S74" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T74" s="239">
-        <f>IFERROR(AVERAGE(S74,S78),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S74,S78),0)</f>
         <v>0</v>
       </c>
       <c r="U74" s="403">
-        <f>SUM(T74:T76)</f>
+        <f ca="1">SUM(T74:T76)</f>
         <v>0</v>
       </c>
       <c r="V74" s="244">
         <f>R74</f>
         <v>0</v>
       </c>
-      <c r="W74" s="148">
-        <f>IFERROR(VLOOKUP(V74,AnsFTBL,2,FALSE),0)</f>
+      <c r="W74" s="148" cm="1">
+        <f t="array" aca="1" ref="W74" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X74" s="239">
-        <f>IFERROR(AVERAGE(W74,W78),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W74,W78),0)</f>
         <v>0</v>
       </c>
       <c r="Y74" s="403">
-        <f>SUM(X74:X76)</f>
+        <f ca="1">SUM(X74:X76)</f>
         <v>0</v>
       </c>
     </row>
@@ -39853,12 +39853,12 @@
         <f>Interview!F106</f>
         <v>0</v>
       </c>
-      <c r="G75" s="148">
-        <f>IFERROR(VLOOKUP(F75,AnsFTBL,2,FALSE),0)</f>
+      <c r="G75" s="148" cm="1">
+        <f t="array" aca="1" ref="G75" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H75" s="239">
-        <f>IFERROR(AVERAGE(G75,G79),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G75,G79),0)</f>
         <v>0</v>
       </c>
       <c r="I75" s="392"/>
@@ -39866,12 +39866,12 @@
         <f t="shared" ref="J75:J76" si="0">F75</f>
         <v>0</v>
       </c>
-      <c r="K75" s="148">
-        <f>IFERROR(VLOOKUP(J75,AnsFTBL,2,FALSE),0)</f>
+      <c r="K75" s="148" cm="1">
+        <f t="array" aca="1" ref="K75" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L75" s="239">
-        <f>IFERROR(AVERAGE(K75,K79),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K75,K79),0)</f>
         <v>0</v>
       </c>
       <c r="M75" s="392"/>
@@ -39879,12 +39879,12 @@
         <f t="shared" ref="N75:N76" si="1">J75</f>
         <v>0</v>
       </c>
-      <c r="O75" s="148">
-        <f>IFERROR(VLOOKUP(N75,AnsFTBL,2,FALSE),0)</f>
+      <c r="O75" s="148" cm="1">
+        <f t="array" aca="1" ref="O75" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P75" s="239">
-        <f>IFERROR(AVERAGE(O75,O79),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O75,O79),0)</f>
         <v>0</v>
       </c>
       <c r="Q75" s="392"/>
@@ -39892,12 +39892,12 @@
         <f>N75</f>
         <v>0</v>
       </c>
-      <c r="S75" s="148">
-        <f>IFERROR(VLOOKUP(R75,AnsFTBL,2,FALSE),0)</f>
+      <c r="S75" s="148" cm="1">
+        <f t="array" aca="1" ref="S75" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T75" s="239">
-        <f>IFERROR(AVERAGE(S75,S79),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S75,S79),0)</f>
         <v>0</v>
       </c>
       <c r="U75" s="392"/>
@@ -39905,12 +39905,12 @@
         <f>R75</f>
         <v>0</v>
       </c>
-      <c r="W75" s="148">
-        <f>IFERROR(VLOOKUP(V75,AnsFTBL,2,FALSE),0)</f>
+      <c r="W75" s="148" cm="1">
+        <f t="array" aca="1" ref="W75" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X75" s="239">
-        <f>IFERROR(AVERAGE(W75,W79),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W75,W79),0)</f>
         <v>0</v>
       </c>
       <c r="Y75" s="392"/>
@@ -39937,12 +39937,12 @@
         <f>Interview!F108</f>
         <v>0</v>
       </c>
-      <c r="G76" s="148">
-        <f>IFERROR(VLOOKUP(F76,AnsFTBL,2,FALSE),0)</f>
+      <c r="G76" s="148" cm="1">
+        <f t="array" aca="1" ref="G76" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H76" s="239">
-        <f>IFERROR(AVERAGE(G76,G80),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G76,G80),0)</f>
         <v>0</v>
       </c>
       <c r="I76" s="392"/>
@@ -39950,12 +39950,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K76" s="148">
-        <f>IFERROR(VLOOKUP(J76,AnsFTBL,2,FALSE),0)</f>
+      <c r="K76" s="148" cm="1">
+        <f t="array" aca="1" ref="K76" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L76" s="239">
-        <f>IFERROR(AVERAGE(K76,K80),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K76,K80),0)</f>
         <v>0</v>
       </c>
       <c r="M76" s="392"/>
@@ -39963,12 +39963,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O76" s="148">
-        <f>IFERROR(VLOOKUP(N76,AnsFTBL,2,FALSE),0)</f>
+      <c r="O76" s="148" cm="1">
+        <f t="array" aca="1" ref="O76" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P76" s="239">
-        <f>IFERROR(AVERAGE(O76,O80),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O76,O80),0)</f>
         <v>0</v>
       </c>
       <c r="Q76" s="392"/>
@@ -39976,12 +39976,12 @@
         <f>N76</f>
         <v>0</v>
       </c>
-      <c r="S76" s="148">
-        <f>IFERROR(VLOOKUP(R76,AnsFTBL,2,FALSE),0)</f>
+      <c r="S76" s="148" cm="1">
+        <f t="array" aca="1" ref="S76" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T76" s="239">
-        <f>IFERROR(AVERAGE(S76,S80),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S76,S80),0)</f>
         <v>0</v>
       </c>
       <c r="U76" s="392"/>
@@ -39989,12 +39989,12 @@
         <f>R76</f>
         <v>0</v>
       </c>
-      <c r="W76" s="148">
-        <f>IFERROR(VLOOKUP(V76,AnsFTBL,2,FALSE),0)</f>
+      <c r="W76" s="148" cm="1">
+        <f t="array" aca="1" ref="W76" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X76" s="239">
-        <f>IFERROR(AVERAGE(W76,W80),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W76,W80),0)</f>
         <v>0</v>
       </c>
       <c r="Y76" s="392"/>
@@ -40051,8 +40051,8 @@
         <f>Interview!F111</f>
         <v>0</v>
       </c>
-      <c r="G78" s="148">
-        <f>IFERROR(VLOOKUP(F78,AnsFTBL,2,FALSE),0)</f>
+      <c r="G78" s="148" cm="1">
+        <f t="array" aca="1" ref="G78" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H78" s="122"/>
@@ -40061,8 +40061,8 @@
         <f>F78</f>
         <v>0</v>
       </c>
-      <c r="K78" s="148">
-        <f>IFERROR(VLOOKUP(J78,AnsFTBL,2,FALSE),0)</f>
+      <c r="K78" s="148" cm="1">
+        <f t="array" aca="1" ref="K78" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L78" s="122"/>
@@ -40071,8 +40071,8 @@
         <f>J78</f>
         <v>0</v>
       </c>
-      <c r="O78" s="148">
-        <f>IFERROR(VLOOKUP(N78,AnsFTBL,2,FALSE),0)</f>
+      <c r="O78" s="148" cm="1">
+        <f t="array" aca="1" ref="O78" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P78" s="122"/>
@@ -40081,8 +40081,8 @@
         <f>N78</f>
         <v>0</v>
       </c>
-      <c r="S78" s="148">
-        <f>IFERROR(VLOOKUP(R78,AnsFTBL,2,FALSE),0)</f>
+      <c r="S78" s="148" cm="1">
+        <f t="array" aca="1" ref="S78" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T78" s="122"/>
@@ -40091,8 +40091,8 @@
         <f>R78</f>
         <v>0</v>
       </c>
-      <c r="W78" s="148">
-        <f>IFERROR(VLOOKUP(V78,AnsFTBL,2,FALSE),0)</f>
+      <c r="W78" s="148" cm="1">
+        <f t="array" aca="1" ref="W78" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X78" s="122"/>
@@ -40120,8 +40120,8 @@
         <f>Interview!F113</f>
         <v>0</v>
       </c>
-      <c r="G79" s="148">
-        <f>IFERROR(VLOOKUP(F79,AnsFTBL,2,FALSE),0)</f>
+      <c r="G79" s="148" cm="1">
+        <f t="array" aca="1" ref="G79" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H79" s="122"/>
@@ -40130,8 +40130,8 @@
         <f t="shared" ref="J79:J80" si="2">F79</f>
         <v>0</v>
       </c>
-      <c r="K79" s="148">
-        <f>IFERROR(VLOOKUP(J79,AnsFTBL,2,FALSE),0)</f>
+      <c r="K79" s="148" cm="1">
+        <f t="array" aca="1" ref="K79" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L79" s="122"/>
@@ -40140,8 +40140,8 @@
         <f t="shared" ref="N79:N80" si="3">J79</f>
         <v>0</v>
       </c>
-      <c r="O79" s="148">
-        <f>IFERROR(VLOOKUP(N79,AnsFTBL,2,FALSE),0)</f>
+      <c r="O79" s="148" cm="1">
+        <f t="array" aca="1" ref="O79" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P79" s="122"/>
@@ -40150,8 +40150,8 @@
         <f>N79</f>
         <v>0</v>
       </c>
-      <c r="S79" s="148">
-        <f>IFERROR(VLOOKUP(R79,AnsFTBL,2,FALSE),0)</f>
+      <c r="S79" s="148" cm="1">
+        <f t="array" aca="1" ref="S79" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T79" s="122"/>
@@ -40160,8 +40160,8 @@
         <f>R79</f>
         <v>0</v>
       </c>
-      <c r="W79" s="148">
-        <f>IFERROR(VLOOKUP(V79,AnsFTBL,2,FALSE),0)</f>
+      <c r="W79" s="148" cm="1">
+        <f t="array" aca="1" ref="W79" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X79" s="122"/>
@@ -40189,8 +40189,8 @@
         <f>Interview!F115</f>
         <v>0</v>
       </c>
-      <c r="G80" s="148">
-        <f>IFERROR(VLOOKUP(F80,AnsFTBL,2,FALSE),0)</f>
+      <c r="G80" s="148" cm="1">
+        <f t="array" aca="1" ref="G80" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H80" s="122"/>
@@ -40199,8 +40199,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K80" s="148">
-        <f>IFERROR(VLOOKUP(J80,AnsFTBL,2,FALSE),0)</f>
+      <c r="K80" s="148" cm="1">
+        <f t="array" aca="1" ref="K80" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L80" s="122"/>
@@ -40209,8 +40209,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O80" s="148">
-        <f>IFERROR(VLOOKUP(N80,AnsFTBL,2,FALSE),0)</f>
+      <c r="O80" s="148" cm="1">
+        <f t="array" aca="1" ref="O80" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P80" s="122"/>
@@ -40219,8 +40219,8 @@
         <f>N80</f>
         <v>0</v>
       </c>
-      <c r="S80" s="148">
-        <f>IFERROR(VLOOKUP(R80,AnsFTBL,2,FALSE),0)</f>
+      <c r="S80" s="148" cm="1">
+        <f t="array" aca="1" ref="S80" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T80" s="122"/>
@@ -40229,8 +40229,8 @@
         <f>R80</f>
         <v>0</v>
       </c>
-      <c r="W80" s="148">
-        <f>IFERROR(VLOOKUP(V80,AnsFTBL,2,FALSE),0)</f>
+      <c r="W80" s="148" cm="1">
+        <f t="array" aca="1" ref="W80" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X80" s="122"/>
@@ -40341,80 +40341,80 @@
         <f>Interview!F118</f>
         <v>0</v>
       </c>
-      <c r="G83" s="148">
-        <f>IFERROR(VLOOKUP(F83,AnsFTBL,2,FALSE),0)</f>
+      <c r="G83" s="148" cm="1">
+        <f t="array" aca="1" ref="G83" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H83" s="239">
-        <f>IFERROR(AVERAGE(G83,G87),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G83,G87),0)</f>
         <v>0</v>
       </c>
       <c r="I83" s="403">
-        <f>SUM(H83:H85)</f>
+        <f ca="1">SUM(H83:H85)</f>
         <v>0</v>
       </c>
       <c r="J83" s="165">
         <f>F83</f>
         <v>0</v>
       </c>
-      <c r="K83" s="148">
-        <f>IFERROR(VLOOKUP(J83,AnsFTBL,2,FALSE),0)</f>
+      <c r="K83" s="148" cm="1">
+        <f t="array" aca="1" ref="K83" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L83" s="239">
-        <f>IFERROR(AVERAGE(K83,K87),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K83,K87),0)</f>
         <v>0</v>
       </c>
       <c r="M83" s="403">
-        <f>SUM(L83:L85)</f>
+        <f ca="1">SUM(L83:L85)</f>
         <v>0</v>
       </c>
       <c r="N83" s="165">
         <f>J83</f>
         <v>0</v>
       </c>
-      <c r="O83" s="148">
-        <f>IFERROR(VLOOKUP(N83,AnsFTBL,2,FALSE),0)</f>
+      <c r="O83" s="148" cm="1">
+        <f t="array" aca="1" ref="O83" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P83" s="239">
-        <f>IFERROR(AVERAGE(O83,O87),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O83,O87),0)</f>
         <v>0</v>
       </c>
       <c r="Q83" s="403">
-        <f>SUM(P83:P85)</f>
+        <f ca="1">SUM(P83:P85)</f>
         <v>0</v>
       </c>
       <c r="R83" s="244">
         <f>N83</f>
         <v>0</v>
       </c>
-      <c r="S83" s="148">
-        <f>IFERROR(VLOOKUP(R83,AnsFTBL,2,FALSE),0)</f>
+      <c r="S83" s="148" cm="1">
+        <f t="array" aca="1" ref="S83" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T83" s="239">
-        <f>IFERROR(AVERAGE(S83,S87),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S83,S87),0)</f>
         <v>0</v>
       </c>
       <c r="U83" s="403">
-        <f>SUM(T83:T85)</f>
+        <f ca="1">SUM(T83:T85)</f>
         <v>0</v>
       </c>
       <c r="V83" s="244">
         <f>R83</f>
         <v>0</v>
       </c>
-      <c r="W83" s="148">
-        <f>IFERROR(VLOOKUP(V83,AnsFTBL,2,FALSE),0)</f>
+      <c r="W83" s="148" cm="1">
+        <f t="array" aca="1" ref="W83" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X83" s="239">
-        <f>IFERROR(AVERAGE(W83,W87),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W83,W87),0)</f>
         <v>0</v>
       </c>
       <c r="Y83" s="403">
-        <f>SUM(X83:X85)</f>
+        <f ca="1">SUM(X83:X85)</f>
         <v>0</v>
       </c>
     </row>
@@ -40440,12 +40440,12 @@
         <f>Interview!F120</f>
         <v>0</v>
       </c>
-      <c r="G84" s="148">
-        <f>IFERROR(VLOOKUP(F84,AnsFTBL,2,FALSE),0)</f>
+      <c r="G84" s="148" cm="1">
+        <f t="array" aca="1" ref="G84" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H84" s="239">
-        <f>IFERROR(AVERAGE(G84,G88),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G84,G88),0)</f>
         <v>0</v>
       </c>
       <c r="I84" s="392"/>
@@ -40453,12 +40453,12 @@
         <f t="shared" ref="J84:J85" si="4">F84</f>
         <v>0</v>
       </c>
-      <c r="K84" s="148">
-        <f>IFERROR(VLOOKUP(J84,AnsFTBL,2,FALSE),0)</f>
+      <c r="K84" s="148" cm="1">
+        <f t="array" aca="1" ref="K84" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L84" s="239">
-        <f>IFERROR(AVERAGE(K84,K88),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K84,K88),0)</f>
         <v>0</v>
       </c>
       <c r="M84" s="392"/>
@@ -40466,12 +40466,12 @@
         <f t="shared" ref="N84:N85" si="5">J84</f>
         <v>0</v>
       </c>
-      <c r="O84" s="148">
-        <f>IFERROR(VLOOKUP(N84,AnsFTBL,2,FALSE),0)</f>
+      <c r="O84" s="148" cm="1">
+        <f t="array" aca="1" ref="O84" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P84" s="239">
-        <f>IFERROR(AVERAGE(O84,O88),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O84,O88),0)</f>
         <v>0</v>
       </c>
       <c r="Q84" s="392"/>
@@ -40479,12 +40479,12 @@
         <f>N84</f>
         <v>0</v>
       </c>
-      <c r="S84" s="148">
-        <f>IFERROR(VLOOKUP(R84,AnsFTBL,2,FALSE),0)</f>
+      <c r="S84" s="148" cm="1">
+        <f t="array" aca="1" ref="S84" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T84" s="239">
-        <f>IFERROR(AVERAGE(S84,S88),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S84,S88),0)</f>
         <v>0</v>
       </c>
       <c r="U84" s="392"/>
@@ -40492,12 +40492,12 @@
         <f>R84</f>
         <v>0</v>
       </c>
-      <c r="W84" s="148">
-        <f>IFERROR(VLOOKUP(V84,AnsFTBL,2,FALSE),0)</f>
+      <c r="W84" s="148" cm="1">
+        <f t="array" aca="1" ref="W84" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X84" s="239">
-        <f>IFERROR(AVERAGE(W84,W88),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W84,W88),0)</f>
         <v>0</v>
       </c>
       <c r="Y84" s="392"/>
@@ -40524,12 +40524,12 @@
         <f>Interview!F122</f>
         <v>0</v>
       </c>
-      <c r="G85" s="148">
-        <f>IFERROR(VLOOKUP(F85,AnsFTBL,2,FALSE),0)</f>
+      <c r="G85" s="148" cm="1">
+        <f t="array" aca="1" ref="G85" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H85" s="239">
-        <f>IFERROR(AVERAGE(G85,G89),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G85,G89),0)</f>
         <v>0</v>
       </c>
       <c r="I85" s="392"/>
@@ -40537,12 +40537,12 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K85" s="148">
-        <f>IFERROR(VLOOKUP(J85,AnsFTBL,2,FALSE),0)</f>
+      <c r="K85" s="148" cm="1">
+        <f t="array" aca="1" ref="K85" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L85" s="239">
-        <f>IFERROR(AVERAGE(K85,K89),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K85,K89),0)</f>
         <v>0</v>
       </c>
       <c r="M85" s="392"/>
@@ -40550,12 +40550,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O85" s="148">
-        <f>IFERROR(VLOOKUP(N85,AnsFTBL,2,FALSE),0)</f>
+      <c r="O85" s="148" cm="1">
+        <f t="array" aca="1" ref="O85" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P85" s="239">
-        <f>IFERROR(AVERAGE(O85,O89),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O85,O89),0)</f>
         <v>0</v>
       </c>
       <c r="Q85" s="392"/>
@@ -40563,12 +40563,12 @@
         <f>N85</f>
         <v>0</v>
       </c>
-      <c r="S85" s="148">
-        <f>IFERROR(VLOOKUP(R85,AnsFTBL,2,FALSE),0)</f>
+      <c r="S85" s="148" cm="1">
+        <f t="array" aca="1" ref="S85" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T85" s="239">
-        <f>IFERROR(AVERAGE(S85,S89),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S85,S89),0)</f>
         <v>0</v>
       </c>
       <c r="U85" s="392"/>
@@ -40576,12 +40576,12 @@
         <f>R85</f>
         <v>0</v>
       </c>
-      <c r="W85" s="148">
-        <f>IFERROR(VLOOKUP(V85,AnsFTBL,2,FALSE),0)</f>
+      <c r="W85" s="148" cm="1">
+        <f t="array" aca="1" ref="W85" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X85" s="239">
-        <f>IFERROR(AVERAGE(W85,W89),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W85,W89),0)</f>
         <v>0</v>
       </c>
       <c r="Y85" s="392"/>
@@ -40638,8 +40638,8 @@
         <f>Interview!F125</f>
         <v>0</v>
       </c>
-      <c r="G87" s="148">
-        <f>IFERROR(VLOOKUP(F87,AnsFTBL,2,FALSE),0)</f>
+      <c r="G87" s="148" cm="1">
+        <f t="array" aca="1" ref="G87" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H87" s="122"/>
@@ -40648,8 +40648,8 @@
         <f>F87</f>
         <v>0</v>
       </c>
-      <c r="K87" s="148">
-        <f>IFERROR(VLOOKUP(J87,AnsFTBL,2,FALSE),0)</f>
+      <c r="K87" s="148" cm="1">
+        <f t="array" aca="1" ref="K87" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L87" s="122"/>
@@ -40658,8 +40658,8 @@
         <f>J87</f>
         <v>0</v>
       </c>
-      <c r="O87" s="148">
-        <f>IFERROR(VLOOKUP(N87,AnsFTBL,2,FALSE),0)</f>
+      <c r="O87" s="148" cm="1">
+        <f t="array" aca="1" ref="O87" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P87" s="122"/>
@@ -40668,8 +40668,8 @@
         <f>N87</f>
         <v>0</v>
       </c>
-      <c r="S87" s="148">
-        <f>IFERROR(VLOOKUP(R87,AnsFTBL,2,FALSE),0)</f>
+      <c r="S87" s="148" cm="1">
+        <f t="array" aca="1" ref="S87" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T87" s="122"/>
@@ -40678,8 +40678,8 @@
         <f>R87</f>
         <v>0</v>
       </c>
-      <c r="W87" s="148">
-        <f>IFERROR(VLOOKUP(V87,AnsFTBL,2,FALSE),0)</f>
+      <c r="W87" s="148" cm="1">
+        <f t="array" aca="1" ref="W87" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X87" s="122"/>
@@ -40707,8 +40707,8 @@
         <f>Interview!F127</f>
         <v>0</v>
       </c>
-      <c r="G88" s="148">
-        <f>IFERROR(VLOOKUP(F88,AnsFTBL,2,FALSE),0)</f>
+      <c r="G88" s="148" cm="1">
+        <f t="array" aca="1" ref="G88" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H88" s="122"/>
@@ -40717,8 +40717,8 @@
         <f t="shared" ref="J88:J89" si="6">F88</f>
         <v>0</v>
       </c>
-      <c r="K88" s="148">
-        <f>IFERROR(VLOOKUP(J88,AnsFTBL,2,FALSE),0)</f>
+      <c r="K88" s="148" cm="1">
+        <f t="array" aca="1" ref="K88" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L88" s="122"/>
@@ -40727,8 +40727,8 @@
         <f t="shared" ref="N88:N89" si="7">J88</f>
         <v>0</v>
       </c>
-      <c r="O88" s="148">
-        <f>IFERROR(VLOOKUP(N88,AnsFTBL,2,FALSE),0)</f>
+      <c r="O88" s="148" cm="1">
+        <f t="array" aca="1" ref="O88" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P88" s="122"/>
@@ -40737,8 +40737,8 @@
         <f>N88</f>
         <v>0</v>
       </c>
-      <c r="S88" s="148">
-        <f>IFERROR(VLOOKUP(R88,AnsFTBL,2,FALSE),0)</f>
+      <c r="S88" s="148" cm="1">
+        <f t="array" aca="1" ref="S88" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T88" s="122"/>
@@ -40747,8 +40747,8 @@
         <f>R88</f>
         <v>0</v>
       </c>
-      <c r="W88" s="148">
-        <f>IFERROR(VLOOKUP(V88,AnsFTBL,2,FALSE),0)</f>
+      <c r="W88" s="148" cm="1">
+        <f t="array" aca="1" ref="W88" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X88" s="122"/>
@@ -40776,8 +40776,8 @@
         <f>Interview!F129</f>
         <v>0</v>
       </c>
-      <c r="G89" s="148">
-        <f>IFERROR(VLOOKUP(F89,AnsFTBL,2,FALSE),0)</f>
+      <c r="G89" s="148" cm="1">
+        <f t="array" aca="1" ref="G89" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H89" s="122"/>
@@ -40786,8 +40786,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K89" s="148">
-        <f>IFERROR(VLOOKUP(J89,AnsFTBL,2,FALSE),0)</f>
+      <c r="K89" s="148" cm="1">
+        <f t="array" aca="1" ref="K89" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L89" s="122"/>
@@ -40796,8 +40796,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O89" s="148">
-        <f>IFERROR(VLOOKUP(N89,AnsFTBL,2,FALSE),0)</f>
+      <c r="O89" s="148" cm="1">
+        <f t="array" aca="1" ref="O89" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P89" s="122"/>
@@ -40806,8 +40806,8 @@
         <f>N89</f>
         <v>0</v>
       </c>
-      <c r="S89" s="148">
-        <f>IFERROR(VLOOKUP(R89,AnsFTBL,2,FALSE),0)</f>
+      <c r="S89" s="148" cm="1">
+        <f t="array" aca="1" ref="S89" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T89" s="122"/>
@@ -40816,8 +40816,8 @@
         <f>R89</f>
         <v>0</v>
       </c>
-      <c r="W89" s="148">
-        <f>IFERROR(VLOOKUP(V89,AnsFTBL,2,FALSE),0)</f>
+      <c r="W89" s="148" cm="1">
+        <f t="array" aca="1" ref="W89" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X89" s="122"/>
@@ -40928,80 +40928,80 @@
         <f>Interview!F132</f>
         <v>0</v>
       </c>
-      <c r="G92" s="148">
-        <f>IFERROR(VLOOKUP(F92,AnsFTBL,2,FALSE),0)</f>
+      <c r="G92" s="148" cm="1">
+        <f t="array" aca="1" ref="G92" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H92" s="239">
-        <f>IFERROR(AVERAGE(G92,G96),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G92,G96),0)</f>
         <v>0</v>
       </c>
       <c r="I92" s="404">
-        <f>SUM(H92:H94)</f>
+        <f ca="1">SUM(H92:H94)</f>
         <v>0</v>
       </c>
       <c r="J92" s="165">
         <f>F92</f>
         <v>0</v>
       </c>
-      <c r="K92" s="148">
-        <f>IFERROR(VLOOKUP(J92,AnsFTBL,2,FALSE),0)</f>
+      <c r="K92" s="148" cm="1">
+        <f t="array" aca="1" ref="K92" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L92" s="239">
-        <f>IFERROR(AVERAGE(K92,K96),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K92,K96),0)</f>
         <v>0</v>
       </c>
       <c r="M92" s="404">
-        <f>SUM(L92:L94)</f>
+        <f ca="1">SUM(L92:L94)</f>
         <v>0</v>
       </c>
       <c r="N92" s="165">
         <f>J92</f>
         <v>0</v>
       </c>
-      <c r="O92" s="148">
-        <f>IFERROR(VLOOKUP(N92,AnsFTBL,2,FALSE),0)</f>
+      <c r="O92" s="148" cm="1">
+        <f t="array" aca="1" ref="O92" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P92" s="239">
-        <f>IFERROR(AVERAGE(O92,O96),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O92,O96),0)</f>
         <v>0</v>
       </c>
       <c r="Q92" s="404">
-        <f>SUM(P92:P94)</f>
+        <f ca="1">SUM(P92:P94)</f>
         <v>0</v>
       </c>
       <c r="R92" s="244">
         <f>N92</f>
         <v>0</v>
       </c>
-      <c r="S92" s="148">
-        <f>IFERROR(VLOOKUP(R92,AnsFTBL,2,FALSE),0)</f>
+      <c r="S92" s="148" cm="1">
+        <f t="array" aca="1" ref="S92" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T92" s="239">
-        <f>IFERROR(AVERAGE(S92,S96),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S92,S96),0)</f>
         <v>0</v>
       </c>
       <c r="U92" s="404">
-        <f>SUM(T92:T94)</f>
+        <f ca="1">SUM(T92:T94)</f>
         <v>0</v>
       </c>
       <c r="V92" s="244">
         <f>R92</f>
         <v>0</v>
       </c>
-      <c r="W92" s="148">
-        <f>IFERROR(VLOOKUP(V92,AnsFTBL,2,FALSE),0)</f>
+      <c r="W92" s="148" cm="1">
+        <f t="array" aca="1" ref="W92" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X92" s="239">
-        <f>IFERROR(AVERAGE(W92,W96),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W92,W96),0)</f>
         <v>0</v>
       </c>
       <c r="Y92" s="404">
-        <f>SUM(X92:X94)</f>
+        <f ca="1">SUM(X92:X94)</f>
         <v>0</v>
       </c>
     </row>
@@ -41027,12 +41027,12 @@
         <f>Interview!F134</f>
         <v>0</v>
       </c>
-      <c r="G93" s="148">
-        <f>IFERROR(VLOOKUP(F93,AnsFTBL,2,FALSE),0)</f>
+      <c r="G93" s="148" cm="1">
+        <f t="array" aca="1" ref="G93" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H93" s="239">
-        <f>IFERROR(AVERAGE(G93,G97),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G93,G97),0)</f>
         <v>0</v>
       </c>
       <c r="I93" s="392"/>
@@ -41040,12 +41040,12 @@
         <f t="shared" ref="J93:J94" si="8">F93</f>
         <v>0</v>
       </c>
-      <c r="K93" s="148">
-        <f>IFERROR(VLOOKUP(J93,AnsFTBL,2,FALSE),0)</f>
+      <c r="K93" s="148" cm="1">
+        <f t="array" aca="1" ref="K93" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L93" s="239">
-        <f>IFERROR(AVERAGE(K93,K97),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K93,K97),0)</f>
         <v>0</v>
       </c>
       <c r="M93" s="392"/>
@@ -41053,12 +41053,12 @@
         <f t="shared" ref="N93:N94" si="9">J93</f>
         <v>0</v>
       </c>
-      <c r="O93" s="148">
-        <f>IFERROR(VLOOKUP(N93,AnsFTBL,2,FALSE),0)</f>
+      <c r="O93" s="148" cm="1">
+        <f t="array" aca="1" ref="O93" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P93" s="239">
-        <f>IFERROR(AVERAGE(O93,O97),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O93,O97),0)</f>
         <v>0</v>
       </c>
       <c r="Q93" s="392"/>
@@ -41066,12 +41066,12 @@
         <f>N93</f>
         <v>0</v>
       </c>
-      <c r="S93" s="148">
-        <f>IFERROR(VLOOKUP(R93,AnsFTBL,2,FALSE),0)</f>
+      <c r="S93" s="148" cm="1">
+        <f t="array" aca="1" ref="S93" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T93" s="239">
-        <f>IFERROR(AVERAGE(S93,S97),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S93,S97),0)</f>
         <v>0</v>
       </c>
       <c r="U93" s="392"/>
@@ -41079,12 +41079,12 @@
         <f>R93</f>
         <v>0</v>
       </c>
-      <c r="W93" s="148">
-        <f>IFERROR(VLOOKUP(V93,AnsFTBL,2,FALSE),0)</f>
+      <c r="W93" s="148" cm="1">
+        <f t="array" aca="1" ref="W93" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X93" s="239">
-        <f>IFERROR(AVERAGE(W93,W97),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W93,W97),0)</f>
         <v>0</v>
       </c>
       <c r="Y93" s="392"/>
@@ -41111,12 +41111,12 @@
         <f>Interview!F136</f>
         <v>0</v>
       </c>
-      <c r="G94" s="148">
-        <f>IFERROR(VLOOKUP(F94,AnsFTBL,2,FALSE),0)</f>
+      <c r="G94" s="148" cm="1">
+        <f t="array" aca="1" ref="G94" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H94" s="239">
-        <f>IFERROR(AVERAGE(G94,G98),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G94,G98),0)</f>
         <v>0</v>
       </c>
       <c r="I94" s="392"/>
@@ -41124,12 +41124,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K94" s="148">
-        <f>IFERROR(VLOOKUP(J94,AnsFTBL,2,FALSE),0)</f>
+      <c r="K94" s="148" cm="1">
+        <f t="array" aca="1" ref="K94" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L94" s="239">
-        <f>IFERROR(AVERAGE(K94,K98),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K94,K98),0)</f>
         <v>0</v>
       </c>
       <c r="M94" s="392"/>
@@ -41137,12 +41137,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O94" s="148">
-        <f>IFERROR(VLOOKUP(N94,AnsFTBL,2,FALSE),0)</f>
+      <c r="O94" s="148" cm="1">
+        <f t="array" aca="1" ref="O94" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P94" s="239">
-        <f>IFERROR(AVERAGE(O94,O98),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O94,O98),0)</f>
         <v>0</v>
       </c>
       <c r="Q94" s="392"/>
@@ -41150,12 +41150,12 @@
         <f>N94</f>
         <v>0</v>
       </c>
-      <c r="S94" s="148">
-        <f>IFERROR(VLOOKUP(R94,AnsFTBL,2,FALSE),0)</f>
+      <c r="S94" s="148" cm="1">
+        <f t="array" aca="1" ref="S94" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T94" s="239">
-        <f>IFERROR(AVERAGE(S94,S98),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S94,S98),0)</f>
         <v>0</v>
       </c>
       <c r="U94" s="392"/>
@@ -41163,12 +41163,12 @@
         <f>R94</f>
         <v>0</v>
       </c>
-      <c r="W94" s="148">
-        <f>IFERROR(VLOOKUP(V94,AnsFTBL,2,FALSE),0)</f>
+      <c r="W94" s="148" cm="1">
+        <f t="array" aca="1" ref="W94" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X94" s="239">
-        <f>IFERROR(AVERAGE(W94,W98),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W94,W98),0)</f>
         <v>0</v>
       </c>
       <c r="Y94" s="392"/>
@@ -41225,8 +41225,8 @@
         <f>Interview!F139</f>
         <v>0</v>
       </c>
-      <c r="G96" s="148">
-        <f>IFERROR(VLOOKUP(F96,AnsFTBL,2,FALSE),0)</f>
+      <c r="G96" s="148" cm="1">
+        <f t="array" aca="1" ref="G96" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H96" s="122"/>
@@ -41235,8 +41235,8 @@
         <f>F96</f>
         <v>0</v>
       </c>
-      <c r="K96" s="148">
-        <f>IFERROR(VLOOKUP(J96,AnsFTBL,2,FALSE),0)</f>
+      <c r="K96" s="148" cm="1">
+        <f t="array" aca="1" ref="K96" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L96" s="122"/>
@@ -41245,8 +41245,8 @@
         <f>J96</f>
         <v>0</v>
       </c>
-      <c r="O96" s="148">
-        <f>IFERROR(VLOOKUP(N96,AnsFTBL,2,FALSE),0)</f>
+      <c r="O96" s="148" cm="1">
+        <f t="array" aca="1" ref="O96" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P96" s="122"/>
@@ -41255,8 +41255,8 @@
         <f>N96</f>
         <v>0</v>
       </c>
-      <c r="S96" s="148">
-        <f>IFERROR(VLOOKUP(R96,AnsFTBL,2,FALSE),0)</f>
+      <c r="S96" s="148" cm="1">
+        <f t="array" aca="1" ref="S96" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T96" s="122"/>
@@ -41265,8 +41265,8 @@
         <f>R96</f>
         <v>0</v>
       </c>
-      <c r="W96" s="148">
-        <f>IFERROR(VLOOKUP(V96,AnsFTBL,2,FALSE),0)</f>
+      <c r="W96" s="148" cm="1">
+        <f t="array" aca="1" ref="W96" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X96" s="122"/>
@@ -41294,8 +41294,8 @@
         <f>Interview!F141</f>
         <v>0</v>
       </c>
-      <c r="G97" s="148">
-        <f>IFERROR(VLOOKUP(F97,AnsFTBL,2,FALSE),0)</f>
+      <c r="G97" s="148" cm="1">
+        <f t="array" aca="1" ref="G97" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H97" s="122"/>
@@ -41304,8 +41304,8 @@
         <f t="shared" ref="J97:J98" si="10">F97</f>
         <v>0</v>
       </c>
-      <c r="K97" s="148">
-        <f>IFERROR(VLOOKUP(J97,AnsFTBL,2,FALSE),0)</f>
+      <c r="K97" s="148" cm="1">
+        <f t="array" aca="1" ref="K97" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L97" s="122"/>
@@ -41314,8 +41314,8 @@
         <f t="shared" ref="N97:N98" si="11">J97</f>
         <v>0</v>
       </c>
-      <c r="O97" s="148">
-        <f>IFERROR(VLOOKUP(N97,AnsFTBL,2,FALSE),0)</f>
+      <c r="O97" s="148" cm="1">
+        <f t="array" aca="1" ref="O97" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P97" s="122"/>
@@ -41324,8 +41324,8 @@
         <f>N97</f>
         <v>0</v>
       </c>
-      <c r="S97" s="148">
-        <f>IFERROR(VLOOKUP(R97,AnsFTBL,2,FALSE),0)</f>
+      <c r="S97" s="148" cm="1">
+        <f t="array" aca="1" ref="S97" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T97" s="122"/>
@@ -41334,8 +41334,8 @@
         <f>R97</f>
         <v>0</v>
       </c>
-      <c r="W97" s="148">
-        <f>IFERROR(VLOOKUP(V97,AnsFTBL,2,FALSE),0)</f>
+      <c r="W97" s="148" cm="1">
+        <f t="array" aca="1" ref="W97" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X97" s="122"/>
@@ -41363,8 +41363,8 @@
         <f>Interview!F143</f>
         <v>0</v>
       </c>
-      <c r="G98" s="148">
-        <f>IFERROR(VLOOKUP(F98,AnsFTBL,2,FALSE),0)</f>
+      <c r="G98" s="148" cm="1">
+        <f t="array" aca="1" ref="G98" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H98" s="122"/>
@@ -41373,8 +41373,8 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K98" s="148">
-        <f>IFERROR(VLOOKUP(J98,AnsFTBL,2,FALSE),0)</f>
+      <c r="K98" s="148" cm="1">
+        <f t="array" aca="1" ref="K98" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L98" s="122"/>
@@ -41383,8 +41383,8 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O98" s="148">
-        <f>IFERROR(VLOOKUP(N98,AnsFTBL,2,FALSE),0)</f>
+      <c r="O98" s="148" cm="1">
+        <f t="array" aca="1" ref="O98" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P98" s="122"/>
@@ -41393,8 +41393,8 @@
         <f>N98</f>
         <v>0</v>
       </c>
-      <c r="S98" s="148">
-        <f>IFERROR(VLOOKUP(R98,AnsFTBL,2,FALSE),0)</f>
+      <c r="S98" s="148" cm="1">
+        <f t="array" aca="1" ref="S98" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T98" s="122"/>
@@ -41403,8 +41403,8 @@
         <f>R98</f>
         <v>0</v>
       </c>
-      <c r="W98" s="148">
-        <f>IFERROR(VLOOKUP(V98,AnsFTBL,2,FALSE),0)</f>
+      <c r="W98" s="148" cm="1">
+        <f t="array" aca="1" ref="W98" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X98" s="122"/>
@@ -41554,80 +41554,80 @@
         <f>Interview!F147</f>
         <v>0</v>
       </c>
-      <c r="G102" s="148">
-        <f>IFERROR(VLOOKUP(F102,AnsFTBL,2,FALSE),0)</f>
+      <c r="G102" s="148" cm="1">
+        <f t="array" aca="1" ref="G102" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H102" s="239">
-        <f>IFERROR(AVERAGE(G102,G106),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G102,G106),0)</f>
         <v>0</v>
       </c>
       <c r="I102" s="405">
-        <f>SUM(H102:H104)</f>
+        <f ca="1">SUM(H102:H104)</f>
         <v>0</v>
       </c>
       <c r="J102" s="244">
         <f>F102</f>
         <v>0</v>
       </c>
-      <c r="K102" s="148">
-        <f>IFERROR(VLOOKUP(J102,AnsFTBL,2,FALSE),0)</f>
+      <c r="K102" s="148" cm="1">
+        <f t="array" aca="1" ref="K102" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L102" s="239">
-        <f>IFERROR(AVERAGE(K102,K106),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K102,K106),0)</f>
         <v>0</v>
       </c>
       <c r="M102" s="405">
-        <f>SUM(L102:L104)</f>
+        <f ca="1">SUM(L102:L104)</f>
         <v>0</v>
       </c>
       <c r="N102" s="244">
         <f>J102</f>
         <v>0</v>
       </c>
-      <c r="O102" s="148">
-        <f>IFERROR(VLOOKUP(N102,AnsFTBL,2,FALSE),0)</f>
+      <c r="O102" s="148" cm="1">
+        <f t="array" aca="1" ref="O102" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P102" s="239">
-        <f>IFERROR(AVERAGE(O102,O106),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O102,O106),0)</f>
         <v>0</v>
       </c>
       <c r="Q102" s="405">
-        <f>SUM(P102:P104)</f>
+        <f ca="1">SUM(P102:P104)</f>
         <v>0</v>
       </c>
       <c r="R102" s="244">
         <f>N102</f>
         <v>0</v>
       </c>
-      <c r="S102" s="148">
-        <f>IFERROR(VLOOKUP(R102,AnsFTBL,2,FALSE),0)</f>
+      <c r="S102" s="148" cm="1">
+        <f t="array" aca="1" ref="S102" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T102" s="239">
-        <f>IFERROR(AVERAGE(S102,S106),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S102,S106),0)</f>
         <v>0</v>
       </c>
       <c r="U102" s="405">
-        <f>SUM(T102:T104)</f>
+        <f ca="1">SUM(T102:T104)</f>
         <v>0</v>
       </c>
       <c r="V102" s="244">
         <f>R102</f>
         <v>0</v>
       </c>
-      <c r="W102" s="148">
-        <f>IFERROR(VLOOKUP(V102,AnsFTBL,2,FALSE),0)</f>
+      <c r="W102" s="148" cm="1">
+        <f t="array" aca="1" ref="W102" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X102" s="239">
-        <f>IFERROR(AVERAGE(W102,W106),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W102,W106),0)</f>
         <v>0</v>
       </c>
       <c r="Y102" s="405">
-        <f>SUM(X102:X104)</f>
+        <f ca="1">SUM(X102:X104)</f>
         <v>0</v>
       </c>
     </row>
@@ -41653,12 +41653,12 @@
         <f>Interview!F149</f>
         <v>0</v>
       </c>
-      <c r="G103" s="148">
-        <f>IFERROR(VLOOKUP(F103,AnsFTBL,2,FALSE),0)</f>
+      <c r="G103" s="148" cm="1">
+        <f t="array" aca="1" ref="G103" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H103" s="239">
-        <f>IFERROR(AVERAGE(G103,G107),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G103,G107),0)</f>
         <v>0</v>
       </c>
       <c r="I103" s="392"/>
@@ -41666,12 +41666,12 @@
         <f>F103</f>
         <v>0</v>
       </c>
-      <c r="K103" s="148">
-        <f>IFERROR(VLOOKUP(J103,AnsFTBL,2,FALSE),0)</f>
+      <c r="K103" s="148" cm="1">
+        <f t="array" aca="1" ref="K103" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L103" s="239">
-        <f>IFERROR(AVERAGE(K103,K107),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K103,K107),0)</f>
         <v>0</v>
       </c>
       <c r="M103" s="392"/>
@@ -41679,12 +41679,12 @@
         <f>J103</f>
         <v>0</v>
       </c>
-      <c r="O103" s="148">
-        <f>IFERROR(VLOOKUP(N103,AnsFTBL,2,FALSE),0)</f>
+      <c r="O103" s="148" cm="1">
+        <f t="array" aca="1" ref="O103" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P103" s="239">
-        <f>IFERROR(AVERAGE(O103,O107),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O103,O107),0)</f>
         <v>0</v>
       </c>
       <c r="Q103" s="392"/>
@@ -41692,12 +41692,12 @@
         <f>N103</f>
         <v>0</v>
       </c>
-      <c r="S103" s="148">
-        <f>IFERROR(VLOOKUP(R103,AnsFTBL,2,FALSE),0)</f>
+      <c r="S103" s="148" cm="1">
+        <f t="array" aca="1" ref="S103" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T103" s="239">
-        <f>IFERROR(AVERAGE(S103,S107),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S103,S107),0)</f>
         <v>0</v>
       </c>
       <c r="U103" s="392"/>
@@ -41705,12 +41705,12 @@
         <f>R103</f>
         <v>0</v>
       </c>
-      <c r="W103" s="148">
-        <f>IFERROR(VLOOKUP(V103,AnsFTBL,2,FALSE),0)</f>
+      <c r="W103" s="148" cm="1">
+        <f t="array" aca="1" ref="W103" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X103" s="239">
-        <f>IFERROR(AVERAGE(W103,W107),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W103,W107),0)</f>
         <v>0</v>
       </c>
       <c r="Y103" s="392"/>
@@ -41737,12 +41737,12 @@
         <f>Interview!F151</f>
         <v>0</v>
       </c>
-      <c r="G104" s="148">
-        <f>IFERROR(VLOOKUP(F104,AnsFTBL,2,FALSE),0)</f>
+      <c r="G104" s="148" cm="1">
+        <f t="array" aca="1" ref="G104" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H104" s="239">
-        <f>IFERROR(AVERAGE(G104,G108),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G104,G108),0)</f>
         <v>0</v>
       </c>
       <c r="I104" s="392"/>
@@ -41750,12 +41750,12 @@
         <f>F104</f>
         <v>0</v>
       </c>
-      <c r="K104" s="148">
-        <f>IFERROR(VLOOKUP(J104,AnsFTBL,2,FALSE),0)</f>
+      <c r="K104" s="148" cm="1">
+        <f t="array" aca="1" ref="K104" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L104" s="239">
-        <f>IFERROR(AVERAGE(K104,K108),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K104,K108),0)</f>
         <v>0</v>
       </c>
       <c r="M104" s="392"/>
@@ -41763,12 +41763,12 @@
         <f>J104</f>
         <v>0</v>
       </c>
-      <c r="O104" s="148">
-        <f>IFERROR(VLOOKUP(N104,AnsFTBL,2,FALSE),0)</f>
+      <c r="O104" s="148" cm="1">
+        <f t="array" aca="1" ref="O104" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P104" s="239">
-        <f>IFERROR(AVERAGE(O104,O108),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O104,O108),0)</f>
         <v>0</v>
       </c>
       <c r="Q104" s="392"/>
@@ -41776,12 +41776,12 @@
         <f>N104</f>
         <v>0</v>
       </c>
-      <c r="S104" s="148">
-        <f>IFERROR(VLOOKUP(R104,AnsFTBL,2,FALSE),0)</f>
+      <c r="S104" s="148" cm="1">
+        <f t="array" aca="1" ref="S104" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T104" s="239">
-        <f>IFERROR(AVERAGE(S104,S108),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S104,S108),0)</f>
         <v>0</v>
       </c>
       <c r="U104" s="392"/>
@@ -41789,12 +41789,12 @@
         <f>R104</f>
         <v>0</v>
       </c>
-      <c r="W104" s="148">
-        <f>IFERROR(VLOOKUP(V104,AnsFTBL,2,FALSE),0)</f>
+      <c r="W104" s="148" cm="1">
+        <f t="array" aca="1" ref="W104" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X104" s="239">
-        <f>IFERROR(AVERAGE(W104,W108),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W104,W108),0)</f>
         <v>0</v>
       </c>
       <c r="Y104" s="392"/>
@@ -41851,8 +41851,8 @@
         <f>Interview!F154</f>
         <v>0</v>
       </c>
-      <c r="G106" s="148">
-        <f>IFERROR(VLOOKUP(F106,AnsFTBL,2,FALSE),0)</f>
+      <c r="G106" s="148" cm="1">
+        <f t="array" aca="1" ref="G106" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H106" s="240"/>
@@ -41861,8 +41861,8 @@
         <f>F106</f>
         <v>0</v>
       </c>
-      <c r="K106" s="148">
-        <f>IFERROR(VLOOKUP(J106,AnsFTBL,2,FALSE),0)</f>
+      <c r="K106" s="148" cm="1">
+        <f t="array" aca="1" ref="K106" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L106" s="240"/>
@@ -41871,8 +41871,8 @@
         <f>J106</f>
         <v>0</v>
       </c>
-      <c r="O106" s="148">
-        <f>IFERROR(VLOOKUP(N106,AnsFTBL,2,FALSE),0)</f>
+      <c r="O106" s="148" cm="1">
+        <f t="array" aca="1" ref="O106" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P106" s="240"/>
@@ -41881,8 +41881,8 @@
         <f>N106</f>
         <v>0</v>
       </c>
-      <c r="S106" s="148">
-        <f>IFERROR(VLOOKUP(R106,AnsFTBL,2,FALSE),0)</f>
+      <c r="S106" s="148" cm="1">
+        <f t="array" aca="1" ref="S106" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T106" s="240"/>
@@ -41891,8 +41891,8 @@
         <f>R106</f>
         <v>0</v>
       </c>
-      <c r="W106" s="148">
-        <f>IFERROR(VLOOKUP(V106,AnsFTBL,2,FALSE),0)</f>
+      <c r="W106" s="148" cm="1">
+        <f t="array" aca="1" ref="W106" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X106" s="240"/>
@@ -41920,8 +41920,8 @@
         <f>Interview!F156</f>
         <v>0</v>
       </c>
-      <c r="G107" s="148">
-        <f>IFERROR(VLOOKUP(F107,AnsFTBL,2,FALSE),0)</f>
+      <c r="G107" s="148" cm="1">
+        <f t="array" aca="1" ref="G107" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H107" s="240"/>
@@ -41930,8 +41930,8 @@
         <f>F107</f>
         <v>0</v>
       </c>
-      <c r="K107" s="148">
-        <f>IFERROR(VLOOKUP(J107,AnsFTBL,2,FALSE),0)</f>
+      <c r="K107" s="148" cm="1">
+        <f t="array" aca="1" ref="K107" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L107" s="240"/>
@@ -41940,8 +41940,8 @@
         <f>J107</f>
         <v>0</v>
       </c>
-      <c r="O107" s="148">
-        <f>IFERROR(VLOOKUP(N107,AnsFTBL,2,FALSE),0)</f>
+      <c r="O107" s="148" cm="1">
+        <f t="array" aca="1" ref="O107" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P107" s="240"/>
@@ -41950,8 +41950,8 @@
         <f>N107</f>
         <v>0</v>
       </c>
-      <c r="S107" s="148">
-        <f>IFERROR(VLOOKUP(R107,AnsFTBL,2,FALSE),0)</f>
+      <c r="S107" s="148" cm="1">
+        <f t="array" aca="1" ref="S107" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T107" s="240"/>
@@ -41960,8 +41960,8 @@
         <f>R107</f>
         <v>0</v>
       </c>
-      <c r="W107" s="148">
-        <f>IFERROR(VLOOKUP(V107,AnsFTBL,2,FALSE),0)</f>
+      <c r="W107" s="148" cm="1">
+        <f t="array" aca="1" ref="W107" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X107" s="240"/>
@@ -41989,8 +41989,8 @@
         <f>Interview!F158</f>
         <v>0</v>
       </c>
-      <c r="G108" s="148">
-        <f>IFERROR(VLOOKUP(F108,AnsFTBL,2,FALSE),0)</f>
+      <c r="G108" s="148" cm="1">
+        <f t="array" aca="1" ref="G108" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H108" s="240"/>
@@ -41999,8 +41999,8 @@
         <f>F108</f>
         <v>0</v>
       </c>
-      <c r="K108" s="148">
-        <f>IFERROR(VLOOKUP(J108,AnsFTBL,2,FALSE),0)</f>
+      <c r="K108" s="148" cm="1">
+        <f t="array" aca="1" ref="K108" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L108" s="240"/>
@@ -42009,8 +42009,8 @@
         <f>J108</f>
         <v>0</v>
       </c>
-      <c r="O108" s="148">
-        <f>IFERROR(VLOOKUP(N108,AnsFTBL,2,FALSE),0)</f>
+      <c r="O108" s="148" cm="1">
+        <f t="array" aca="1" ref="O108" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P108" s="240"/>
@@ -42019,8 +42019,8 @@
         <f>N108</f>
         <v>0</v>
       </c>
-      <c r="S108" s="148">
-        <f>IFERROR(VLOOKUP(R108,AnsFTBL,2,FALSE),0)</f>
+      <c r="S108" s="148" cm="1">
+        <f t="array" aca="1" ref="S108" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T108" s="240"/>
@@ -42029,8 +42029,8 @@
         <f>R108</f>
         <v>0</v>
       </c>
-      <c r="W108" s="148">
-        <f>IFERROR(VLOOKUP(V108,AnsFTBL,2,FALSE),0)</f>
+      <c r="W108" s="148" cm="1">
+        <f t="array" aca="1" ref="W108" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X108" s="240"/>
@@ -42141,80 +42141,80 @@
         <f>Interview!F161</f>
         <v>0</v>
       </c>
-      <c r="G111" s="148">
-        <f>IFERROR(VLOOKUP(F111,AnsCTBL,2,FALSE),0)</f>
+      <c r="G111" s="148" cm="1">
+        <f t="array" aca="1" ref="G111" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H111" s="239">
-        <f>IFERROR(AVERAGE(G111,G115),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G111,G115),0)</f>
         <v>0</v>
       </c>
       <c r="I111" s="405">
-        <f>SUM(H111:H113)</f>
+        <f ca="1">SUM(H111:H113)</f>
         <v>0</v>
       </c>
       <c r="J111" s="244">
         <f>F111</f>
         <v>0</v>
       </c>
-      <c r="K111" s="148">
-        <f>IFERROR(VLOOKUP(J111,AnsCTBL,2,FALSE),0)</f>
+      <c r="K111" s="148" cm="1">
+        <f t="array" aca="1" ref="K111" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L111" s="239">
-        <f>IFERROR(AVERAGE(K111,K115),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K111,K115),0)</f>
         <v>0</v>
       </c>
       <c r="M111" s="405">
-        <f>SUM(L111:L113)</f>
+        <f ca="1">SUM(L111:L113)</f>
         <v>0</v>
       </c>
       <c r="N111" s="244">
         <f>J111</f>
         <v>0</v>
       </c>
-      <c r="O111" s="148">
-        <f>IFERROR(VLOOKUP(N111,AnsCTBL,2,FALSE),0)</f>
+      <c r="O111" s="148" cm="1">
+        <f t="array" aca="1" ref="O111" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P111" s="239">
-        <f>IFERROR(AVERAGE(O111,O115),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O111,O115),0)</f>
         <v>0</v>
       </c>
       <c r="Q111" s="405">
-        <f>SUM(P111:P113)</f>
+        <f ca="1">SUM(P111:P113)</f>
         <v>0</v>
       </c>
       <c r="R111" s="244">
         <f>N111</f>
         <v>0</v>
       </c>
-      <c r="S111" s="148">
-        <f>IFERROR(VLOOKUP(R111,AnsCTBL,2,FALSE),0)</f>
+      <c r="S111" s="148" cm="1">
+        <f t="array" aca="1" ref="S111" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T111" s="239">
-        <f>IFERROR(AVERAGE(S111,S115),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S111,S115),0)</f>
         <v>0</v>
       </c>
       <c r="U111" s="405">
-        <f>SUM(T111:T113)</f>
+        <f ca="1">SUM(T111:T113)</f>
         <v>0</v>
       </c>
       <c r="V111" s="244">
         <f>R111</f>
         <v>0</v>
       </c>
-      <c r="W111" s="148">
-        <f>IFERROR(VLOOKUP(V111,AnsCTBL,2,FALSE),0)</f>
+      <c r="W111" s="148" cm="1">
+        <f t="array" aca="1" ref="W111" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X111" s="239">
-        <f>IFERROR(AVERAGE(W111,W115),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W111,W115),0)</f>
         <v>0</v>
       </c>
       <c r="Y111" s="405">
-        <f>SUM(X111:X113)</f>
+        <f ca="1">SUM(X111:X113)</f>
         <v>0</v>
       </c>
     </row>
@@ -42240,12 +42240,12 @@
         <f>Interview!F163</f>
         <v>0</v>
       </c>
-      <c r="G112" s="148">
-        <f>IFERROR(VLOOKUP(F112,AnsCTBL,2,FALSE),0)</f>
+      <c r="G112" s="148" cm="1">
+        <f t="array" aca="1" ref="G112" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H112" s="239">
-        <f>IFERROR(AVERAGE(G112,G116),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G112,G116),0)</f>
         <v>0</v>
       </c>
       <c r="I112" s="392"/>
@@ -42253,12 +42253,12 @@
         <f>F112</f>
         <v>0</v>
       </c>
-      <c r="K112" s="148">
-        <f>IFERROR(VLOOKUP(J112,AnsCTBL,2,FALSE),0)</f>
+      <c r="K112" s="148" cm="1">
+        <f t="array" aca="1" ref="K112" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L112" s="239">
-        <f>IFERROR(AVERAGE(K112,K116),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K112,K116),0)</f>
         <v>0</v>
       </c>
       <c r="M112" s="392"/>
@@ -42266,12 +42266,12 @@
         <f>J112</f>
         <v>0</v>
       </c>
-      <c r="O112" s="148">
-        <f>IFERROR(VLOOKUP(N112,AnsCTBL,2,FALSE),0)</f>
+      <c r="O112" s="148" cm="1">
+        <f t="array" aca="1" ref="O112" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P112" s="239">
-        <f>IFERROR(AVERAGE(O112,O116),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O112,O116),0)</f>
         <v>0</v>
       </c>
       <c r="Q112" s="392"/>
@@ -42279,12 +42279,12 @@
         <f>N112</f>
         <v>0</v>
       </c>
-      <c r="S112" s="148">
-        <f>IFERROR(VLOOKUP(R112,AnsCTBL,2,FALSE),0)</f>
+      <c r="S112" s="148" cm="1">
+        <f t="array" aca="1" ref="S112" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T112" s="239">
-        <f>IFERROR(AVERAGE(S112,S116),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S112,S116),0)</f>
         <v>0</v>
       </c>
       <c r="U112" s="392"/>
@@ -42292,12 +42292,12 @@
         <f>R112</f>
         <v>0</v>
       </c>
-      <c r="W112" s="148">
-        <f>IFERROR(VLOOKUP(V112,AnsCTBL,2,FALSE),0)</f>
+      <c r="W112" s="148" cm="1">
+        <f t="array" aca="1" ref="W112" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X112" s="239">
-        <f>IFERROR(AVERAGE(W112,W116),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W112,W116),0)</f>
         <v>0</v>
       </c>
       <c r="Y112" s="392"/>
@@ -42324,12 +42324,12 @@
         <f>Interview!F165</f>
         <v>0</v>
       </c>
-      <c r="G113" s="148">
-        <f>IFERROR(VLOOKUP(F113,AnsFTBL,2,FALSE),0)</f>
+      <c r="G113" s="148" cm="1">
+        <f t="array" aca="1" ref="G113" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H113" s="239">
-        <f>IFERROR(AVERAGE(G113,G117),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G113,G117),0)</f>
         <v>0</v>
       </c>
       <c r="I113" s="392"/>
@@ -42337,12 +42337,12 @@
         <f>F113</f>
         <v>0</v>
       </c>
-      <c r="K113" s="148">
-        <f>IFERROR(VLOOKUP(J113,AnsFTBL,2,FALSE),0)</f>
+      <c r="K113" s="148" cm="1">
+        <f t="array" aca="1" ref="K113" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L113" s="239">
-        <f>IFERROR(AVERAGE(K113,K117),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K113,K117),0)</f>
         <v>0</v>
       </c>
       <c r="M113" s="392"/>
@@ -42350,12 +42350,12 @@
         <f>J113</f>
         <v>0</v>
       </c>
-      <c r="O113" s="148">
-        <f>IFERROR(VLOOKUP(N113,AnsFTBL,2,FALSE),0)</f>
+      <c r="O113" s="148" cm="1">
+        <f t="array" aca="1" ref="O113" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P113" s="239">
-        <f>IFERROR(AVERAGE(O113,O117),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O113,O117),0)</f>
         <v>0</v>
       </c>
       <c r="Q113" s="392"/>
@@ -42363,12 +42363,12 @@
         <f>N113</f>
         <v>0</v>
       </c>
-      <c r="S113" s="148">
-        <f>IFERROR(VLOOKUP(R113,AnsFTBL,2,FALSE),0)</f>
+      <c r="S113" s="148" cm="1">
+        <f t="array" aca="1" ref="S113" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T113" s="239">
-        <f>IFERROR(AVERAGE(S113,S117),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S113,S117),0)</f>
         <v>0</v>
       </c>
       <c r="U113" s="392"/>
@@ -42376,12 +42376,12 @@
         <f>R113</f>
         <v>0</v>
       </c>
-      <c r="W113" s="148">
-        <f>IFERROR(VLOOKUP(V113,AnsFTBL,2,FALSE),0)</f>
+      <c r="W113" s="148" cm="1">
+        <f t="array" aca="1" ref="W113" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X113" s="239">
-        <f>IFERROR(AVERAGE(W113,W117),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W113,W117),0)</f>
         <v>0</v>
       </c>
       <c r="Y113" s="392"/>
@@ -42438,8 +42438,8 @@
         <f>Interview!F168</f>
         <v>0</v>
       </c>
-      <c r="G115" s="148">
-        <f>IFERROR(VLOOKUP(F115,AnsFTBL,2,FALSE),0)</f>
+      <c r="G115" s="148" cm="1">
+        <f t="array" aca="1" ref="G115" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H115" s="122"/>
@@ -42448,8 +42448,8 @@
         <f>F115</f>
         <v>0</v>
       </c>
-      <c r="K115" s="148">
-        <f>IFERROR(VLOOKUP(J115,AnsFTBL,2,FALSE),0)</f>
+      <c r="K115" s="148" cm="1">
+        <f t="array" aca="1" ref="K115" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L115" s="122"/>
@@ -42458,8 +42458,8 @@
         <f>J115</f>
         <v>0</v>
       </c>
-      <c r="O115" s="148">
-        <f>IFERROR(VLOOKUP(N115,AnsFTBL,2,FALSE),0)</f>
+      <c r="O115" s="148" cm="1">
+        <f t="array" aca="1" ref="O115" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P115" s="122"/>
@@ -42468,8 +42468,8 @@
         <f>N115</f>
         <v>0</v>
       </c>
-      <c r="S115" s="148">
-        <f>IFERROR(VLOOKUP(R115,AnsFTBL,2,FALSE),0)</f>
+      <c r="S115" s="148" cm="1">
+        <f t="array" aca="1" ref="S115" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T115" s="122"/>
@@ -42478,8 +42478,8 @@
         <f>R115</f>
         <v>0</v>
       </c>
-      <c r="W115" s="148">
-        <f>IFERROR(VLOOKUP(V115,AnsFTBL,2,FALSE),0)</f>
+      <c r="W115" s="148" cm="1">
+        <f t="array" aca="1" ref="W115" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X115" s="122"/>
@@ -42507,8 +42507,8 @@
         <f>Interview!F170</f>
         <v>0</v>
       </c>
-      <c r="G116" s="148">
-        <f>IFERROR(VLOOKUP(F116,AnsHTBL,2,FALSE),0)</f>
+      <c r="G116" s="148" cm="1">
+        <f t="array" aca="1" ref="G116" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H116" s="122"/>
@@ -42517,8 +42517,8 @@
         <f>F116</f>
         <v>0</v>
       </c>
-      <c r="K116" s="148">
-        <f>IFERROR(VLOOKUP(J116,AnsHTBL,2,FALSE),0)</f>
+      <c r="K116" s="148" cm="1">
+        <f t="array" aca="1" ref="K116" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L116" s="122"/>
@@ -42527,8 +42527,8 @@
         <f>J116</f>
         <v>0</v>
       </c>
-      <c r="O116" s="148">
-        <f>IFERROR(VLOOKUP(N116,AnsHTBL,2,FALSE),0)</f>
+      <c r="O116" s="148" cm="1">
+        <f t="array" aca="1" ref="O116" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P116" s="122"/>
@@ -42537,8 +42537,8 @@
         <f>N116</f>
         <v>0</v>
       </c>
-      <c r="S116" s="148">
-        <f>IFERROR(VLOOKUP(R116,AnsHTBL,2,FALSE),0)</f>
+      <c r="S116" s="148" cm="1">
+        <f t="array" aca="1" ref="S116" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T116" s="122"/>
@@ -42547,8 +42547,8 @@
         <f>R116</f>
         <v>0</v>
       </c>
-      <c r="W116" s="148">
-        <f>IFERROR(VLOOKUP(V116,AnsHTBL,2,FALSE),0)</f>
+      <c r="W116" s="148" cm="1">
+        <f t="array" aca="1" ref="W116" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X116" s="122"/>
@@ -42576,8 +42576,8 @@
         <f>Interview!F172</f>
         <v>0</v>
       </c>
-      <c r="G117" s="148">
-        <f>IFERROR(VLOOKUP(F117,AnsHTBL,2,FALSE),0)</f>
+      <c r="G117" s="148" cm="1">
+        <f t="array" aca="1" ref="G117" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H117" s="122"/>
@@ -42586,8 +42586,8 @@
         <f>F117</f>
         <v>0</v>
       </c>
-      <c r="K117" s="148">
-        <f>IFERROR(VLOOKUP(J117,AnsHTBL,2,FALSE),0)</f>
+      <c r="K117" s="148" cm="1">
+        <f t="array" aca="1" ref="K117" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L117" s="122"/>
@@ -42596,8 +42596,8 @@
         <f>J117</f>
         <v>0</v>
       </c>
-      <c r="O117" s="148">
-        <f>IFERROR(VLOOKUP(N117,AnsHTBL,2,FALSE),0)</f>
+      <c r="O117" s="148" cm="1">
+        <f t="array" aca="1" ref="O117" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P117" s="122"/>
@@ -42606,8 +42606,8 @@
         <f>N117</f>
         <v>0</v>
       </c>
-      <c r="S117" s="148">
-        <f>IFERROR(VLOOKUP(R117,AnsHTBL,2,FALSE),0)</f>
+      <c r="S117" s="148" cm="1">
+        <f t="array" aca="1" ref="S117" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T117" s="122"/>
@@ -42616,8 +42616,8 @@
         <f>R117</f>
         <v>0</v>
       </c>
-      <c r="W117" s="148">
-        <f>IFERROR(VLOOKUP(V117,AnsHTBL,2,FALSE),0)</f>
+      <c r="W117" s="148" cm="1">
+        <f t="array" aca="1" ref="W117" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X117" s="122"/>
@@ -42728,80 +42728,80 @@
         <f>Interview!F175</f>
         <v>0</v>
       </c>
-      <c r="G120" s="148">
-        <f>IFERROR(VLOOKUP(F120,AnsCTBL,2,FALSE),0)</f>
+      <c r="G120" s="148" cm="1">
+        <f t="array" aca="1" ref="G120" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H120" s="239">
-        <f>IFERROR(AVERAGE(G120,G124),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G120,G124),0)</f>
         <v>0</v>
       </c>
       <c r="I120" s="406">
-        <f>SUM(H120:H122)</f>
+        <f ca="1">SUM(H120:H122)</f>
         <v>0</v>
       </c>
       <c r="J120" s="244">
         <f>F120</f>
         <v>0</v>
       </c>
-      <c r="K120" s="148">
-        <f>IFERROR(VLOOKUP(J120,AnsCTBL,2,FALSE),0)</f>
+      <c r="K120" s="148" cm="1">
+        <f t="array" aca="1" ref="K120" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L120" s="239">
-        <f>IFERROR(AVERAGE(K120,K124),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K120,K124),0)</f>
         <v>0</v>
       </c>
       <c r="M120" s="406">
-        <f>SUM(L120:L122)</f>
+        <f ca="1">SUM(L120:L122)</f>
         <v>0</v>
       </c>
       <c r="N120" s="244">
         <f>J120</f>
         <v>0</v>
       </c>
-      <c r="O120" s="148">
-        <f>IFERROR(VLOOKUP(N120,AnsCTBL,2,FALSE),0)</f>
+      <c r="O120" s="148" cm="1">
+        <f t="array" aca="1" ref="O120" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P120" s="239">
-        <f>IFERROR(AVERAGE(O120,O124),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O120,O124),0)</f>
         <v>0</v>
       </c>
       <c r="Q120" s="406">
-        <f>SUM(P120:P122)</f>
+        <f ca="1">SUM(P120:P122)</f>
         <v>0</v>
       </c>
       <c r="R120" s="244">
         <f>N120</f>
         <v>0</v>
       </c>
-      <c r="S120" s="148">
-        <f>IFERROR(VLOOKUP(R120,AnsCTBL,2,FALSE),0)</f>
+      <c r="S120" s="148" cm="1">
+        <f t="array" aca="1" ref="S120" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T120" s="239">
-        <f>IFERROR(AVERAGE(S120,S124),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S120,S124),0)</f>
         <v>0</v>
       </c>
       <c r="U120" s="406">
-        <f>SUM(T120:T122)</f>
+        <f ca="1">SUM(T120:T122)</f>
         <v>0</v>
       </c>
       <c r="V120" s="244">
         <f>R120</f>
         <v>0</v>
       </c>
-      <c r="W120" s="148">
-        <f>IFERROR(VLOOKUP(V120,AnsCTBL,2,FALSE),0)</f>
+      <c r="W120" s="148" cm="1">
+        <f t="array" aca="1" ref="W120" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X120" s="239">
-        <f>IFERROR(AVERAGE(W120,W124),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W120,W124),0)</f>
         <v>0</v>
       </c>
       <c r="Y120" s="406">
-        <f>SUM(X120:X122)</f>
+        <f ca="1">SUM(X120:X122)</f>
         <v>0</v>
       </c>
     </row>
@@ -42827,12 +42827,12 @@
         <f>Interview!F177</f>
         <v>0</v>
       </c>
-      <c r="G121" s="148">
-        <f>IFERROR(VLOOKUP(F121,AnsCTBL,2,FALSE),0)</f>
+      <c r="G121" s="148" cm="1">
+        <f t="array" aca="1" ref="G121" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H121" s="239">
-        <f>IFERROR(AVERAGE(G121,G125),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G121,G125),0)</f>
         <v>0</v>
       </c>
       <c r="I121" s="392"/>
@@ -42840,12 +42840,12 @@
         <f>F121</f>
         <v>0</v>
       </c>
-      <c r="K121" s="148">
-        <f>IFERROR(VLOOKUP(J121,AnsCTBL,2,FALSE),0)</f>
+      <c r="K121" s="148" cm="1">
+        <f t="array" aca="1" ref="K121" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L121" s="239">
-        <f>IFERROR(AVERAGE(K121,K125),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K121,K125),0)</f>
         <v>0</v>
       </c>
       <c r="M121" s="392"/>
@@ -42853,12 +42853,12 @@
         <f>J121</f>
         <v>0</v>
       </c>
-      <c r="O121" s="148">
-        <f>IFERROR(VLOOKUP(N121,AnsCTBL,2,FALSE),0)</f>
+      <c r="O121" s="148" cm="1">
+        <f t="array" aca="1" ref="O121" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P121" s="239">
-        <f>IFERROR(AVERAGE(O121,O125),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O121,O125),0)</f>
         <v>0</v>
       </c>
       <c r="Q121" s="392"/>
@@ -42866,12 +42866,12 @@
         <f>N121</f>
         <v>0</v>
       </c>
-      <c r="S121" s="148">
-        <f>IFERROR(VLOOKUP(R121,AnsCTBL,2,FALSE),0)</f>
+      <c r="S121" s="148" cm="1">
+        <f t="array" aca="1" ref="S121" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T121" s="239">
-        <f>IFERROR(AVERAGE(S121,S125),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S121,S125),0)</f>
         <v>0</v>
       </c>
       <c r="U121" s="392"/>
@@ -42879,12 +42879,12 @@
         <f>R121</f>
         <v>0</v>
       </c>
-      <c r="W121" s="148">
-        <f>IFERROR(VLOOKUP(V121,AnsCTBL,2,FALSE),0)</f>
+      <c r="W121" s="148" cm="1">
+        <f t="array" aca="1" ref="W121" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X121" s="239">
-        <f>IFERROR(AVERAGE(W121,W125),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W121,W125),0)</f>
         <v>0</v>
       </c>
       <c r="Y121" s="392"/>
@@ -42911,12 +42911,12 @@
         <f>Interview!F179</f>
         <v>0</v>
       </c>
-      <c r="G122" s="148">
-        <f>IFERROR(VLOOKUP(F122,AnsXTBL,2,FALSE),0)</f>
+      <c r="G122" s="148" cm="1">
+        <f t="array" aca="1" ref="G122" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H122" s="239">
-        <f>IFERROR(AVERAGE(G122,G126),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G122,G126),0)</f>
         <v>0</v>
       </c>
       <c r="I122" s="392"/>
@@ -42924,12 +42924,12 @@
         <f>F122</f>
         <v>0</v>
       </c>
-      <c r="K122" s="148">
-        <f>IFERROR(VLOOKUP(J122,AnsXTBL,2,FALSE),0)</f>
+      <c r="K122" s="148" cm="1">
+        <f t="array" aca="1" ref="K122" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L122" s="239">
-        <f>IFERROR(AVERAGE(K122,K126),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K122,K126),0)</f>
         <v>0</v>
       </c>
       <c r="M122" s="392"/>
@@ -42937,12 +42937,12 @@
         <f>J122</f>
         <v>0</v>
       </c>
-      <c r="O122" s="148">
-        <f>IFERROR(VLOOKUP(N122,AnsXTBL,2,FALSE),0)</f>
+      <c r="O122" s="148" cm="1">
+        <f t="array" aca="1" ref="O122" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P122" s="239">
-        <f>IFERROR(AVERAGE(O122,O126),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O122,O126),0)</f>
         <v>0</v>
       </c>
       <c r="Q122" s="392"/>
@@ -42950,12 +42950,12 @@
         <f>N122</f>
         <v>0</v>
       </c>
-      <c r="S122" s="148">
-        <f>IFERROR(VLOOKUP(R122,AnsXTBL,2,FALSE),0)</f>
+      <c r="S122" s="148" cm="1">
+        <f t="array" aca="1" ref="S122" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T122" s="239">
-        <f>IFERROR(AVERAGE(S122,S126),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S122,S126),0)</f>
         <v>0</v>
       </c>
       <c r="U122" s="392"/>
@@ -42963,12 +42963,12 @@
         <f>R122</f>
         <v>0</v>
       </c>
-      <c r="W122" s="148">
-        <f>IFERROR(VLOOKUP(V122,AnsXTBL,2,FALSE),0)</f>
+      <c r="W122" s="148" cm="1">
+        <f t="array" aca="1" ref="W122" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X122" s="239">
-        <f>IFERROR(AVERAGE(W122,W126),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W122,W126),0)</f>
         <v>0</v>
       </c>
       <c r="Y122" s="392"/>
@@ -43025,8 +43025,8 @@
         <f>Interview!F182</f>
         <v>0</v>
       </c>
-      <c r="G124" s="148">
-        <f>IFERROR(VLOOKUP(F124,AnsMTBL,2,FALSE),0)</f>
+      <c r="G124" s="148" cm="1">
+        <f t="array" aca="1" ref="G124" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H124" s="122"/>
@@ -43035,8 +43035,8 @@
         <f>F124</f>
         <v>0</v>
       </c>
-      <c r="K124" s="148">
-        <f>IFERROR(VLOOKUP(J124,AnsMTBL,2,FALSE),0)</f>
+      <c r="K124" s="148" cm="1">
+        <f t="array" aca="1" ref="K124" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L124" s="122"/>
@@ -43045,8 +43045,8 @@
         <f>J124</f>
         <v>0</v>
       </c>
-      <c r="O124" s="148">
-        <f>IFERROR(VLOOKUP(N124,AnsMTBL,2,FALSE),0)</f>
+      <c r="O124" s="148" cm="1">
+        <f t="array" aca="1" ref="O124" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P124" s="122"/>
@@ -43055,8 +43055,8 @@
         <f>N124</f>
         <v>0</v>
       </c>
-      <c r="S124" s="148">
-        <f>IFERROR(VLOOKUP(R124,AnsMTBL,2,FALSE),0)</f>
+      <c r="S124" s="148" cm="1">
+        <f t="array" aca="1" ref="S124" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T124" s="122"/>
@@ -43065,8 +43065,8 @@
         <f>R124</f>
         <v>0</v>
       </c>
-      <c r="W124" s="148">
-        <f>IFERROR(VLOOKUP(V124,AnsMTBL,2,FALSE),0)</f>
+      <c r="W124" s="148" cm="1">
+        <f t="array" aca="1" ref="W124" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X124" s="122"/>
@@ -43094,8 +43094,8 @@
         <f>Interview!F184</f>
         <v>0</v>
       </c>
-      <c r="G125" s="148">
-        <f>IFERROR(VLOOKUP(F125,AnsFTBL,2,FALSE),0)</f>
+      <c r="G125" s="148" cm="1">
+        <f t="array" aca="1" ref="G125" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H125" s="122"/>
@@ -43104,8 +43104,8 @@
         <f>F125</f>
         <v>0</v>
       </c>
-      <c r="K125" s="148">
-        <f>IFERROR(VLOOKUP(J125,AnsFTBL,2,FALSE),0)</f>
+      <c r="K125" s="148" cm="1">
+        <f t="array" aca="1" ref="K125" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L125" s="122"/>
@@ -43114,8 +43114,8 @@
         <f>J125</f>
         <v>0</v>
       </c>
-      <c r="O125" s="148">
-        <f>IFERROR(VLOOKUP(N125,AnsFTBL,2,FALSE),0)</f>
+      <c r="O125" s="148" cm="1">
+        <f t="array" aca="1" ref="O125" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P125" s="122"/>
@@ -43124,8 +43124,8 @@
         <f>N125</f>
         <v>0</v>
       </c>
-      <c r="S125" s="148">
-        <f>IFERROR(VLOOKUP(R125,AnsFTBL,2,FALSE),0)</f>
+      <c r="S125" s="148" cm="1">
+        <f t="array" aca="1" ref="S125" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T125" s="122"/>
@@ -43134,8 +43134,8 @@
         <f>R125</f>
         <v>0</v>
       </c>
-      <c r="W125" s="148">
-        <f>IFERROR(VLOOKUP(V125,AnsFTBL,2,FALSE),0)</f>
+      <c r="W125" s="148" cm="1">
+        <f t="array" aca="1" ref="W125" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X125" s="122"/>
@@ -43163,8 +43163,8 @@
         <f>Interview!F186</f>
         <v>0</v>
       </c>
-      <c r="G126" s="148">
-        <f>IFERROR(VLOOKUP(F126,AnsTTBL,2,FALSE),0)</f>
+      <c r="G126" s="148" cm="1">
+        <f t="array" aca="1" ref="G126" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H126" s="122"/>
@@ -43173,8 +43173,8 @@
         <f>F126</f>
         <v>0</v>
       </c>
-      <c r="K126" s="148">
-        <f>IFERROR(VLOOKUP(J126,AnsTTBL,2,FALSE),0)</f>
+      <c r="K126" s="148" cm="1">
+        <f t="array" aca="1" ref="K126" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L126" s="122"/>
@@ -43183,8 +43183,8 @@
         <f>J126</f>
         <v>0</v>
       </c>
-      <c r="O126" s="148">
-        <f>IFERROR(VLOOKUP(N126,AnsTTBL,2,FALSE),0)</f>
+      <c r="O126" s="148" cm="1">
+        <f t="array" aca="1" ref="O126" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P126" s="122"/>
@@ -43193,8 +43193,8 @@
         <f>N126</f>
         <v>0</v>
       </c>
-      <c r="S126" s="148">
-        <f>IFERROR(VLOOKUP(R126,AnsTTBL,2,FALSE),0)</f>
+      <c r="S126" s="148" cm="1">
+        <f t="array" aca="1" ref="S126" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T126" s="122"/>
@@ -43203,8 +43203,8 @@
         <f>R126</f>
         <v>0</v>
       </c>
-      <c r="W126" s="148">
-        <f>IFERROR(VLOOKUP(V126,AnsTTBL,2,FALSE),0)</f>
+      <c r="W126" s="148" cm="1">
+        <f t="array" aca="1" ref="W126" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X126" s="122"/>
@@ -43354,80 +43354,80 @@
         <f>Interview!F190</f>
         <v>0</v>
       </c>
-      <c r="G130" s="148">
-        <f>IFERROR(VLOOKUP(F130,AnsFTBL,2,FALSE),0)</f>
+      <c r="G130" s="148" cm="1">
+        <f t="array" aca="1" ref="G130" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H130" s="239">
-        <f>IFERROR(AVERAGE(G130,G134),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G130,G134),0)</f>
         <v>0</v>
       </c>
       <c r="I130" s="391">
-        <f>SUM(H130:H132)</f>
+        <f ca="1">SUM(H130:H132)</f>
         <v>0</v>
       </c>
       <c r="J130" s="244">
         <f t="shared" ref="J130:J131" si="12">F130</f>
         <v>0</v>
       </c>
-      <c r="K130" s="148">
-        <f>IFERROR(VLOOKUP(J130,AnsFTBL,2,FALSE),0)</f>
+      <c r="K130" s="148" cm="1">
+        <f t="array" aca="1" ref="K130" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L130" s="239">
-        <f>IFERROR(AVERAGE(K130,K134),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K130,K134),0)</f>
         <v>0</v>
       </c>
       <c r="M130" s="391">
-        <f>SUM(L130:L132)</f>
+        <f ca="1">SUM(L130:L132)</f>
         <v>0</v>
       </c>
       <c r="N130" s="244">
         <f>J130</f>
         <v>0</v>
       </c>
-      <c r="O130" s="148">
-        <f>IFERROR(VLOOKUP(N130,AnsFTBL,2,FALSE),0)</f>
+      <c r="O130" s="148" cm="1">
+        <f t="array" aca="1" ref="O130" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P130" s="239">
-        <f>IFERROR(AVERAGE(O130,O134),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O130,O134),0)</f>
         <v>0</v>
       </c>
       <c r="Q130" s="391">
-        <f>SUM(P130:P132)</f>
+        <f ca="1">SUM(P130:P132)</f>
         <v>0</v>
       </c>
       <c r="R130" s="244">
         <f>N130</f>
         <v>0</v>
       </c>
-      <c r="S130" s="148">
-        <f>IFERROR(VLOOKUP(R130,AnsFTBL,2,FALSE),0)</f>
+      <c r="S130" s="148" cm="1">
+        <f t="array" aca="1" ref="S130" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T130" s="239">
-        <f>IFERROR(AVERAGE(S130,S134),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S130,S134),0)</f>
         <v>0</v>
       </c>
       <c r="U130" s="391">
-        <f>SUM(T130:T132)</f>
+        <f ca="1">SUM(T130:T132)</f>
         <v>0</v>
       </c>
       <c r="V130" s="244">
         <f>R130</f>
         <v>0</v>
       </c>
-      <c r="W130" s="148">
-        <f>IFERROR(VLOOKUP(V130,AnsFTBL,2,FALSE),0)</f>
+      <c r="W130" s="148" cm="1">
+        <f t="array" aca="1" ref="W130" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X130" s="239">
-        <f>IFERROR(AVERAGE(W130,W134),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W130,W134),0)</f>
         <v>0</v>
       </c>
       <c r="Y130" s="391">
-        <f>SUM(X130:X132)</f>
+        <f ca="1">SUM(X130:X132)</f>
         <v>0</v>
       </c>
     </row>
@@ -43453,12 +43453,12 @@
         <f>Interview!F192</f>
         <v>0</v>
       </c>
-      <c r="G131" s="148">
-        <f>IFERROR(VLOOKUP(F131,AnsFTBL,2,FALSE),0)</f>
+      <c r="G131" s="148" cm="1">
+        <f t="array" aca="1" ref="G131" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H131" s="239">
-        <f>IFERROR(AVERAGE(G131,G135),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G131,G135),0)</f>
         <v>0</v>
       </c>
       <c r="I131" s="392"/>
@@ -43466,12 +43466,12 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K131" s="148">
-        <f>IFERROR(VLOOKUP(J131,AnsFTBL,2,FALSE),0)</f>
+      <c r="K131" s="148" cm="1">
+        <f t="array" aca="1" ref="K131" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L131" s="239">
-        <f>IFERROR(AVERAGE(K131,K135),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K131,K135),0)</f>
         <v>0</v>
       </c>
       <c r="M131" s="392"/>
@@ -43479,12 +43479,12 @@
         <f>J131</f>
         <v>0</v>
       </c>
-      <c r="O131" s="148">
-        <f>IFERROR(VLOOKUP(N131,AnsFTBL,2,FALSE),0)</f>
+      <c r="O131" s="148" cm="1">
+        <f t="array" aca="1" ref="O131" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P131" s="239">
-        <f>IFERROR(AVERAGE(O131,O135),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O131,O135),0)</f>
         <v>0</v>
       </c>
       <c r="Q131" s="392"/>
@@ -43492,12 +43492,12 @@
         <f>N131</f>
         <v>0</v>
       </c>
-      <c r="S131" s="148">
-        <f>IFERROR(VLOOKUP(R131,AnsFTBL,2,FALSE),0)</f>
+      <c r="S131" s="148" cm="1">
+        <f t="array" aca="1" ref="S131" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T131" s="239">
-        <f>IFERROR(AVERAGE(S131,S135),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S131,S135),0)</f>
         <v>0</v>
       </c>
       <c r="U131" s="392"/>
@@ -43505,12 +43505,12 @@
         <f>R131</f>
         <v>0</v>
       </c>
-      <c r="W131" s="148">
-        <f>IFERROR(VLOOKUP(V131,AnsFTBL,2,FALSE),0)</f>
+      <c r="W131" s="148" cm="1">
+        <f t="array" aca="1" ref="W131" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X131" s="239">
-        <f>IFERROR(AVERAGE(W131,W135),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W131,W135),0)</f>
         <v>0</v>
       </c>
       <c r="Y131" s="392"/>
@@ -43537,12 +43537,12 @@
         <f>Interview!F194</f>
         <v>0</v>
       </c>
-      <c r="G132" s="148">
-        <f>IFERROR(VLOOKUP(F132,AnsFTBL,2,FALSE),0)</f>
+      <c r="G132" s="148" cm="1">
+        <f t="array" aca="1" ref="G132" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H132" s="239">
-        <f>IFERROR(AVERAGE(G132,G136),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G132,G136),0)</f>
         <v>0</v>
       </c>
       <c r="I132" s="392"/>
@@ -43550,12 +43550,12 @@
         <f>F132</f>
         <v>0</v>
       </c>
-      <c r="K132" s="148">
-        <f>IFERROR(VLOOKUP(J132,AnsFTBL,2,FALSE),0)</f>
+      <c r="K132" s="148" cm="1">
+        <f t="array" aca="1" ref="K132" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L132" s="239">
-        <f>IFERROR(AVERAGE(K132,K136),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K132,K136),0)</f>
         <v>0</v>
       </c>
       <c r="M132" s="392"/>
@@ -43563,12 +43563,12 @@
         <f>J132</f>
         <v>0</v>
       </c>
-      <c r="O132" s="148">
-        <f>IFERROR(VLOOKUP(N132,AnsFTBL,2,FALSE),0)</f>
+      <c r="O132" s="148" cm="1">
+        <f t="array" aca="1" ref="O132" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P132" s="239">
-        <f>IFERROR(AVERAGE(O132,O136),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O132,O136),0)</f>
         <v>0</v>
       </c>
       <c r="Q132" s="392"/>
@@ -43576,12 +43576,12 @@
         <f>N132</f>
         <v>0</v>
       </c>
-      <c r="S132" s="148">
-        <f>IFERROR(VLOOKUP(R132,AnsFTBL,2,FALSE),0)</f>
+      <c r="S132" s="148" cm="1">
+        <f t="array" aca="1" ref="S132" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T132" s="239">
-        <f>IFERROR(AVERAGE(S132,S136),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S132,S136),0)</f>
         <v>0</v>
       </c>
       <c r="U132" s="392"/>
@@ -43589,12 +43589,12 @@
         <f>R132</f>
         <v>0</v>
       </c>
-      <c r="W132" s="148">
-        <f>IFERROR(VLOOKUP(V132,AnsFTBL,2,FALSE),0)</f>
+      <c r="W132" s="148" cm="1">
+        <f t="array" aca="1" ref="W132" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X132" s="239">
-        <f>IFERROR(AVERAGE(W132,W136),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W132,W136),0)</f>
         <v>0</v>
       </c>
       <c r="Y132" s="392"/>
@@ -43651,8 +43651,8 @@
         <f>Interview!F197</f>
         <v>0</v>
       </c>
-      <c r="G134" s="148">
-        <f>IFERROR(VLOOKUP(F134,AnsRTBL,2,FALSE),0)</f>
+      <c r="G134" s="148" cm="1">
+        <f t="array" aca="1" ref="G134" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H134" s="122"/>
@@ -43661,8 +43661,8 @@
         <f>F134</f>
         <v>0</v>
       </c>
-      <c r="K134" s="148">
-        <f>IFERROR(VLOOKUP(J134,AnsRTBL,2,FALSE),0)</f>
+      <c r="K134" s="148" cm="1">
+        <f t="array" aca="1" ref="K134" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L134" s="122"/>
@@ -43671,8 +43671,8 @@
         <f>J134</f>
         <v>0</v>
       </c>
-      <c r="O134" s="148">
-        <f>IFERROR(VLOOKUP(N134,AnsRTBL,2,FALSE),0)</f>
+      <c r="O134" s="148" cm="1">
+        <f t="array" aca="1" ref="O134" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P134" s="122"/>
@@ -43681,8 +43681,8 @@
         <f>N134</f>
         <v>0</v>
       </c>
-      <c r="S134" s="148">
-        <f>IFERROR(VLOOKUP(R134,AnsRTBL,2,FALSE),0)</f>
+      <c r="S134" s="148" cm="1">
+        <f t="array" aca="1" ref="S134" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T134" s="122"/>
@@ -43691,8 +43691,8 @@
         <f>R134</f>
         <v>0</v>
       </c>
-      <c r="W134" s="148">
-        <f>IFERROR(VLOOKUP(V134,AnsRTBL,2,FALSE),0)</f>
+      <c r="W134" s="148" cm="1">
+        <f t="array" aca="1" ref="W134" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X134" s="122"/>
@@ -43720,8 +43720,8 @@
         <f>Interview!F199</f>
         <v>0</v>
       </c>
-      <c r="G135" s="148">
-        <f>IFERROR(VLOOKUP(F135,AnsQTBL,2,FALSE),0)</f>
+      <c r="G135" s="148" cm="1">
+        <f t="array" aca="1" ref="G135" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H135" s="122"/>
@@ -43730,8 +43730,8 @@
         <f>F135</f>
         <v>0</v>
       </c>
-      <c r="K135" s="148">
-        <f>IFERROR(VLOOKUP(J135,AnsQTBL,2,FALSE),0)</f>
+      <c r="K135" s="148" cm="1">
+        <f t="array" aca="1" ref="K135" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L135" s="122"/>
@@ -43740,8 +43740,8 @@
         <f>J135</f>
         <v>0</v>
       </c>
-      <c r="O135" s="148">
-        <f>IFERROR(VLOOKUP(N135,AnsQTBL,2,FALSE),0)</f>
+      <c r="O135" s="148" cm="1">
+        <f t="array" aca="1" ref="O135" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P135" s="122"/>
@@ -43750,8 +43750,8 @@
         <f>N135</f>
         <v>0</v>
       </c>
-      <c r="S135" s="148">
-        <f>IFERROR(VLOOKUP(R135,AnsQTBL,2,FALSE),0)</f>
+      <c r="S135" s="148" cm="1">
+        <f t="array" aca="1" ref="S135" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T135" s="122"/>
@@ -43760,8 +43760,8 @@
         <f>R135</f>
         <v>0</v>
       </c>
-      <c r="W135" s="148">
-        <f>IFERROR(VLOOKUP(V135,AnsQTBL,2,FALSE),0)</f>
+      <c r="W135" s="148" cm="1">
+        <f t="array" aca="1" ref="W135" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X135" s="122"/>
@@ -43789,8 +43789,8 @@
         <f>Interview!F201</f>
         <v>0</v>
       </c>
-      <c r="G136" s="148">
-        <f>IFERROR(VLOOKUP(F136,AnsHTBL,2,FALSE),0)</f>
+      <c r="G136" s="148" cm="1">
+        <f t="array" aca="1" ref="G136" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H136" s="122"/>
@@ -43799,8 +43799,8 @@
         <f>F136</f>
         <v>0</v>
       </c>
-      <c r="K136" s="148">
-        <f>IFERROR(VLOOKUP(J136,AnsHTBL,2,FALSE),0)</f>
+      <c r="K136" s="148" cm="1">
+        <f t="array" aca="1" ref="K136" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L136" s="122"/>
@@ -43809,8 +43809,8 @@
         <f>J136</f>
         <v>0</v>
       </c>
-      <c r="O136" s="148">
-        <f>IFERROR(VLOOKUP(N136,AnsHTBL,2,FALSE),0)</f>
+      <c r="O136" s="148" cm="1">
+        <f t="array" aca="1" ref="O136" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P136" s="122"/>
@@ -43819,8 +43819,8 @@
         <f>N136</f>
         <v>0</v>
       </c>
-      <c r="S136" s="148">
-        <f>IFERROR(VLOOKUP(R136,AnsHTBL,2,FALSE),0)</f>
+      <c r="S136" s="148" cm="1">
+        <f t="array" aca="1" ref="S136" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T136" s="122"/>
@@ -43829,8 +43829,8 @@
         <f>R136</f>
         <v>0</v>
       </c>
-      <c r="W136" s="148">
-        <f>IFERROR(VLOOKUP(V136,AnsHTBL,2,FALSE),0)</f>
+      <c r="W136" s="148" cm="1">
+        <f t="array" aca="1" ref="W136" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X136" s="122"/>
@@ -43941,80 +43941,80 @@
         <f>Interview!F204</f>
         <v>0</v>
       </c>
-      <c r="G139" s="148">
-        <f>IFERROR(VLOOKUP(F139,AnsMTBL,2,FALSE),0)</f>
+      <c r="G139" s="148" cm="1">
+        <f t="array" aca="1" ref="G139" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H139" s="239">
-        <f>IFERROR(AVERAGE(G139,G143),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G139,G143),0)</f>
         <v>0</v>
       </c>
       <c r="I139" s="391">
-        <f>SUM(H139:H141)</f>
+        <f ca="1">SUM(H139:H141)</f>
         <v>0</v>
       </c>
       <c r="J139" s="244">
         <f>F139</f>
         <v>0</v>
       </c>
-      <c r="K139" s="148">
-        <f>IFERROR(VLOOKUP(J139,AnsMTBL,2,FALSE),0)</f>
+      <c r="K139" s="148" cm="1">
+        <f t="array" aca="1" ref="K139" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L139" s="239">
-        <f>IFERROR(AVERAGE(K139,K143),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K139,K143),0)</f>
         <v>0</v>
       </c>
       <c r="M139" s="391">
-        <f>SUM(L139:L141)</f>
+        <f ca="1">SUM(L139:L141)</f>
         <v>0</v>
       </c>
       <c r="N139" s="244">
         <f>J139</f>
         <v>0</v>
       </c>
-      <c r="O139" s="148">
-        <f>IFERROR(VLOOKUP(N139,AnsMTBL,2,FALSE),0)</f>
+      <c r="O139" s="148" cm="1">
+        <f t="array" aca="1" ref="O139" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P139" s="239">
-        <f>IFERROR(AVERAGE(O139,O143),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O139,O143),0)</f>
         <v>0</v>
       </c>
       <c r="Q139" s="391">
-        <f>SUM(P139:P141)</f>
+        <f ca="1">SUM(P139:P141)</f>
         <v>0</v>
       </c>
       <c r="R139" s="244">
         <f>N139</f>
         <v>0</v>
       </c>
-      <c r="S139" s="148">
-        <f>IFERROR(VLOOKUP(R139,AnsMTBL,2,FALSE),0)</f>
+      <c r="S139" s="148" cm="1">
+        <f t="array" aca="1" ref="S139" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T139" s="239">
-        <f>IFERROR(AVERAGE(S139,S143),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S139,S143),0)</f>
         <v>0</v>
       </c>
       <c r="U139" s="391">
-        <f>SUM(T139:T141)</f>
+        <f ca="1">SUM(T139:T141)</f>
         <v>0</v>
       </c>
       <c r="V139" s="244">
         <f>R139</f>
         <v>0</v>
       </c>
-      <c r="W139" s="148">
-        <f>IFERROR(VLOOKUP(V139,AnsMTBL,2,FALSE),0)</f>
+      <c r="W139" s="148" cm="1">
+        <f t="array" aca="1" ref="W139" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X139" s="239">
-        <f>IFERROR(AVERAGE(W139,W143),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W139,W143),0)</f>
         <v>0</v>
       </c>
       <c r="Y139" s="391">
-        <f>SUM(X139:X141)</f>
+        <f ca="1">SUM(X139:X141)</f>
         <v>0</v>
       </c>
     </row>
@@ -44040,12 +44040,12 @@
         <f>Interview!F206</f>
         <v>0</v>
       </c>
-      <c r="G140" s="148">
-        <f>IFERROR(VLOOKUP(F140,AnsMTBL,2,FALSE),0)</f>
+      <c r="G140" s="148" cm="1">
+        <f t="array" aca="1" ref="G140" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H140" s="239">
-        <f>IFERROR(AVERAGE(G140,G144),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G140,G144),0)</f>
         <v>0</v>
       </c>
       <c r="I140" s="392"/>
@@ -44053,12 +44053,12 @@
         <f>F140</f>
         <v>0</v>
       </c>
-      <c r="K140" s="148">
-        <f>IFERROR(VLOOKUP(J140,AnsMTBL,2,FALSE),0)</f>
+      <c r="K140" s="148" cm="1">
+        <f t="array" aca="1" ref="K140" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L140" s="239">
-        <f>IFERROR(AVERAGE(K140,K144),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K140,K144),0)</f>
         <v>0</v>
       </c>
       <c r="M140" s="392"/>
@@ -44066,12 +44066,12 @@
         <f>J140</f>
         <v>0</v>
       </c>
-      <c r="O140" s="148">
-        <f>IFERROR(VLOOKUP(N140,AnsMTBL,2,FALSE),0)</f>
+      <c r="O140" s="148" cm="1">
+        <f t="array" aca="1" ref="O140" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P140" s="239">
-        <f>IFERROR(AVERAGE(O140,O144),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O140,O144),0)</f>
         <v>0</v>
       </c>
       <c r="Q140" s="392"/>
@@ -44079,12 +44079,12 @@
         <f>N140</f>
         <v>0</v>
       </c>
-      <c r="S140" s="148">
-        <f>IFERROR(VLOOKUP(R140,AnsMTBL,2,FALSE),0)</f>
+      <c r="S140" s="148" cm="1">
+        <f t="array" aca="1" ref="S140" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T140" s="239">
-        <f>IFERROR(AVERAGE(S140,S144),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S140,S144),0)</f>
         <v>0</v>
       </c>
       <c r="U140" s="392"/>
@@ -44092,12 +44092,12 @@
         <f>R140</f>
         <v>0</v>
       </c>
-      <c r="W140" s="148">
-        <f>IFERROR(VLOOKUP(V140,AnsMTBL,2,FALSE),0)</f>
+      <c r="W140" s="148" cm="1">
+        <f t="array" aca="1" ref="W140" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X140" s="239">
-        <f>IFERROR(AVERAGE(W140,W144),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W140,W144),0)</f>
         <v>0</v>
       </c>
       <c r="Y140" s="392"/>
@@ -44124,12 +44124,12 @@
         <f>Interview!F208</f>
         <v>0</v>
       </c>
-      <c r="G141" s="148">
-        <f>IFERROR(VLOOKUP(F141,AnsMTBL,2,FALSE),0)</f>
+      <c r="G141" s="148" cm="1">
+        <f t="array" aca="1" ref="G141" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H141" s="239">
-        <f>IFERROR(AVERAGE(G141,G145),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G141,G145),0)</f>
         <v>0</v>
       </c>
       <c r="I141" s="392"/>
@@ -44137,12 +44137,12 @@
         <f>F141</f>
         <v>0</v>
       </c>
-      <c r="K141" s="148">
-        <f>IFERROR(VLOOKUP(J141,AnsMTBL,2,FALSE),0)</f>
+      <c r="K141" s="148" cm="1">
+        <f t="array" aca="1" ref="K141" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L141" s="239">
-        <f>IFERROR(AVERAGE(K141,K145),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K141,K145),0)</f>
         <v>0</v>
       </c>
       <c r="M141" s="392"/>
@@ -44150,12 +44150,12 @@
         <f>J141</f>
         <v>0</v>
       </c>
-      <c r="O141" s="148">
-        <f>IFERROR(VLOOKUP(N141,AnsMTBL,2,FALSE),0)</f>
+      <c r="O141" s="148" cm="1">
+        <f t="array" aca="1" ref="O141" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P141" s="239">
-        <f>IFERROR(AVERAGE(O141,O145),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O141,O145),0)</f>
         <v>0</v>
       </c>
       <c r="Q141" s="392"/>
@@ -44163,12 +44163,12 @@
         <f>N141</f>
         <v>0</v>
       </c>
-      <c r="S141" s="148">
-        <f>IFERROR(VLOOKUP(R141,AnsMTBL,2,FALSE),0)</f>
+      <c r="S141" s="148" cm="1">
+        <f t="array" aca="1" ref="S141" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T141" s="239">
-        <f>IFERROR(AVERAGE(S141,S145),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S141,S145),0)</f>
         <v>0</v>
       </c>
       <c r="U141" s="392"/>
@@ -44176,12 +44176,12 @@
         <f>R141</f>
         <v>0</v>
       </c>
-      <c r="W141" s="148">
-        <f>IFERROR(VLOOKUP(V141,AnsMTBL,2,FALSE),0)</f>
+      <c r="W141" s="148" cm="1">
+        <f t="array" aca="1" ref="W141" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X141" s="239">
-        <f>IFERROR(AVERAGE(W141,W145),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W141,W145),0)</f>
         <v>0</v>
       </c>
       <c r="Y141" s="392"/>
@@ -44238,8 +44238,8 @@
         <f>Interview!F211</f>
         <v>0</v>
       </c>
-      <c r="G143" s="148">
-        <f>IFERROR(VLOOKUP(F143,AnsMTBL,2,FALSE),0)</f>
+      <c r="G143" s="148" cm="1">
+        <f t="array" aca="1" ref="G143" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H143" s="122"/>
@@ -44248,8 +44248,8 @@
         <f>F143</f>
         <v>0</v>
       </c>
-      <c r="K143" s="148">
-        <f>IFERROR(VLOOKUP(J143,AnsMTBL,2,FALSE),0)</f>
+      <c r="K143" s="148" cm="1">
+        <f t="array" aca="1" ref="K143" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L143" s="122"/>
@@ -44258,8 +44258,8 @@
         <f>J143</f>
         <v>0</v>
       </c>
-      <c r="O143" s="148">
-        <f>IFERROR(VLOOKUP(N143,AnsMTBL,2,FALSE),0)</f>
+      <c r="O143" s="148" cm="1">
+        <f t="array" aca="1" ref="O143" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P143" s="122"/>
@@ -44268,8 +44268,8 @@
         <f>N143</f>
         <v>0</v>
       </c>
-      <c r="S143" s="148">
-        <f>IFERROR(VLOOKUP(R143,AnsMTBL,2,FALSE),0)</f>
+      <c r="S143" s="148" cm="1">
+        <f t="array" aca="1" ref="S143" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T143" s="122"/>
@@ -44278,8 +44278,8 @@
         <f>R143</f>
         <v>0</v>
       </c>
-      <c r="W143" s="148">
-        <f>IFERROR(VLOOKUP(V143,AnsMTBL,2,FALSE),0)</f>
+      <c r="W143" s="148" cm="1">
+        <f t="array" aca="1" ref="W143" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X143" s="122"/>
@@ -44307,8 +44307,8 @@
         <f>Interview!F213</f>
         <v>0</v>
       </c>
-      <c r="G144" s="148">
-        <f>IFERROR(VLOOKUP(F144,AnsMTBL,2,FALSE),0)</f>
+      <c r="G144" s="148" cm="1">
+        <f t="array" aca="1" ref="G144" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H144" s="122"/>
@@ -44317,8 +44317,8 @@
         <f>F144</f>
         <v>0</v>
       </c>
-      <c r="K144" s="148">
-        <f>IFERROR(VLOOKUP(J144,AnsMTBL,2,FALSE),0)</f>
+      <c r="K144" s="148" cm="1">
+        <f t="array" aca="1" ref="K144" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L144" s="122"/>
@@ -44327,8 +44327,8 @@
         <f>J144</f>
         <v>0</v>
       </c>
-      <c r="O144" s="148">
-        <f>IFERROR(VLOOKUP(N144,AnsMTBL,2,FALSE),0)</f>
+      <c r="O144" s="148" cm="1">
+        <f t="array" aca="1" ref="O144" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P144" s="122"/>
@@ -44337,8 +44337,8 @@
         <f>N144</f>
         <v>0</v>
       </c>
-      <c r="S144" s="148">
-        <f>IFERROR(VLOOKUP(R144,AnsMTBL,2,FALSE),0)</f>
+      <c r="S144" s="148" cm="1">
+        <f t="array" aca="1" ref="S144" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T144" s="122"/>
@@ -44347,8 +44347,8 @@
         <f>R144</f>
         <v>0</v>
       </c>
-      <c r="W144" s="148">
-        <f>IFERROR(VLOOKUP(V144,AnsMTBL,2,FALSE),0)</f>
+      <c r="W144" s="148" cm="1">
+        <f t="array" aca="1" ref="W144" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X144" s="122"/>
@@ -44376,8 +44376,8 @@
         <f>Interview!F215</f>
         <v>0</v>
       </c>
-      <c r="G145" s="148">
-        <f>IFERROR(VLOOKUP(F145,AnsMTBL,2,FALSE),0)</f>
+      <c r="G145" s="148" cm="1">
+        <f t="array" aca="1" ref="G145" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H145" s="122"/>
@@ -44386,8 +44386,8 @@
         <f>F145</f>
         <v>0</v>
       </c>
-      <c r="K145" s="148">
-        <f>IFERROR(VLOOKUP(J145,AnsMTBL,2,FALSE),0)</f>
+      <c r="K145" s="148" cm="1">
+        <f t="array" aca="1" ref="K145" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L145" s="122"/>
@@ -44396,8 +44396,8 @@
         <f>J145</f>
         <v>0</v>
       </c>
-      <c r="O145" s="148">
-        <f>IFERROR(VLOOKUP(N145,AnsMTBL,2,FALSE),0)</f>
+      <c r="O145" s="148" cm="1">
+        <f t="array" aca="1" ref="O145" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P145" s="122"/>
@@ -44406,8 +44406,8 @@
         <f>N145</f>
         <v>0</v>
       </c>
-      <c r="S145" s="148">
-        <f>IFERROR(VLOOKUP(R145,AnsMTBL,2,FALSE),0)</f>
+      <c r="S145" s="148" cm="1">
+        <f t="array" aca="1" ref="S145" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T145" s="122"/>
@@ -44416,8 +44416,8 @@
         <f>R145</f>
         <v>0</v>
       </c>
-      <c r="W145" s="148">
-        <f>IFERROR(VLOOKUP(V145,AnsMTBL,2,FALSE),0)</f>
+      <c r="W145" s="148" cm="1">
+        <f t="array" aca="1" ref="W145" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X145" s="122"/>
@@ -44528,80 +44528,80 @@
         <f>Interview!F218</f>
         <v>0</v>
       </c>
-      <c r="G148" s="148">
-        <f>IFERROR(VLOOKUP(F148,AnsFTBL,2,FALSE),0)</f>
+      <c r="G148" s="148" cm="1">
+        <f t="array" aca="1" ref="G148" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H148" s="239">
-        <f>IFERROR(AVERAGE(G148,G152),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G148,G152),0)</f>
         <v>0</v>
       </c>
       <c r="I148" s="394">
-        <f>SUM(H148:H150)</f>
+        <f ca="1">SUM(H148:H150)</f>
         <v>0</v>
       </c>
       <c r="J148" s="244">
         <f>F148</f>
         <v>0</v>
       </c>
-      <c r="K148" s="148">
-        <f>IFERROR(VLOOKUP(J148,AnsFTBL,2,FALSE),0)</f>
+      <c r="K148" s="148" cm="1">
+        <f t="array" aca="1" ref="K148" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L148" s="239">
-        <f>IFERROR(AVERAGE(K148,K152),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K148,K152),0)</f>
         <v>0</v>
       </c>
       <c r="M148" s="394">
-        <f>SUM(L148:L150)</f>
+        <f ca="1">SUM(L148:L150)</f>
         <v>0</v>
       </c>
       <c r="N148" s="244">
         <f>J148</f>
         <v>0</v>
       </c>
-      <c r="O148" s="148">
-        <f>IFERROR(VLOOKUP(N148,AnsFTBL,2,FALSE),0)</f>
+      <c r="O148" s="148" cm="1">
+        <f t="array" aca="1" ref="O148" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P148" s="239">
-        <f>IFERROR(AVERAGE(O148,O152),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O148,O152),0)</f>
         <v>0</v>
       </c>
       <c r="Q148" s="394">
-        <f>SUM(P148:P150)</f>
+        <f ca="1">SUM(P148:P150)</f>
         <v>0</v>
       </c>
       <c r="R148" s="244">
         <f>N148</f>
         <v>0</v>
       </c>
-      <c r="S148" s="148">
-        <f>IFERROR(VLOOKUP(R148,AnsFTBL,2,FALSE),0)</f>
+      <c r="S148" s="148" cm="1">
+        <f t="array" aca="1" ref="S148" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T148" s="239">
-        <f>IFERROR(AVERAGE(S148,S152),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S148,S152),0)</f>
         <v>0</v>
       </c>
       <c r="U148" s="394">
-        <f>SUM(T148:T150)</f>
+        <f ca="1">SUM(T148:T150)</f>
         <v>0</v>
       </c>
       <c r="V148" s="244">
         <f>R148</f>
         <v>0</v>
       </c>
-      <c r="W148" s="148">
-        <f>IFERROR(VLOOKUP(V148,AnsFTBL,2,FALSE),0)</f>
+      <c r="W148" s="148" cm="1">
+        <f t="array" aca="1" ref="W148" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X148" s="239">
-        <f>IFERROR(AVERAGE(W148,W152),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W148,W152),0)</f>
         <v>0</v>
       </c>
       <c r="Y148" s="394">
-        <f>SUM(X148:X150)</f>
+        <f ca="1">SUM(X148:X150)</f>
         <v>0</v>
       </c>
     </row>
@@ -44627,12 +44627,12 @@
         <f>Interview!F220</f>
         <v>0</v>
       </c>
-      <c r="G149" s="148">
-        <f>IFERROR(VLOOKUP(F149,AnsOTBL,2,FALSE),0)</f>
+      <c r="G149" s="148" cm="1">
+        <f t="array" aca="1" ref="G149" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H149" s="239">
-        <f>IFERROR(AVERAGE(G149,G153),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G149,G153),0)</f>
         <v>0</v>
       </c>
       <c r="I149" s="392"/>
@@ -44640,12 +44640,12 @@
         <f>F149</f>
         <v>0</v>
       </c>
-      <c r="K149" s="148">
-        <f>IFERROR(VLOOKUP(J149,AnsOTBL,2,FALSE),0)</f>
+      <c r="K149" s="148" cm="1">
+        <f t="array" aca="1" ref="K149" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L149" s="239">
-        <f>IFERROR(AVERAGE(K149,K153),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K149,K153),0)</f>
         <v>0</v>
       </c>
       <c r="M149" s="392"/>
@@ -44653,12 +44653,12 @@
         <f>J149</f>
         <v>0</v>
       </c>
-      <c r="O149" s="148">
-        <f>IFERROR(VLOOKUP(N149,AnsOTBL,2,FALSE),0)</f>
+      <c r="O149" s="148" cm="1">
+        <f t="array" aca="1" ref="O149" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P149" s="239">
-        <f>IFERROR(AVERAGE(O149,O153),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O149,O153),0)</f>
         <v>0</v>
       </c>
       <c r="Q149" s="392"/>
@@ -44666,12 +44666,12 @@
         <f>N149</f>
         <v>0</v>
       </c>
-      <c r="S149" s="148">
-        <f>IFERROR(VLOOKUP(R149,AnsOTBL,2,FALSE),0)</f>
+      <c r="S149" s="148" cm="1">
+        <f t="array" aca="1" ref="S149" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T149" s="239">
-        <f>IFERROR(AVERAGE(S149,S153),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S149,S153),0)</f>
         <v>0</v>
       </c>
       <c r="U149" s="392"/>
@@ -44679,12 +44679,12 @@
         <f>R149</f>
         <v>0</v>
       </c>
-      <c r="W149" s="148">
-        <f>IFERROR(VLOOKUP(V149,AnsOTBL,2,FALSE),0)</f>
+      <c r="W149" s="148" cm="1">
+        <f t="array" aca="1" ref="W149" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X149" s="239">
-        <f>IFERROR(AVERAGE(W149,W153),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W149,W153),0)</f>
         <v>0</v>
       </c>
       <c r="Y149" s="392"/>
@@ -44711,12 +44711,12 @@
         <f>Interview!F222</f>
         <v>0</v>
       </c>
-      <c r="G150" s="148">
-        <f>IFERROR(VLOOKUP(F150,AnsPTBL,2,FALSE),0)</f>
+      <c r="G150" s="148" cm="1">
+        <f t="array" aca="1" ref="G150" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H150" s="239">
-        <f>IFERROR(AVERAGE(G150,G154),0)</f>
+        <f ca="1">IFERROR(AVERAGE(G150,G154),0)</f>
         <v>0</v>
       </c>
       <c r="I150" s="392"/>
@@ -44724,12 +44724,12 @@
         <f>F150</f>
         <v>0</v>
       </c>
-      <c r="K150" s="148">
-        <f>IFERROR(VLOOKUP(J150,AnsPTBL,2,FALSE),0)</f>
+      <c r="K150" s="148" cm="1">
+        <f t="array" aca="1" ref="K150" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L150" s="239">
-        <f>IFERROR(AVERAGE(K150,K154),0)</f>
+        <f ca="1">IFERROR(AVERAGE(K150,K154),0)</f>
         <v>0</v>
       </c>
       <c r="M150" s="392"/>
@@ -44737,12 +44737,12 @@
         <f>J150</f>
         <v>0</v>
       </c>
-      <c r="O150" s="148">
-        <f>IFERROR(VLOOKUP(N150,AnsPTBL,2,FALSE),0)</f>
+      <c r="O150" s="148" cm="1">
+        <f t="array" aca="1" ref="O150" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P150" s="239">
-        <f>IFERROR(AVERAGE(O150,O154),0)</f>
+        <f ca="1">IFERROR(AVERAGE(O150,O154),0)</f>
         <v>0</v>
       </c>
       <c r="Q150" s="392"/>
@@ -44750,12 +44750,12 @@
         <f>N150</f>
         <v>0</v>
       </c>
-      <c r="S150" s="148">
-        <f>IFERROR(VLOOKUP(R150,AnsPTBL,2,FALSE),0)</f>
+      <c r="S150" s="148" cm="1">
+        <f t="array" aca="1" ref="S150" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T150" s="239">
-        <f>IFERROR(AVERAGE(S150,S154),0)</f>
+        <f ca="1">IFERROR(AVERAGE(S150,S154),0)</f>
         <v>0</v>
       </c>
       <c r="U150" s="392"/>
@@ -44763,12 +44763,12 @@
         <f>R150</f>
         <v>0</v>
       </c>
-      <c r="W150" s="148">
-        <f>IFERROR(VLOOKUP(V150,AnsPTBL,2,FALSE),0)</f>
+      <c r="W150" s="148" cm="1">
+        <f t="array" aca="1" ref="W150" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X150" s="239">
-        <f>IFERROR(AVERAGE(W150,W154),0)</f>
+        <f ca="1">IFERROR(AVERAGE(W150,W154),0)</f>
         <v>0</v>
       </c>
       <c r="Y150" s="392"/>
@@ -44825,8 +44825,8 @@
         <f>Interview!F225</f>
         <v>0</v>
       </c>
-      <c r="G152" s="148">
-        <f>IFERROR(VLOOKUP(F152,AnsFTBL,2,FALSE),0)</f>
+      <c r="G152" s="148" cm="1">
+        <f t="array" aca="1" ref="G152" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H152" s="122"/>
@@ -44835,8 +44835,8 @@
         <f>F152</f>
         <v>0</v>
       </c>
-      <c r="K152" s="148">
-        <f>IFERROR(VLOOKUP(J152,AnsFTBL,2,FALSE),0)</f>
+      <c r="K152" s="148" cm="1">
+        <f t="array" aca="1" ref="K152" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L152" s="122"/>
@@ -44845,8 +44845,8 @@
         <f>J152</f>
         <v>0</v>
       </c>
-      <c r="O152" s="148">
-        <f>IFERROR(VLOOKUP(N152,AnsFTBL,2,FALSE),0)</f>
+      <c r="O152" s="148" cm="1">
+        <f t="array" aca="1" ref="O152" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P152" s="122"/>
@@ -44855,8 +44855,8 @@
         <f>N152</f>
         <v>0</v>
       </c>
-      <c r="S152" s="148">
-        <f>IFERROR(VLOOKUP(R152,AnsFTBL,2,FALSE),0)</f>
+      <c r="S152" s="148" cm="1">
+        <f t="array" aca="1" ref="S152" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T152" s="122"/>
@@ -44865,8 +44865,8 @@
         <f>R152</f>
         <v>0</v>
       </c>
-      <c r="W152" s="148">
-        <f>IFERROR(VLOOKUP(V152,AnsFTBL,2,FALSE),0)</f>
+      <c r="W152" s="148" cm="1">
+        <f t="array" aca="1" ref="W152" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X152" s="122"/>
@@ -44894,8 +44894,8 @@
         <f>Interview!F227</f>
         <v>0</v>
       </c>
-      <c r="G153" s="148">
-        <f>IFERROR(VLOOKUP(F153,AnsHTBL,2,FALSE),0)</f>
+      <c r="G153" s="148" cm="1">
+        <f t="array" aca="1" ref="G153" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H153" s="122"/>
@@ -44904,8 +44904,8 @@
         <f>F153</f>
         <v>0</v>
       </c>
-      <c r="K153" s="148">
-        <f>IFERROR(VLOOKUP(J153,AnsHTBL,2,FALSE),0)</f>
+      <c r="K153" s="148" cm="1">
+        <f t="array" aca="1" ref="K153" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L153" s="122"/>
@@ -44914,8 +44914,8 @@
         <f>J153</f>
         <v>0</v>
       </c>
-      <c r="O153" s="148">
-        <f>IFERROR(VLOOKUP(N153,AnsHTBL,2,FALSE),0)</f>
+      <c r="O153" s="148" cm="1">
+        <f t="array" aca="1" ref="O153" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P153" s="122"/>
@@ -44924,8 +44924,8 @@
         <f>N153</f>
         <v>0</v>
       </c>
-      <c r="S153" s="148">
-        <f>IFERROR(VLOOKUP(R153,AnsHTBL,2,FALSE),0)</f>
+      <c r="S153" s="148" cm="1">
+        <f t="array" aca="1" ref="S153" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T153" s="122"/>
@@ -44934,8 +44934,8 @@
         <f t="shared" ref="V153:V154" si="13">R153</f>
         <v>0</v>
       </c>
-      <c r="W153" s="148">
-        <f>IFERROR(VLOOKUP(V153,AnsHTBL,2,FALSE),0)</f>
+      <c r="W153" s="148" cm="1">
+        <f t="array" aca="1" ref="W153" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X153" s="122"/>
@@ -44963,8 +44963,8 @@
         <f>Interview!F228</f>
         <v>0</v>
       </c>
-      <c r="G154" s="148">
-        <f>IFERROR(VLOOKUP(F154,AnsSTBL,2,FALSE),0)</f>
+      <c r="G154" s="148" cm="1">
+        <f t="array" aca="1" ref="G154" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-2]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H154" s="122"/>
@@ -44973,8 +44973,8 @@
         <f>F154</f>
         <v>0</v>
       </c>
-      <c r="K154" s="148">
-        <f>IFERROR(VLOOKUP(J154,AnsSTBL,2,FALSE),0)</f>
+      <c r="K154" s="148" cm="1">
+        <f t="array" aca="1" ref="K154" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-6]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L154" s="122"/>
@@ -44983,8 +44983,8 @@
         <f>J154</f>
         <v>0</v>
       </c>
-      <c r="O154" s="148">
-        <f>IFERROR(VLOOKUP(N154,AnsSTBL,2,FALSE),0)</f>
+      <c r="O154" s="148" cm="1">
+        <f t="array" aca="1" ref="O154" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-10]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P154" s="122"/>
@@ -44993,8 +44993,8 @@
         <f>N154</f>
         <v>0</v>
       </c>
-      <c r="S154" s="148">
-        <f>IFERROR(VLOOKUP(R154,AnsSTBL,2,FALSE),0)</f>
+      <c r="S154" s="148" cm="1">
+        <f t="array" aca="1" ref="S154" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-14]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T154" s="122"/>
@@ -45003,8 +45003,8 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W154" s="148">
-        <f>IFERROR(VLOOKUP(V154,AnsSTBL,2,FALSE),0)</f>
+      <c r="W154" s="148" cm="1">
+        <f t="array" aca="1" ref="W154" ca="1">IFERROR(VLOOKUP(INDIRECT("RC[-1]",0),INDIRECT("Ans"&amp;INDIRECT("RC[-18]",0)&amp;"TBL"),2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X154" s="122"/>
@@ -47906,35 +47906,35 @@
         <v>0</v>
       </c>
       <c r="C12" s="124">
-        <f>Roadmap!M18</f>
+        <f ca="1">Roadmap!M18</f>
         <v>0</v>
       </c>
       <c r="D12" s="36">
-        <f t="shared" ref="D12:D26" si="5">C12</f>
+        <f t="shared" ref="D12:D26" ca="1" si="5">C12</f>
         <v>0</v>
       </c>
       <c r="E12" s="124">
-        <f>Roadmap!Q18</f>
+        <f ca="1">Roadmap!Q18</f>
         <v>0</v>
       </c>
       <c r="F12" s="36">
-        <f t="shared" ref="F12:F26" si="6">E12</f>
+        <f t="shared" ref="F12:F26" ca="1" si="6">E12</f>
         <v>0</v>
       </c>
       <c r="G12" s="124">
-        <f>Roadmap!U18</f>
+        <f ca="1">Roadmap!U18</f>
         <v>0</v>
       </c>
       <c r="H12" s="37">
-        <f t="shared" ref="H12:H26" si="7">G12</f>
+        <f t="shared" ref="H12:H26" ca="1" si="7">G12</f>
         <v>0</v>
       </c>
       <c r="I12" s="124">
-        <f>Roadmap!Y18</f>
+        <f ca="1">Roadmap!Y18</f>
         <v>0</v>
       </c>
       <c r="J12" s="37">
-        <f t="shared" ref="J12:J26" si="8">I12</f>
+        <f t="shared" ref="J12:J26" ca="1" si="8">I12</f>
         <v>0</v>
       </c>
       <c r="K12" s="118">
@@ -47957,19 +47957,19 @@
         <v>Strategy &amp; metrics</v>
       </c>
       <c r="AA12" s="119">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="AB12" s="119">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC12" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AD12" s="119">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AE12" s="119">
@@ -47986,35 +47986,35 @@
         <v>0</v>
       </c>
       <c r="C13" s="125">
-        <f>Roadmap!M27</f>
+        <f ca="1">Roadmap!M27</f>
         <v>0</v>
       </c>
       <c r="D13" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="E13" s="125">
-        <f>Roadmap!Q27</f>
+        <f ca="1">Roadmap!Q27</f>
         <v>0</v>
       </c>
       <c r="F13" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G13" s="125">
-        <f>Roadmap!U27</f>
+        <f ca="1">Roadmap!U27</f>
         <v>0</v>
       </c>
       <c r="H13" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="I13" s="125">
-        <f>Roadmap!Y27</f>
+        <f ca="1">Roadmap!Y27</f>
         <v>0</v>
       </c>
       <c r="J13" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="K13" s="118">
@@ -48037,19 +48037,19 @@
         <v>Policy &amp; Compliance</v>
       </c>
       <c r="AA13" s="119">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="AB13" s="119">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC13" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AD13" s="119">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AE13" s="119">
@@ -48066,35 +48066,35 @@
         <v>0</v>
       </c>
       <c r="C14" s="125">
-        <f>Roadmap!M36</f>
+        <f ca="1">Roadmap!M36</f>
         <v>0</v>
       </c>
       <c r="D14" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="E14" s="125">
-        <f>Roadmap!Q36</f>
+        <f ca="1">Roadmap!Q36</f>
         <v>0</v>
       </c>
       <c r="F14" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G14" s="125">
-        <f>Roadmap!U36</f>
+        <f ca="1">Roadmap!U36</f>
         <v>0</v>
       </c>
       <c r="H14" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="I14" s="125">
-        <f>Roadmap!Y36</f>
+        <f ca="1">Roadmap!Y36</f>
         <v>0</v>
       </c>
       <c r="J14" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="K14" s="118">
@@ -48117,19 +48117,19 @@
         <v>Education &amp; Guidance</v>
       </c>
       <c r="AA14" s="119">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="AB14" s="119">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC14" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AD14" s="119">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AE14" s="119">
@@ -48146,35 +48146,35 @@
         <v>0</v>
       </c>
       <c r="C15" s="247">
-        <f>Roadmap!M46</f>
+        <f ca="1">Roadmap!M46</f>
         <v>0</v>
       </c>
       <c r="D15" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="E15" s="247">
-        <f>Roadmap!Q46</f>
+        <f ca="1">Roadmap!Q46</f>
         <v>0</v>
       </c>
       <c r="F15" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G15" s="247">
-        <f>Roadmap!U46</f>
+        <f ca="1">Roadmap!U46</f>
         <v>0</v>
       </c>
       <c r="H15" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="I15" s="247">
-        <f>Roadmap!Y46</f>
+        <f ca="1">Roadmap!Y46</f>
         <v>0</v>
       </c>
       <c r="J15" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="K15" s="118">
@@ -48197,19 +48197,19 @@
         <v>Threat Assessment</v>
       </c>
       <c r="AA15" s="119">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="AB15" s="119">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC15" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AD15" s="119">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AE15" s="119">
@@ -48226,35 +48226,35 @@
         <v>0</v>
       </c>
       <c r="C16" s="125">
-        <f>Roadmap!M55</f>
+        <f ca="1">Roadmap!M55</f>
         <v>0</v>
       </c>
       <c r="D16" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="E16" s="125">
-        <f>Roadmap!Q55</f>
+        <f ca="1">Roadmap!Q55</f>
         <v>0</v>
       </c>
       <c r="F16" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G16" s="125">
-        <f>Roadmap!U55</f>
+        <f ca="1">Roadmap!U55</f>
         <v>0</v>
       </c>
       <c r="H16" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="I16" s="125">
-        <f>Roadmap!Y55</f>
+        <f ca="1">Roadmap!Y55</f>
         <v>0</v>
       </c>
       <c r="J16" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="K16" s="118">
@@ -48277,19 +48277,19 @@
         <v>Security Requirements</v>
       </c>
       <c r="AA16" s="119">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="AB16" s="119">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC16" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AD16" s="119">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AE16" s="119">
@@ -48306,35 +48306,35 @@
         <v>0</v>
       </c>
       <c r="C17" s="125">
-        <f>Roadmap!M64</f>
+        <f ca="1">Roadmap!M64</f>
         <v>0</v>
       </c>
       <c r="D17" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="E17" s="125">
-        <f>Roadmap!Q64</f>
+        <f ca="1">Roadmap!Q64</f>
         <v>0</v>
       </c>
       <c r="F17" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G17" s="125">
-        <f>Roadmap!U64</f>
+        <f ca="1">Roadmap!U64</f>
         <v>0</v>
       </c>
       <c r="H17" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="I17" s="125">
-        <f>Roadmap!Y64</f>
+        <f ca="1">Roadmap!Y64</f>
         <v>0</v>
       </c>
       <c r="J17" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="K17" s="118">
@@ -48360,19 +48360,19 @@
         <v>Secure Architecture</v>
       </c>
       <c r="AA17" s="119">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="AB17" s="119">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC17" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AD17" s="119">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AE17" s="119">
@@ -48389,35 +48389,35 @@
         <v>0</v>
       </c>
       <c r="C18" s="249">
-        <f>Roadmap!M74</f>
+        <f ca="1">Roadmap!M74</f>
         <v>0</v>
       </c>
       <c r="D18" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="E18" s="249">
-        <f>Roadmap!Q74</f>
+        <f ca="1">Roadmap!Q74</f>
         <v>0</v>
       </c>
       <c r="F18" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G18" s="249">
-        <f>Roadmap!U74</f>
+        <f ca="1">Roadmap!U74</f>
         <v>0</v>
       </c>
       <c r="H18" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="I18" s="249">
-        <f>Roadmap!Y74</f>
+        <f ca="1">Roadmap!Y74</f>
         <v>0</v>
       </c>
       <c r="J18" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="K18" s="118">
@@ -48440,19 +48440,19 @@
         <v>Secure Build</v>
       </c>
       <c r="AA18" s="119">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="AB18" s="119">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC18" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AD18" s="119">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AE18" s="119">
@@ -48469,35 +48469,35 @@
         <v>0</v>
       </c>
       <c r="C19" s="125">
-        <f>Roadmap!M83</f>
+        <f ca="1">Roadmap!M83</f>
         <v>0</v>
       </c>
       <c r="D19" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="E19" s="125">
-        <f>Roadmap!Q83</f>
+        <f ca="1">Roadmap!Q83</f>
         <v>0</v>
       </c>
       <c r="F19" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G19" s="125">
-        <f>Roadmap!U83</f>
+        <f ca="1">Roadmap!U83</f>
         <v>0</v>
       </c>
       <c r="H19" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="I19" s="125">
-        <f>Roadmap!Y83</f>
+        <f ca="1">Roadmap!Y83</f>
         <v>0</v>
       </c>
       <c r="J19" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="K19" s="118">
@@ -48520,19 +48520,19 @@
         <v>Secure Deployment</v>
       </c>
       <c r="AA19" s="119">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="AB19" s="119">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC19" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AD19" s="119">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AE19" s="119">
@@ -48549,35 +48549,35 @@
         <v>0</v>
       </c>
       <c r="C20" s="125">
-        <f>Roadmap!M92</f>
+        <f ca="1">Roadmap!M92</f>
         <v>0</v>
       </c>
       <c r="D20" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="E20" s="125">
-        <f>Roadmap!Q92</f>
+        <f ca="1">Roadmap!Q92</f>
         <v>0</v>
       </c>
       <c r="F20" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G20" s="125">
-        <f>Roadmap!U92</f>
+        <f ca="1">Roadmap!U92</f>
         <v>0</v>
       </c>
       <c r="H20" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="I20" s="125">
-        <f>Roadmap!Y92</f>
+        <f ca="1">Roadmap!Y92</f>
         <v>0</v>
       </c>
       <c r="J20" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="K20" s="118">
@@ -48600,19 +48600,19 @@
         <v>Defect Management</v>
       </c>
       <c r="AA20" s="119">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="AB20" s="119">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC20" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AD20" s="119">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AE20" s="119">
@@ -48629,35 +48629,35 @@
         <v>0</v>
       </c>
       <c r="C21" s="249">
-        <f>Roadmap!M102</f>
+        <f ca="1">Roadmap!M102</f>
         <v>0</v>
       </c>
       <c r="D21" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="E21" s="249">
-        <f>Roadmap!Q102</f>
+        <f ca="1">Roadmap!Q102</f>
         <v>0</v>
       </c>
       <c r="F21" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G21" s="249">
-        <f>Roadmap!U102</f>
+        <f ca="1">Roadmap!U102</f>
         <v>0</v>
       </c>
       <c r="H21" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="I21" s="249">
-        <f>Roadmap!Y102</f>
+        <f ca="1">Roadmap!Y102</f>
         <v>0</v>
       </c>
       <c r="J21" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="K21" s="118">
@@ -48680,19 +48680,19 @@
         <v>Architecture Assessment</v>
       </c>
       <c r="AA21" s="119">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="AB21" s="119">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC21" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AD21" s="119">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AE21" s="119">
@@ -48709,35 +48709,35 @@
         <v>0</v>
       </c>
       <c r="C22" s="125">
-        <f>Roadmap!M111</f>
+        <f ca="1">Roadmap!M111</f>
         <v>0</v>
       </c>
       <c r="D22" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="E22" s="125">
-        <f>Roadmap!Q111</f>
+        <f ca="1">Roadmap!Q111</f>
         <v>0</v>
       </c>
       <c r="F22" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G22" s="125">
-        <f>Roadmap!U111</f>
+        <f ca="1">Roadmap!U111</f>
         <v>0</v>
       </c>
       <c r="H22" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="I22" s="125">
-        <f>Roadmap!Y111</f>
+        <f ca="1">Roadmap!Y111</f>
         <v>0</v>
       </c>
       <c r="J22" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="K22" s="118">
@@ -48760,19 +48760,19 @@
         <v>Requirements Testing</v>
       </c>
       <c r="AA22" s="119">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="AB22" s="119">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC22" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AD22" s="119">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AE22" s="119">
@@ -48789,35 +48789,35 @@
         <v>0</v>
       </c>
       <c r="C23" s="125">
-        <f>Roadmap!M120</f>
+        <f ca="1">Roadmap!M120</f>
         <v>0</v>
       </c>
       <c r="D23" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="E23" s="125">
-        <f>Roadmap!Q120</f>
+        <f ca="1">Roadmap!Q120</f>
         <v>0</v>
       </c>
       <c r="F23" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G23" s="125">
-        <f>Roadmap!U120</f>
+        <f ca="1">Roadmap!U120</f>
         <v>0</v>
       </c>
       <c r="H23" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="I23" s="125">
-        <f>Roadmap!Y120</f>
+        <f ca="1">Roadmap!Y120</f>
         <v>0</v>
       </c>
       <c r="J23" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="K23" s="118">
@@ -48840,19 +48840,19 @@
         <v>Security Testing</v>
       </c>
       <c r="AA23" s="119">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="AB23" s="119">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC23" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AD23" s="119">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AE23" s="119">
@@ -48869,35 +48869,35 @@
         <v>0</v>
       </c>
       <c r="C24" s="247">
-        <f>Roadmap!M130</f>
+        <f ca="1">Roadmap!M130</f>
         <v>0</v>
       </c>
       <c r="D24" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="E24" s="247">
-        <f>Roadmap!Q130</f>
+        <f ca="1">Roadmap!Q130</f>
         <v>0</v>
       </c>
       <c r="F24" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G24" s="247">
-        <f>Roadmap!U130</f>
+        <f ca="1">Roadmap!U130</f>
         <v>0</v>
       </c>
       <c r="H24" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="I24" s="247">
-        <f>Roadmap!Y130</f>
+        <f ca="1">Roadmap!Y130</f>
         <v>0</v>
       </c>
       <c r="J24" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="K24" s="118">
@@ -48920,19 +48920,19 @@
         <v>Incident Management</v>
       </c>
       <c r="AA24" s="119">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="AB24" s="119">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC24" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AD24" s="119">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AE24" s="119">
@@ -48949,35 +48949,35 @@
         <v>0</v>
       </c>
       <c r="C25" s="125">
-        <f>Roadmap!M139</f>
+        <f ca="1">Roadmap!M139</f>
         <v>0</v>
       </c>
       <c r="D25" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="E25" s="125">
-        <f>Roadmap!Q139</f>
+        <f ca="1">Roadmap!Q139</f>
         <v>0</v>
       </c>
       <c r="F25" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G25" s="125">
-        <f>Roadmap!U139</f>
+        <f ca="1">Roadmap!U139</f>
         <v>0</v>
       </c>
       <c r="H25" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="I25" s="125">
-        <f>Roadmap!Y139</f>
+        <f ca="1">Roadmap!Y139</f>
         <v>0</v>
       </c>
       <c r="J25" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="K25" s="118">
@@ -49000,19 +49000,19 @@
         <v>Environment Management</v>
       </c>
       <c r="AA25" s="119">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="AB25" s="119">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC25" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AD25" s="119">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AE25" s="119">
@@ -49029,35 +49029,35 @@
         <v>0</v>
       </c>
       <c r="C26" s="251">
-        <f>Roadmap!M148</f>
+        <f ca="1">Roadmap!M148</f>
         <v>0</v>
       </c>
       <c r="D26" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="E26" s="251">
-        <f>Roadmap!Q148</f>
+        <f ca="1">Roadmap!Q148</f>
         <v>0</v>
       </c>
       <c r="F26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G26" s="251">
-        <f>Roadmap!U148</f>
+        <f ca="1">Roadmap!U148</f>
         <v>0</v>
       </c>
       <c r="H26" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="I26" s="251">
-        <f>Roadmap!Y148</f>
+        <f ca="1">Roadmap!Y148</f>
         <v>0</v>
       </c>
       <c r="J26" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="K26" s="118">
@@ -49080,19 +49080,19 @@
         <v>Operational Management</v>
       </c>
       <c r="AA26" s="119">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="AB26" s="119">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC26" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AD26" s="119">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AE26" s="119">
@@ -49126,17 +49126,17 @@
       </c>
       <c r="D28" s="119"/>
       <c r="E28" s="119">
-        <f>SUM(E12:E26)-SUM(C12:C26)</f>
+        <f ca="1">SUM(E12:E26)-SUM(C12:C26)</f>
         <v>0</v>
       </c>
       <c r="F28" s="119"/>
       <c r="G28" s="119">
-        <f>SUM(G12:G26)-SUM(E12:E26)</f>
+        <f ca="1">SUM(G12:G26)-SUM(E12:E26)</f>
         <v>0</v>
       </c>
       <c r="H28" s="119"/>
       <c r="I28" s="119">
-        <f>SUM(I12:I26)-SUM(G12:G26)</f>
+        <f ca="1">SUM(I12:I26)-SUM(G12:G26)</f>
         <v>0</v>
       </c>
       <c r="J28" s="119"/>

--- a/resources/SAMM_spreadsheet.xlsx
+++ b/resources/SAMM_spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\projects\toolbox-spreadsheet\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292BC4B7-7B12-4347-AC37-4172A4AAFB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B808CE-3672-45DD-B358-61FE064D1F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attribution and License" sheetId="1" r:id="rId1"/>
@@ -11879,6 +11879,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFC221"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -20847,7 +20850,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="I227" sqref="I227:I228"/>
     </sheetView>
   </sheetViews>
@@ -29524,14 +29527,14 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z144"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" style="284" customWidth="1"/>
-    <col min="2" max="2" width="23.81640625" style="284" customWidth="1"/>
+    <col min="1" max="1" width="14.90625" style="284" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="284" customWidth="1"/>
     <col min="3" max="3" width="9.1796875" style="284" customWidth="1"/>
     <col min="4" max="6" width="6.6328125" style="284" customWidth="1"/>
     <col min="7" max="7" width="15" style="284" hidden="1" customWidth="1"/>
@@ -29539,8 +29542,8 @@
     <col min="9" max="10" width="15" style="284" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.36328125" style="284" customWidth="1"/>
     <col min="12" max="14" width="15" style="284" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6328125" style="284" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.1796875" style="284" customWidth="1"/>
+    <col min="20" max="20" width="14.7265625" style="284" customWidth="1"/>
+    <col min="21" max="21" width="24.6328125" style="284" customWidth="1"/>
     <col min="22" max="22" width="10.1796875" style="284" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.453125" style="284" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.453125" style="284" customWidth="1"/>
@@ -34061,23 +34064,23 @@
       <c r="L93" s="303"/>
       <c r="M93" s="303"/>
       <c r="N93" s="303"/>
-      <c r="V93" t="str">
+      <c r="V93" s="305" t="str">
         <f>T94</f>
         <v>Governance</v>
       </c>
-      <c r="W93" t="str">
+      <c r="W93" s="305" t="str">
         <f>T97</f>
         <v>Design</v>
       </c>
-      <c r="X93" t="str">
+      <c r="X93" s="305" t="str">
         <f>T100</f>
         <v>Implementation</v>
       </c>
-      <c r="Y93" t="str">
+      <c r="Y93" s="305" t="str">
         <f>T103</f>
         <v>Verification</v>
       </c>
-      <c r="Z93" t="str">
+      <c r="Z93" s="305" t="str">
         <f>T106</f>
         <v>Operations</v>
       </c>
@@ -35778,7 +35781,7 @@
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="3"/>
-        <color rgb="FFBDBF17"/>
+        <color rgb="FFFFC221"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
@@ -35814,7 +35817,7 @@
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
-        <color rgb="FFBDBF17"/>
+        <color rgb="FFFFC221"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
@@ -35877,7 +35880,7 @@
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="3"/>
-        <color rgb="FFBDBF17"/>
+        <color rgb="FFFFC221"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
@@ -35922,7 +35925,7 @@
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="3"/>
-        <color rgb="FFBDBF17"/>
+        <color rgb="FFFFC221"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
@@ -35967,7 +35970,7 @@
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="3"/>
-        <color rgb="FFBDBF17"/>
+        <color rgb="FFFFC221"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
@@ -35994,7 +35997,7 @@
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
-        <color rgb="FFBDBF17"/>
+        <color rgb="FFFFC221"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
@@ -36048,7 +36051,7 @@
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
-        <color rgb="FFBDBF17"/>
+        <color rgb="FFFFC221"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
@@ -36057,7 +36060,7 @@
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
-        <color rgb="FFBDBF17"/>
+        <color rgb="FFFFC221"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
@@ -36066,7 +36069,7 @@
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
-        <color rgb="FFBDBF17"/>
+        <color rgb="FFFFC221"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
@@ -36219,7 +36222,7 @@
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
-        <color rgb="FFBDBF17"/>
+        <color rgb="FFFFC221"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
@@ -36228,7 +36231,7 @@
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
-        <color rgb="FFBDBF17"/>
+        <color rgb="FFFFC221"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
@@ -36237,7 +36240,7 @@
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
-        <color rgb="FFBDBF17"/>
+        <color rgb="FFFFC221"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
@@ -36305,8 +36308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y154"/>
   <sheetViews>
-    <sheetView topLeftCell="B82" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView tabSelected="1" topLeftCell="B121" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M148" sqref="M148:M154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -36317,16 +36320,17 @@
     <col min="4" max="4" width="68" style="130" customWidth="1"/>
     <col min="5" max="5" width="5.1796875" style="143" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="39" style="25" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" style="21" customWidth="1"/>
-    <col min="8" max="8" width="8.6328125" style="117" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" style="21" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6328125" style="117" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="11" customWidth="1"/>
     <col min="10" max="10" width="36.6328125" style="284" customWidth="1"/>
-    <col min="11" max="11" width="7" style="284" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" style="284" customWidth="1"/>
+    <col min="11" max="11" width="7" style="284" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="284" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="16.453125" style="284" customWidth="1"/>
     <col min="14" max="14" width="49.81640625" style="284" customWidth="1"/>
-    <col min="15" max="15" width="28.6328125" style="284" customWidth="1"/>
-    <col min="16" max="17" width="15" style="284" customWidth="1"/>
+    <col min="15" max="15" width="28.6328125" style="284" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="284" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="15" style="284" customWidth="1"/>
     <col min="18" max="18" width="36.1796875" style="284" customWidth="1"/>
     <col min="19" max="20" width="15" style="284" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="15" style="284" customWidth="1"/>
@@ -48637,7 +48641,7 @@
       <formula>K98&lt;G98</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
+  <dataValidations disablePrompts="1" count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:F20 F22:F24 F27:F29 F31:F33 F36:F38 F40:F42 F46:F48 F50:F52 F55:F57 F59:F61 F64:F66 F68:F70 F74:F76 F78:F80 F83:F85 F87:F89 F92:F94 F96:F98 F102:F104 F106:F108 F111:F113 F115:F117 F120:F122 F124:F126 F130:F132 F134:F136 F139:F141 F143:F145 F148:F150 F152:F154" xr:uid="{89F0B844-4463-A141-8363-D064AC2726DD}">
       <formula1>INDIRECT("Ans"&amp;INDIRECT("RC[-1]",0))</formula1>
     </dataValidation>
@@ -48666,8 +48670,8 @@
   </sheetPr>
   <dimension ref="A1:AE132"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -51330,7 +51334,7 @@
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="U9:V9"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B12:B26" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
